--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -959,10 +959,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>형준  + 현태</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 구현 현황</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -974,6 +970,10 @@
     <t>화면 설계</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>형준  +  현태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -982,7 +982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1125,17 +1125,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2258,6 +2250,21 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2288,26 +2295,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2317,39 +2312,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2387,65 +2349,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,6 +2402,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2466,6 +2419,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2487,6 +2455,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2515,30 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2570,46 +2577,31 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2835,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2874,15 +2866,15 @@
       <c r="X1" s="80"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="133"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="138"/>
       <c r="I2" s="80"/>
       <c r="U2" s="80"/>
       <c r="V2" s="80"/>
@@ -2890,13 +2882,13 @@
       <c r="X2" s="80"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="80"/>
       <c r="U3" s="80"/>
       <c r="V3" s="80"/>
@@ -2948,15 +2940,15 @@
       <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="130" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
+      <c r="B7" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
       <c r="I7" s="80"/>
       <c r="U7" s="82"/>
       <c r="V7" s="80"/>
@@ -2964,25 +2956,25 @@
       <c r="X7" s="80"/>
     </row>
     <row r="8" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="C8" s="237" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="236" t="s">
+      <c r="D8" s="238" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="237" t="s">
+      <c r="E8" s="239" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="238" t="s">
+      <c r="F8" s="240" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="239" t="s">
+      <c r="G8" s="241" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="240" t="s">
+      <c r="H8" s="242" t="s">
         <v>192</v>
       </c>
       <c r="U8" s="80"/>
@@ -3034,7 +3026,7 @@
       <c r="G10" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="231" t="s">
+      <c r="H10" s="127" t="s">
         <v>194</v>
       </c>
       <c r="U10" s="82"/>
@@ -3061,7 +3053,7 @@
       <c r="G11" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="231" t="s">
+      <c r="H11" s="127" t="s">
         <v>194</v>
       </c>
       <c r="U11" s="82"/>
@@ -3088,7 +3080,7 @@
       <c r="G12" s="118" t="s">
         <v>194</v>
       </c>
-      <c r="H12" s="232" t="s">
+      <c r="H12" s="128" t="s">
         <v>194</v>
       </c>
       <c r="U12" s="82"/>
@@ -3116,7 +3108,7 @@
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1" thickBot="1">
       <c r="B14" s="126" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -3142,25 +3134,25 @@
       <c r="X14" s="80"/>
     </row>
     <row r="15" spans="1:24" ht="32.25" customHeight="1">
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="235" t="s">
+      <c r="D15" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="237" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="237" t="s">
+      <c r="E15" s="239" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="237" t="s">
+      <c r="G15" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="H15" s="242" t="s">
+      <c r="H15" s="244" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="80"/>
@@ -3181,7 +3173,7 @@
       <c r="X15" s="80"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="132" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="121" t="s">
@@ -3199,7 +3191,7 @@
       <c r="G16" s="111">
         <v>0</v>
       </c>
-      <c r="H16" s="233">
+      <c r="H16" s="129">
         <v>0</v>
       </c>
       <c r="I16" s="80"/>
@@ -3220,7 +3212,7 @@
       <c r="X16" s="80"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="127"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="122" t="s">
         <v>197</v>
       </c>
@@ -3236,7 +3228,7 @@
       <c r="G17" s="111">
         <v>0</v>
       </c>
-      <c r="H17" s="233">
+      <c r="H17" s="129">
         <v>0</v>
       </c>
       <c r="I17" s="80"/>
@@ -3257,7 +3249,7 @@
       <c r="X17" s="80"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="127"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="123" t="s">
         <v>198</v>
       </c>
@@ -3273,7 +3265,7 @@
       <c r="G18" s="111">
         <v>0</v>
       </c>
-      <c r="H18" s="233">
+      <c r="H18" s="129">
         <v>0</v>
       </c>
       <c r="I18" s="80"/>
@@ -3294,7 +3286,7 @@
       <c r="X18" s="80"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="127"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="123" t="s">
         <v>199</v>
       </c>
@@ -3310,7 +3302,7 @@
       <c r="G19" s="111">
         <v>0</v>
       </c>
-      <c r="H19" s="233">
+      <c r="H19" s="129">
         <v>0</v>
       </c>
       <c r="I19" s="80"/>
@@ -3331,7 +3323,7 @@
       <c r="X19" s="80"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="127"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="123" t="s">
         <v>200</v>
       </c>
@@ -3347,7 +3339,7 @@
       <c r="G20" s="111">
         <v>0</v>
       </c>
-      <c r="H20" s="233">
+      <c r="H20" s="129">
         <v>0</v>
       </c>
       <c r="I20" s="80"/>
@@ -3368,7 +3360,7 @@
       <c r="X20" s="80"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="127"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="123" t="s">
         <v>201</v>
       </c>
@@ -3384,7 +3376,7 @@
       <c r="G21" s="111">
         <v>0</v>
       </c>
-      <c r="H21" s="233">
+      <c r="H21" s="129">
         <v>0</v>
       </c>
       <c r="I21" s="80"/>
@@ -3394,7 +3386,7 @@
       <c r="X21" s="80"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="127"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="122" t="s">
         <v>202</v>
       </c>
@@ -3410,7 +3402,7 @@
       <c r="G22" s="111">
         <v>0</v>
       </c>
-      <c r="H22" s="233">
+      <c r="H22" s="129">
         <v>0</v>
       </c>
       <c r="I22" s="80"/>
@@ -3420,7 +3412,7 @@
       <c r="X22" s="80"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="133" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="120" t="s">
@@ -3438,7 +3430,7 @@
       <c r="G23" s="111">
         <v>0</v>
       </c>
-      <c r="H23" s="233">
+      <c r="H23" s="129">
         <v>0</v>
       </c>
       <c r="I23" s="80"/>
@@ -3448,7 +3440,7 @@
       <c r="X23" s="80"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="128"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="120" t="s">
         <v>205</v>
       </c>
@@ -3464,7 +3456,7 @@
       <c r="G24" s="111">
         <v>0</v>
       </c>
-      <c r="H24" s="233">
+      <c r="H24" s="129">
         <v>0</v>
       </c>
       <c r="I24" s="80"/>
@@ -3474,12 +3466,12 @@
       <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="128"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="120" t="s">
         <v>206</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E25" s="109" t="s">
         <v>120</v>
@@ -3490,7 +3482,7 @@
       <c r="G25" s="111">
         <v>0</v>
       </c>
-      <c r="H25" s="233">
+      <c r="H25" s="129">
         <v>0</v>
       </c>
       <c r="I25" s="80"/>
@@ -3500,7 +3492,7 @@
       <c r="X25" s="80"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="128"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="120" t="s">
         <v>207</v>
       </c>
@@ -3516,7 +3508,7 @@
       <c r="G26" s="111">
         <v>0</v>
       </c>
-      <c r="H26" s="233">
+      <c r="H26" s="129">
         <v>0</v>
       </c>
       <c r="I26" s="80"/>
@@ -3526,7 +3518,7 @@
       <c r="X26" s="80"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="128"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="120" t="s">
         <v>208</v>
       </c>
@@ -3542,7 +3534,7 @@
       <c r="G27" s="111">
         <v>0</v>
       </c>
-      <c r="H27" s="233">
+      <c r="H27" s="129">
         <v>0</v>
       </c>
       <c r="I27" s="80"/>
@@ -3553,7 +3545,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="80"/>
-      <c r="B28" s="129"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="124" t="s">
         <v>209</v>
       </c>
@@ -3563,13 +3555,13 @@
       <c r="E28" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="243">
+      <c r="F28" s="130">
         <v>0</v>
       </c>
-      <c r="G28" s="243">
+      <c r="G28" s="130">
         <v>0</v>
       </c>
-      <c r="H28" s="244">
+      <c r="H28" s="131">
         <v>0</v>
       </c>
       <c r="I28" s="80"/>
@@ -8873,23 +8865,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -8913,21 +8905,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9083,12 +9075,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="41" t="s">
         <v>76</v>
       </c>
@@ -9138,22 +9130,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144" t="s">
+      <c r="A8" s="171"/>
+      <c r="B8" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="158" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="148" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="154" t="s">
         <v>100</v>
       </c>
       <c r="K8" s="57">
@@ -9194,16 +9186,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="142"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="159"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="165"/>
+      <c r="J9" s="155"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9242,16 +9234,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="160"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="150"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="166"/>
+      <c r="J10" s="156"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9292,20 +9284,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="143"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="144" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="158" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="148" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="164" t="s">
+      <c r="J11" s="154" t="s">
         <v>101</v>
       </c>
       <c r="K11" s="57">
@@ -9346,16 +9338,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="143"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="159"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="149"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="165"/>
+      <c r="J12" s="155"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9394,16 +9386,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="143"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="160"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="150"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="166"/>
+      <c r="J13" s="156"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9438,20 +9430,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="143"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="144" t="s">
+      <c r="A14" s="160"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="158" t="s">
+      <c r="D14" s="151"/>
+      <c r="E14" s="148" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="169" t="s">
+      <c r="J14" s="159" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="57">
@@ -9492,16 +9484,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="143"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="159"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="149"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="165"/>
+      <c r="J15" s="155"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9540,16 +9532,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="143"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="168"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="158"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="166"/>
+      <c r="J16" s="156"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9592,22 +9584,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="142"/>
-      <c r="B17" s="144" t="s">
+      <c r="A17" s="171"/>
+      <c r="B17" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="143" t="s">
+      <c r="D17" s="163"/>
+      <c r="E17" s="160" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="147" t="s">
+      <c r="J17" s="172" t="s">
         <v>103</v>
       </c>
       <c r="K17" s="57">
@@ -9640,16 +9632,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="142"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="150"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="148"/>
+      <c r="J18" s="173"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9680,16 +9672,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="142"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="150"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="148"/>
+      <c r="J19" s="173"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9720,16 +9712,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="150"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="161"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="148"/>
+      <c r="J20" s="173"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9760,16 +9752,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="142"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="150"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="161"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="148"/>
+      <c r="J21" s="173"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -9800,16 +9792,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="142"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="153"/>
+      <c r="A22" s="171"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="162"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="149"/>
+      <c r="J22" s="174"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -9840,20 +9832,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="142"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="144" t="s">
+      <c r="A23" s="171"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="151"/>
-      <c r="E23" s="143" t="s">
+      <c r="D23" s="163"/>
+      <c r="E23" s="160" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="147" t="s">
+      <c r="J23" s="172" t="s">
         <v>104</v>
       </c>
       <c r="K23" s="58">
@@ -9886,16 +9878,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="142"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="150"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="161"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="148"/>
+      <c r="J24" s="173"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -9926,16 +9918,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="142"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="150"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="161"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="148"/>
+      <c r="J25" s="173"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -9966,16 +9958,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="142"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="150"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="161"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="148"/>
+      <c r="J26" s="173"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10006,16 +9998,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="142"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="150"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="148"/>
+      <c r="J27" s="173"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10046,16 +10038,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="142"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="150"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="161"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="148"/>
+      <c r="J28" s="173"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10086,20 +10078,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="142"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="144" t="s">
+      <c r="A29" s="171"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="143" t="s">
+      <c r="D29" s="163"/>
+      <c r="E29" s="160" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="147" t="s">
+      <c r="J29" s="172" t="s">
         <v>105</v>
       </c>
       <c r="K29" s="58">
@@ -10132,16 +10124,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="142"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="150"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="161"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="148"/>
+      <c r="J30" s="173"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10172,16 +10164,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="142"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="150"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="161"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="148"/>
+      <c r="J31" s="173"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10212,16 +10204,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="142"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="153"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="162"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="149"/>
+      <c r="J32" s="174"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10253,7 +10245,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="142" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10295,7 +10287,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="156"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="38" t="s">
         <v>64</v>
       </c>
@@ -10335,7 +10327,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="156"/>
+      <c r="B35" s="143"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10375,7 +10367,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="157"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="38" t="s">
         <v>66</v>
       </c>
@@ -18551,6 +18543,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18567,21 +18574,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18659,24 +18651,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="166" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18700,22 +18692,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -18874,12 +18866,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="192"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="177"/>
       <c r="J7" s="97" t="s">
         <v>76</v>
       </c>
@@ -18932,27 +18924,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="174" t="s">
+      <c r="B8" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="196" t="s">
+      <c r="D8" s="180"/>
+      <c r="E8" s="183" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="164">
+      <c r="K8" s="154">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -18993,17 +18985,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="150"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="194"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="184"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19042,17 +19034,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="150"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="194"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="184"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19097,17 +19089,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="150"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="194"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="181"/>
       <c r="E11" s="184"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19117,8 +19109,8 @@
       <c r="N11" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="198"/>
-      <c r="P11" s="199"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="191"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19142,17 +19134,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="150"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="194"/>
+      <c r="A12" s="161"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="181"/>
       <c r="E12" s="184"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19162,8 +19154,8 @@
       <c r="N12" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="O12" s="200"/>
-      <c r="P12" s="201"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="193"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19187,17 +19179,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="150"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="194"/>
+      <c r="A13" s="161"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="181"/>
       <c r="E13" s="184"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19207,8 +19199,8 @@
       <c r="N13" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="O13" s="200"/>
-      <c r="P13" s="201"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="193"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19232,17 +19224,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="150"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="195"/>
+      <c r="A14" s="161"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="182"/>
       <c r="E14" s="185"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19252,8 +19244,8 @@
       <c r="N14" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="O14" s="202"/>
-      <c r="P14" s="203"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="195"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19277,8 +19269,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="150"/>
-      <c r="B15" s="176"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="102" t="s">
         <v>133</v>
       </c>
@@ -19334,25 +19326,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="150"/>
-      <c r="B16" s="174" t="s">
+      <c r="A16" s="161"/>
+      <c r="B16" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="205" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="183" t="s">
+      <c r="D16" s="189"/>
+      <c r="E16" s="199" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="164" t="s">
+      <c r="J16" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="169">
+      <c r="K16" s="159">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19393,17 +19385,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="150"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="194"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="181"/>
       <c r="E17" s="184"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="165"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="155"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19442,17 +19434,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="150"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="194"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="181"/>
       <c r="E18" s="184"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="165"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19491,21 +19483,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="150"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="177" t="s">
+      <c r="A19" s="161"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="194"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="184"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="164" t="s">
+      <c r="J19" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="K19" s="165"/>
+      <c r="K19" s="155"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19544,17 +19536,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="150"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="194"/>
+      <c r="A20" s="161"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="181"/>
       <c r="E20" s="184"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="165"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="155"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19599,12 +19591,12 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="150"/>
-      <c r="B21" s="175"/>
+      <c r="A21" s="161"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="194"/>
+      <c r="D21" s="181"/>
       <c r="E21" s="184"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -19613,7 +19605,7 @@
       <c r="J21" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="165"/>
+      <c r="K21" s="155"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19652,21 +19644,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="150"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="177" t="s">
+      <c r="A22" s="161"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="205" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="194"/>
+      <c r="D22" s="181"/>
       <c r="E22" s="184"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="164" t="s">
+      <c r="J22" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="165"/>
+      <c r="K22" s="155"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19705,17 +19697,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="150"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="195"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="182"/>
       <c r="E23" s="185"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="166"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="156"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19754,25 +19746,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="150"/>
-      <c r="B24" s="186" t="s">
+      <c r="A24" s="161"/>
+      <c r="B24" s="196" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="183" t="s">
+      <c r="D24" s="151"/>
+      <c r="E24" s="199" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="164" t="s">
+      <c r="J24" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="164">
+      <c r="K24" s="154">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -19813,17 +19805,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="150"/>
-      <c r="B25" s="187"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="162"/>
+      <c r="A25" s="161"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="152"/>
       <c r="E25" s="184"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -19862,17 +19854,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="150"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="162"/>
+      <c r="A26" s="161"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="152"/>
       <c r="E26" s="184"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -19911,13 +19903,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="153"/>
-      <c r="B27" s="188"/>
+      <c r="A27" s="162"/>
+      <c r="B27" s="198"/>
       <c r="C27" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="163"/>
-      <c r="E27" s="189"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="200"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -19966,27 +19958,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="174" t="s">
+      <c r="B28" s="186" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="143" t="s">
+      <c r="D28" s="208"/>
+      <c r="E28" s="160" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="147" t="s">
+      <c r="J28" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="164">
+      <c r="K28" s="154">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -19998,8 +19990,8 @@
       <c r="N28" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O28" s="170"/>
-      <c r="P28" s="171"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="202"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20023,19 +20015,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="150"/>
-      <c r="B29" s="175"/>
+      <c r="A29" s="161"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="150"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="161"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="180"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="178"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20045,8 +20037,8 @@
       <c r="N29" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="O29" s="172"/>
-      <c r="P29" s="173"/>
+      <c r="O29" s="203"/>
+      <c r="P29" s="204"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20070,19 +20062,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="150"/>
-      <c r="B30" s="176"/>
+      <c r="A30" s="161"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="154"/>
-      <c r="E30" s="153"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="162"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="181"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="179"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20092,8 +20084,8 @@
       <c r="N30" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O30" s="172"/>
-      <c r="P30" s="173"/>
+      <c r="O30" s="203"/>
+      <c r="P30" s="204"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20117,7 +20109,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="153"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="89" t="s">
         <v>147</v>
       </c>
@@ -20147,8 +20139,8 @@
       <c r="N31" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="172"/>
-      <c r="P31" s="173"/>
+      <c r="O31" s="203"/>
+      <c r="P31" s="204"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28678,6 +28670,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="O28:P31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A27"/>
@@ -28692,25 +28703,6 @@
     <mergeCell ref="K16:K23"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="O11:P14"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="O28:P31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="E16:E23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28788,24 +28780,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="204"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="217"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -28829,22 +28821,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="205"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="218"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29003,12 +28995,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="42" t="s">
         <v>76</v>
       </c>
@@ -29061,27 +29053,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="171" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="211"/>
-      <c r="E8" s="196" t="s">
+      <c r="D8" s="224"/>
+      <c r="E8" s="183" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="169">
+      <c r="K8" s="159">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29128,17 +29120,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="142"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="162"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="184"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="95"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="165"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="155"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29177,17 +29169,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="163"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="153"/>
       <c r="E10" s="185"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="95"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="166"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="156"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29226,23 +29218,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="216" t="s">
+      <c r="A11" s="171"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="183" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="199" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="95"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="164" t="s">
+      <c r="J11" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="169">
+      <c r="K11" s="159">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29283,17 +29275,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="142"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="162"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="184"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="95"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="165"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="155"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29332,17 +29324,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="142"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="189"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="200"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="166"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="156"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29387,23 +29379,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="142"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="216" t="s">
+      <c r="A14" s="171"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="215"/>
-      <c r="E14" s="212" t="s">
+      <c r="D14" s="213"/>
+      <c r="E14" s="225" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="95"/>
       <c r="G14" s="95"/>
       <c r="H14" s="19"/>
       <c r="I14" s="95"/>
-      <c r="J14" s="164" t="s">
+      <c r="J14" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="169">
+      <c r="K14" s="159">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29444,17 +29436,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="142"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="213"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="215"/>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
       <c r="H15" s="19"/>
       <c r="I15" s="95"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="165"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="155"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29464,7 +29456,7 @@
       <c r="N15" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="O15" s="209">
+      <c r="O15" s="222">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29493,17 +29485,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="142"/>
-      <c r="B16" s="220"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="214"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="216"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="166"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="156"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29513,7 +29505,7 @@
       <c r="N16" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="210"/>
+      <c r="O16" s="223"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29546,23 +29538,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="142"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="216" t="s">
+      <c r="A17" s="171"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151" t="s">
+      <c r="D17" s="163"/>
+      <c r="E17" s="163" t="s">
         <v>160</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="164" t="s">
+      <c r="J17" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="169">
+      <c r="K17" s="159">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29603,17 +29595,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="142"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="165"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29623,7 +29615,7 @@
       <c r="N18" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="209">
+      <c r="O18" s="222">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29652,17 +29644,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="142"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="166"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="156"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29672,7 +29664,7 @@
       <c r="N19" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="210"/>
+      <c r="O19" s="223"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29699,27 +29691,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="142"/>
-      <c r="B20" s="220"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="206" t="s">
+      <c r="D20" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="207"/>
-      <c r="F20" s="207"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="208"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="221"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29742,27 +29734,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="216" t="s">
+      <c r="B21" s="209" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="216" t="s">
+      <c r="C21" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="219" t="s">
+      <c r="D21" s="213"/>
+      <c r="E21" s="214" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
       <c r="H21" s="20"/>
       <c r="I21" s="95"/>
-      <c r="J21" s="164" t="s">
+      <c r="J21" s="154" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="169">
+      <c r="K21" s="159">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -29803,17 +29795,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="150"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="213"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="215"/>
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
       <c r="H22" s="20"/>
       <c r="I22" s="95"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="165"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="155"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -29852,17 +29844,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="150"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="213"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="215"/>
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
       <c r="H23" s="20"/>
       <c r="I23" s="95"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="165"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="155"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -29901,17 +29893,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="153"/>
-      <c r="B24" s="218"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="214"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="216"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="166"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="156"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38434,24 +38426,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38468,6 +38442,24 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38544,24 +38536,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="166" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38585,22 +38577,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38759,12 +38751,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
       <c r="J7" s="42" t="s">
         <v>76</v>
       </c>
@@ -38817,25 +38809,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="222" t="s">
+      <c r="B8" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="223"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="228" t="s">
+      <c r="C8" s="228"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="233" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="164" t="s">
+      <c r="J8" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="164">
+      <c r="K8" s="154">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -38880,17 +38872,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="142"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="229"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="234"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="180"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="178"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -38929,17 +38921,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="142"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="229"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="234"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="180"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="178"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -38978,17 +38970,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="225"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="229"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="234"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="180"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="178"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39025,17 +39017,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="142"/>
-      <c r="B12" s="226"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="230"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="235"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="181"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="179"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -39072,7 +39064,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="142"/>
+      <c r="A13" s="171"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39137,8 +39129,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="142"/>
-      <c r="B14" s="186" t="s">
+      <c r="A14" s="171"/>
+      <c r="B14" s="196" t="s">
         <v>181</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39200,8 +39192,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="142"/>
-      <c r="B15" s="187"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="197"/>
       <c r="C15" s="44" t="s">
         <v>85</v>
       </c>
@@ -39255,7 +39247,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="142"/>
+      <c r="A16" s="171"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39314,7 +39306,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="142"/>
+      <c r="A17" s="171"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39373,8 +39365,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="142"/>
-      <c r="B18" s="221" t="s">
+      <c r="A18" s="171"/>
+      <c r="B18" s="226" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39428,8 +39420,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="142"/>
-      <c r="B19" s="221"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="43" t="s">
         <v>93</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="239">
   <si>
     <r>
       <rPr>
@@ -1966,7 +1966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2383,6 +2383,18 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2413,26 +2425,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2442,39 +2442,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2512,65 +2479,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2580,6 +2532,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2591,6 +2549,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2612,6 +2585,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2640,30 +2676,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2701,29 +2713,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2987,15 +2984,15 @@
       <c r="X1" s="80"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="80"/>
       <c r="U2" s="80"/>
       <c r="V2" s="80"/>
@@ -3003,13 +3000,13 @@
       <c r="X2" s="80"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="151"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="80"/>
       <c r="U3" s="80"/>
       <c r="V3" s="80"/>
@@ -3061,15 +3058,15 @@
       <c r="X6" s="80"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="80"/>
       <c r="U7" s="82"/>
       <c r="V7" s="80"/>
@@ -3294,7 +3291,7 @@
       <c r="X15" s="80"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="146" t="s">
         <v>195</v>
       </c>
       <c r="C16" s="121" t="s">
@@ -3333,7 +3330,7 @@
       <c r="X16" s="80"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="142"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="122" t="s">
         <v>197</v>
       </c>
@@ -3370,7 +3367,7 @@
       <c r="X17" s="80"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="142"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="123" t="s">
         <v>198</v>
       </c>
@@ -3407,7 +3404,7 @@
       <c r="X18" s="80"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="142"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="123" t="s">
         <v>199</v>
       </c>
@@ -3444,7 +3441,7 @@
       <c r="X19" s="80"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="142"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="123" t="s">
         <v>200</v>
       </c>
@@ -3481,7 +3478,7 @@
       <c r="X20" s="80"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="142"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="123" t="s">
         <v>201</v>
       </c>
@@ -3507,7 +3504,7 @@
       <c r="X21" s="80"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="142"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="122" t="s">
         <v>202</v>
       </c>
@@ -3533,7 +3530,7 @@
       <c r="X22" s="80"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="147" t="s">
         <v>203</v>
       </c>
       <c r="C23" s="120" t="s">
@@ -3561,7 +3558,7 @@
       <c r="X23" s="80"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="143"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="120" t="s">
         <v>205</v>
       </c>
@@ -3587,7 +3584,7 @@
       <c r="X24" s="80"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="143"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="120" t="s">
         <v>206</v>
       </c>
@@ -3613,7 +3610,7 @@
       <c r="X25" s="80"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="143"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="120" t="s">
         <v>207</v>
       </c>
@@ -3639,7 +3636,7 @@
       <c r="X26" s="80"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="143"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="120" t="s">
         <v>208</v>
       </c>
@@ -3666,7 +3663,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="80"/>
-      <c r="B28" s="144"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="124" t="s">
         <v>209</v>
       </c>
@@ -8986,23 +8983,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -9026,21 +9023,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -9196,12 +9193,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="41" t="s">
         <v>76</v>
       </c>
@@ -9251,22 +9248,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="157"/>
+      <c r="A8" s="185"/>
       <c r="B8" s="159" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="173" t="s">
+      <c r="D8" s="165"/>
+      <c r="E8" s="162" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="179" t="s">
+      <c r="J8" s="168" t="s">
         <v>100</v>
       </c>
       <c r="K8" s="57">
@@ -9307,16 +9304,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="157"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="160"/>
       <c r="C9" s="160"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="174"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="163"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="180"/>
+      <c r="J9" s="169"/>
       <c r="K9" s="57">
         <v>2</v>
       </c>
@@ -9355,16 +9352,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="157"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="160"/>
       <c r="C10" s="161"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="175"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="181"/>
+      <c r="J10" s="170"/>
       <c r="K10" s="57">
         <v>3</v>
       </c>
@@ -9405,20 +9402,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="158"/>
+      <c r="A11" s="174"/>
       <c r="B11" s="160"/>
       <c r="C11" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="176"/>
-      <c r="E11" s="173" t="s">
+      <c r="D11" s="165"/>
+      <c r="E11" s="162" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="179" t="s">
+      <c r="J11" s="168" t="s">
         <v>101</v>
       </c>
       <c r="K11" s="57">
@@ -9459,16 +9456,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="158"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="160"/>
       <c r="C12" s="160"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="174"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="163"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="180"/>
+      <c r="J12" s="169"/>
       <c r="K12" s="57">
         <v>2</v>
       </c>
@@ -9507,16 +9504,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="158"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="160"/>
       <c r="C13" s="161"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="175"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="164"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="181"/>
+      <c r="J13" s="170"/>
       <c r="K13" s="57">
         <v>3</v>
       </c>
@@ -9551,20 +9548,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="174"/>
       <c r="B14" s="160"/>
       <c r="C14" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="173" t="s">
+      <c r="D14" s="165"/>
+      <c r="E14" s="162" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="184" t="s">
+      <c r="J14" s="173" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="57">
@@ -9605,16 +9602,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="158"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="160"/>
       <c r="C15" s="160"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="174"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="163"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="180"/>
+      <c r="J15" s="169"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -9653,16 +9650,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="158"/>
+      <c r="A16" s="174"/>
       <c r="B16" s="161"/>
       <c r="C16" s="161"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="183"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="172"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="181"/>
+      <c r="J16" s="170"/>
       <c r="K16" s="57">
         <v>3</v>
       </c>
@@ -9705,22 +9702,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="157"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="159" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="158" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="174" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="162" t="s">
+      <c r="J17" s="186" t="s">
         <v>103</v>
       </c>
       <c r="K17" s="57">
@@ -9753,16 +9750,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="157"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="160"/>
       <c r="C18" s="160"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="165"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="175"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="163"/>
+      <c r="J18" s="187"/>
       <c r="K18" s="57">
         <v>2</v>
       </c>
@@ -9793,16 +9790,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="157"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="160"/>
       <c r="C19" s="160"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="165"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="175"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="163"/>
+      <c r="J19" s="187"/>
       <c r="K19" s="57">
         <v>3</v>
       </c>
@@ -9833,16 +9830,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="157"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="160"/>
       <c r="C20" s="160"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="165"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="175"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="45"/>
-      <c r="J20" s="163"/>
+      <c r="J20" s="187"/>
       <c r="K20" s="57">
         <v>4</v>
       </c>
@@ -9873,16 +9870,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="157"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="160"/>
       <c r="C21" s="160"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="165"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="175"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="45"/>
-      <c r="J21" s="163"/>
+      <c r="J21" s="187"/>
       <c r="K21" s="57">
         <v>5</v>
       </c>
@@ -9913,16 +9910,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="157"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="160"/>
       <c r="C22" s="161"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="168"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="176"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="46"/>
-      <c r="J22" s="164"/>
+      <c r="J22" s="188"/>
       <c r="K22" s="58">
         <v>6</v>
       </c>
@@ -9953,20 +9950,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="157"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="160"/>
       <c r="C23" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="166"/>
-      <c r="E23" s="158" t="s">
+      <c r="D23" s="177"/>
+      <c r="E23" s="174" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="46"/>
-      <c r="J23" s="162" t="s">
+      <c r="J23" s="186" t="s">
         <v>104</v>
       </c>
       <c r="K23" s="58">
@@ -9999,16 +9996,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="157"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="160"/>
       <c r="C24" s="160"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="165"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="175"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="46"/>
-      <c r="J24" s="163"/>
+      <c r="J24" s="187"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -10039,16 +10036,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="157"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="160"/>
       <c r="C25" s="160"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="165"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="175"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="46"/>
-      <c r="J25" s="163"/>
+      <c r="J25" s="187"/>
       <c r="K25" s="58">
         <v>3</v>
       </c>
@@ -10079,16 +10076,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="157"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="160"/>
       <c r="C26" s="160"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="165"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="175"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="46"/>
-      <c r="J26" s="163"/>
+      <c r="J26" s="187"/>
       <c r="K26" s="58">
         <v>4</v>
       </c>
@@ -10119,16 +10116,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="157"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="160"/>
       <c r="C27" s="160"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="165"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="175"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="46"/>
-      <c r="J27" s="163"/>
+      <c r="J27" s="187"/>
       <c r="K27" s="58">
         <v>5</v>
       </c>
@@ -10159,16 +10156,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="157"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="160"/>
       <c r="C28" s="160"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="165"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="175"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="70"/>
-      <c r="J28" s="163"/>
+      <c r="J28" s="187"/>
       <c r="K28" s="58">
         <v>6</v>
       </c>
@@ -10199,20 +10196,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="157"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="160"/>
       <c r="C29" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="166"/>
-      <c r="E29" s="158" t="s">
+      <c r="D29" s="177"/>
+      <c r="E29" s="174" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="46"/>
-      <c r="J29" s="162" t="s">
+      <c r="J29" s="186" t="s">
         <v>105</v>
       </c>
       <c r="K29" s="58">
@@ -10245,16 +10242,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="157"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="160"/>
       <c r="C30" s="160"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="165"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="46"/>
-      <c r="J30" s="163"/>
+      <c r="J30" s="187"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -10285,16 +10282,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="157"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="160"/>
       <c r="C31" s="160"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="165"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="175"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="46"/>
-      <c r="J31" s="163"/>
+      <c r="J31" s="187"/>
       <c r="K31" s="58">
         <v>3</v>
       </c>
@@ -10325,16 +10322,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="157"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="161"/>
       <c r="C32" s="161"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="168"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="176"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="46"/>
-      <c r="J32" s="164"/>
+      <c r="J32" s="188"/>
       <c r="K32" s="58">
         <v>4</v>
       </c>
@@ -10366,7 +10363,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="156" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="38" t="s">
@@ -10408,7 +10405,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="171"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="38" t="s">
         <v>64</v>
       </c>
@@ -10448,7 +10445,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="171"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="38" t="s">
         <v>57</v>
       </c>
@@ -10488,7 +10485,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="172"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="38" t="s">
         <v>66</v>
       </c>
@@ -18664,6 +18661,21 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -18680,21 +18692,6 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -18772,24 +18769,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -18813,22 +18810,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -18987,12 +18984,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="205" t="s">
+      <c r="F7" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="206"/>
-      <c r="H7" s="206"/>
-      <c r="I7" s="207"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="191"/>
       <c r="J7" s="97" t="s">
         <v>76</v>
       </c>
@@ -19045,27 +19042,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="194"/>
+      <c r="E8" s="197" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="179" t="s">
+      <c r="J8" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="179">
+      <c r="K8" s="168">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -19106,17 +19103,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="199"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="201"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -19155,17 +19152,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="199"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="198"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -19210,17 +19207,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="190"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="199"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="198"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -19230,8 +19227,8 @@
       <c r="N11" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="O11" s="213"/>
-      <c r="P11" s="214"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="205"/>
       <c r="Q11" s="75"/>
       <c r="R11" s="7"/>
       <c r="S11" s="8"/>
@@ -19255,17 +19252,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="199"/>
+      <c r="A12" s="175"/>
+      <c r="B12" s="201"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="198"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -19275,8 +19272,8 @@
       <c r="N12" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="O12" s="215"/>
-      <c r="P12" s="216"/>
+      <c r="O12" s="206"/>
+      <c r="P12" s="207"/>
       <c r="Q12" s="75"/>
       <c r="R12" s="7"/>
       <c r="S12" s="8"/>
@@ -19300,17 +19297,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="199"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="198"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
       <c r="L13" s="57">
         <v>6</v>
       </c>
@@ -19320,8 +19317,8 @@
       <c r="N13" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="O13" s="215"/>
-      <c r="P13" s="216"/>
+      <c r="O13" s="206"/>
+      <c r="P13" s="207"/>
       <c r="Q13" s="75"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
@@ -19345,17 +19342,17 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="210"/>
-      <c r="E14" s="200"/>
+      <c r="A14" s="175"/>
+      <c r="B14" s="201"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="199"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
       <c r="L14" s="57">
         <v>7</v>
       </c>
@@ -19365,8 +19362,8 @@
       <c r="N14" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="O14" s="217"/>
-      <c r="P14" s="218"/>
+      <c r="O14" s="208"/>
+      <c r="P14" s="209"/>
       <c r="Q14" s="75"/>
       <c r="R14" s="7"/>
       <c r="S14" s="8"/>
@@ -19390,8 +19387,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="26.25" customHeight="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="191"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="202"/>
       <c r="C15" s="102" t="s">
         <v>133</v>
       </c>
@@ -19447,25 +19444,25 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="189" t="s">
+      <c r="A16" s="175"/>
+      <c r="B16" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="212"/>
-      <c r="E16" s="198" t="s">
+      <c r="D16" s="203"/>
+      <c r="E16" s="213" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="179" t="s">
+      <c r="J16" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="184">
+      <c r="K16" s="173">
         <v>3</v>
       </c>
       <c r="L16" s="57">
@@ -19506,17 +19503,17 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="209"/>
-      <c r="E17" s="199"/>
+      <c r="A17" s="175"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="198"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="180"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="57">
         <v>2</v>
       </c>
@@ -19555,17 +19552,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="209"/>
-      <c r="E18" s="199"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="198"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="180"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="169"/>
       <c r="L18" s="57">
         <v>3</v>
       </c>
@@ -19604,21 +19601,21 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="192" t="s">
+      <c r="A19" s="175"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="219" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="199"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="198"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="179" t="s">
+      <c r="J19" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="K19" s="180"/>
+      <c r="K19" s="169"/>
       <c r="L19" s="57">
         <v>4</v>
       </c>
@@ -19657,17 +19654,17 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="199"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="198"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="180"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="169"/>
       <c r="L20" s="57">
         <v>5</v>
       </c>
@@ -19712,13 +19709,13 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A21" s="165"/>
-      <c r="B21" s="190"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="201"/>
       <c r="C21" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="199"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="198"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -19726,7 +19723,7 @@
       <c r="J21" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="180"/>
+      <c r="K21" s="169"/>
       <c r="L21" s="57">
         <v>6</v>
       </c>
@@ -19765,21 +19762,21 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="192" t="s">
+      <c r="A22" s="175"/>
+      <c r="B22" s="201"/>
+      <c r="C22" s="219" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="199"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="198"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="179" t="s">
+      <c r="J22" s="168" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="180"/>
+      <c r="K22" s="169"/>
       <c r="L22" s="57">
         <v>7</v>
       </c>
@@ -19818,17 +19815,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="200"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="199"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="181"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="170"/>
       <c r="L23" s="57">
         <v>8</v>
       </c>
@@ -19867,25 +19864,25 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="201" t="s">
+      <c r="A24" s="175"/>
+      <c r="B24" s="210" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="189" t="s">
+      <c r="C24" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="198" t="s">
+      <c r="D24" s="165"/>
+      <c r="E24" s="213" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="179" t="s">
+      <c r="J24" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="179">
+      <c r="K24" s="168">
         <v>2</v>
       </c>
       <c r="L24" s="57">
@@ -19926,17 +19923,17 @@
       <c r="AK24" s="1"/>
     </row>
     <row r="25" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="190"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="199"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="198"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
+      <c r="J25" s="192"/>
+      <c r="K25" s="192"/>
       <c r="L25" s="57">
         <v>2</v>
       </c>
@@ -19975,17 +19972,17 @@
       <c r="AK25" s="1"/>
     </row>
     <row r="26" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A26" s="165"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="199"/>
+      <c r="A26" s="175"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="198"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="196"/>
-      <c r="K26" s="196"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="57">
         <v>3</v>
       </c>
@@ -20024,13 +20021,13 @@
       <c r="AK26" s="1"/>
     </row>
     <row r="27" spans="1:37" ht="38.25" customHeight="1">
-      <c r="A27" s="168"/>
-      <c r="B27" s="203"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="204"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="214"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -20079,27 +20076,27 @@
       <c r="AK27" s="1"/>
     </row>
     <row r="28" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="189" t="s">
+      <c r="B28" s="200" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="197"/>
-      <c r="E28" s="158" t="s">
+      <c r="D28" s="222"/>
+      <c r="E28" s="174" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="45"/>
-      <c r="J28" s="162" t="s">
+      <c r="J28" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="179">
+      <c r="K28" s="168">
         <v>4</v>
       </c>
       <c r="L28" s="57">
@@ -20111,8 +20108,8 @@
       <c r="N28" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O28" s="185"/>
-      <c r="P28" s="186"/>
+      <c r="O28" s="215"/>
+      <c r="P28" s="216"/>
       <c r="Q28" s="77"/>
       <c r="R28" s="18"/>
       <c r="S28" s="2"/>
@@ -20136,19 +20133,19 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A29" s="165"/>
-      <c r="B29" s="190"/>
+      <c r="A29" s="175"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="167"/>
-      <c r="E29" s="165"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="175"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="195"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="192"/>
       <c r="L29" s="57">
         <v>2</v>
       </c>
@@ -20158,8 +20155,8 @@
       <c r="N29" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="O29" s="187"/>
-      <c r="P29" s="188"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="218"/>
       <c r="Q29" s="77"/>
       <c r="R29" s="66"/>
       <c r="S29" s="2"/>
@@ -20183,19 +20180,19 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="1:37" ht="19.5" customHeight="1">
-      <c r="A30" s="165"/>
-      <c r="B30" s="191"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="202"/>
       <c r="C30" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="169"/>
-      <c r="E30" s="168"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="196"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="193"/>
       <c r="L30" s="57">
         <v>3</v>
       </c>
@@ -20205,8 +20202,8 @@
       <c r="N30" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O30" s="187"/>
-      <c r="P30" s="188"/>
+      <c r="O30" s="217"/>
+      <c r="P30" s="218"/>
       <c r="Q30" s="77"/>
       <c r="R30" s="66"/>
       <c r="S30" s="2"/>
@@ -20230,7 +20227,7 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="1:37" ht="32.25" customHeight="1">
-      <c r="A31" s="168"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="89" t="s">
         <v>147</v>
       </c>
@@ -20260,8 +20257,8 @@
       <c r="N31" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="O31" s="187"/>
-      <c r="P31" s="188"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="218"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="66"/>
       <c r="S31" s="2"/>
@@ -28791,6 +28788,25 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="33">
+    <mergeCell ref="O28:P31"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C8:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C24:C26"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A27"/>
@@ -28805,25 +28821,6 @@
     <mergeCell ref="K16:K23"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="O11:P14"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="O28:P31"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C8:C14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="E16:E23"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28901,24 +28898,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="219"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="231"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -28942,22 +28939,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="220"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="232"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -29116,12 +29113,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="42" t="s">
         <v>76</v>
       </c>
@@ -29174,27 +29171,27 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="185" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="235" t="s">
+      <c r="B8" s="226" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D8" s="226"/>
-      <c r="E8" s="211" t="s">
+      <c r="D8" s="238"/>
+      <c r="E8" s="197" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="179" t="s">
+      <c r="J8" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="184">
+      <c r="K8" s="173">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -29241,17 +29238,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="235"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="160"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="199"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="198"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="95"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="180"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="169"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -29290,17 +29287,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A10" s="157"/>
-      <c r="B10" s="235"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="161"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="200"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="199"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="95"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="181"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="170"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -29339,23 +29336,23 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A11" s="157"/>
-      <c r="B11" s="235"/>
-      <c r="C11" s="231" t="s">
+      <c r="A11" s="185"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="223" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="176"/>
-      <c r="E11" s="198" t="s">
+      <c r="D11" s="165"/>
+      <c r="E11" s="213" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="95"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="179" t="s">
+      <c r="J11" s="168" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="184">
+      <c r="K11" s="173">
         <v>4</v>
       </c>
       <c r="L11" s="57">
@@ -29396,17 +29393,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33.75" customHeight="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="235"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="199"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="198"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="95"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="180"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="169"/>
       <c r="L12" s="57">
         <v>2</v>
       </c>
@@ -29445,17 +29442,17 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="36" customHeight="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="204"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="181"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="170"/>
       <c r="L13" s="57">
         <v>3</v>
       </c>
@@ -29500,23 +29497,23 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="36" customHeight="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="235"/>
-      <c r="C14" s="231" t="s">
+      <c r="A14" s="185"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="230"/>
-      <c r="E14" s="227" t="s">
+      <c r="D14" s="227"/>
+      <c r="E14" s="239" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="95"/>
       <c r="G14" s="95"/>
       <c r="H14" s="19"/>
       <c r="I14" s="95"/>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="184">
+      <c r="K14" s="173">
         <v>2</v>
       </c>
       <c r="L14" s="57">
@@ -29557,17 +29554,17 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="36" customHeight="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="235"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="228"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="229"/>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
       <c r="H15" s="19"/>
       <c r="I15" s="95"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="180"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="57">
         <v>2</v>
       </c>
@@ -29577,7 +29574,7 @@
       <c r="N15" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="O15" s="224">
+      <c r="O15" s="236">
         <v>2</v>
       </c>
       <c r="P15" s="71">
@@ -29606,17 +29603,17 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="235"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="229"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="230"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="196"/>
-      <c r="K16" s="181"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="170"/>
       <c r="L16" s="57">
         <v>3</v>
       </c>
@@ -29626,7 +29623,7 @@
       <c r="N16" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="225"/>
+      <c r="O16" s="237"/>
       <c r="P16" s="71">
         <v>0</v>
       </c>
@@ -29659,23 +29656,23 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="231" t="s">
+      <c r="A17" s="185"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="177" t="s">
         <v>160</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="45"/>
-      <c r="J17" s="179" t="s">
+      <c r="J17" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="184">
+      <c r="K17" s="173">
         <v>3</v>
       </c>
       <c r="L17" s="57">
@@ -29716,17 +29713,17 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="45"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="180"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="169"/>
       <c r="L18" s="57">
         <v>2</v>
       </c>
@@ -29736,7 +29733,7 @@
       <c r="N18" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="O18" s="224">
+      <c r="O18" s="236">
         <v>2</v>
       </c>
       <c r="P18" s="71">
@@ -29765,17 +29762,17 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="39.75" customHeight="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="19"/>
       <c r="I19" s="45"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="181"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="170"/>
       <c r="L19" s="57">
         <v>3</v>
       </c>
@@ -29785,7 +29782,7 @@
       <c r="N19" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="225"/>
+      <c r="O19" s="237"/>
       <c r="P19" s="71">
         <v>0</v>
       </c>
@@ -29812,27 +29809,27 @@
       <c r="AK19" s="1"/>
     </row>
     <row r="20" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="235"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="221" t="s">
+      <c r="D20" s="233" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="222"/>
-      <c r="F20" s="222"/>
-      <c r="G20" s="222"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="222"/>
-      <c r="J20" s="222"/>
-      <c r="K20" s="222"/>
-      <c r="L20" s="222"/>
-      <c r="M20" s="222"/>
-      <c r="N20" s="222"/>
-      <c r="O20" s="222"/>
-      <c r="P20" s="222"/>
-      <c r="Q20" s="223"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="234"/>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="234"/>
+      <c r="M20" s="234"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="234"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="235"/>
       <c r="R20" s="7"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -29855,27 +29852,27 @@
       <c r="AK20" s="1"/>
     </row>
     <row r="21" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="231" t="s">
+      <c r="C21" s="223" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="234" t="s">
+      <c r="D21" s="227"/>
+      <c r="E21" s="228" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
       <c r="H21" s="20"/>
       <c r="I21" s="95"/>
-      <c r="J21" s="179" t="s">
+      <c r="J21" s="168" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="184">
+      <c r="K21" s="173">
         <v>5</v>
       </c>
       <c r="L21" s="57">
@@ -29916,17 +29913,17 @@
       <c r="AK21" s="1"/>
     </row>
     <row r="22" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="232"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="228"/>
+      <c r="A22" s="175"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="229"/>
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
       <c r="H22" s="20"/>
       <c r="I22" s="95"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="180"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="169"/>
       <c r="L22" s="57">
         <v>2</v>
       </c>
@@ -29965,17 +29962,17 @@
       <c r="AK22" s="1"/>
     </row>
     <row r="23" spans="1:37" ht="29.25" customHeight="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="232"/>
-      <c r="C23" s="232"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="228"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="229"/>
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
       <c r="H23" s="20"/>
       <c r="I23" s="95"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="180"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="169"/>
       <c r="L23" s="57">
         <v>3</v>
       </c>
@@ -30014,17 +30011,17 @@
       <c r="AK23" s="1"/>
     </row>
     <row r="24" spans="1:37" ht="45.75" customHeight="1">
-      <c r="A24" s="168"/>
-      <c r="B24" s="233"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="229"/>
+      <c r="A24" s="176"/>
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="230"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="181"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="170"/>
       <c r="L24" s="57">
         <v>4</v>
       </c>
@@ -38547,24 +38544,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B8:B20"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="J21:J24"/>
     <mergeCell ref="B2:Q3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D20:Q20"/>
@@ -38581,6 +38560,24 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="J11:J13"/>
     <mergeCell ref="E11:E13"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -38657,24 +38654,24 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
       <c r="R2" s="59"/>
       <c r="S2" s="60"/>
       <c r="T2" s="1"/>
@@ -38698,22 +38695,22 @@
     </row>
     <row r="3" spans="1:37" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
       <c r="R3" s="61"/>
       <c r="S3" s="62"/>
       <c r="T3" s="1"/>
@@ -38872,12 +38869,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="42" t="s">
         <v>76</v>
       </c>
@@ -38930,25 +38927,25 @@
       <c r="AK7" s="1"/>
     </row>
     <row r="8" spans="1:37" ht="33" customHeight="1">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="241" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="243" t="s">
+      <c r="C8" s="242"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="247" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="179" t="s">
+      <c r="J8" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="179">
+      <c r="K8" s="168">
         <v>1</v>
       </c>
       <c r="L8" s="57">
@@ -38993,17 +38990,17 @@
       <c r="AK8" s="1"/>
     </row>
     <row r="9" spans="1:37" ht="33" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="239"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="244"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="248"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="195"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="57">
         <v>2</v>
       </c>
@@ -39042,17 +39039,17 @@
       <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:37" ht="33" customHeight="1">
-      <c r="A10" s="157"/>
-      <c r="B10" s="239"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="244"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="248"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="195"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="192"/>
       <c r="L10" s="57">
         <v>3</v>
       </c>
@@ -39091,17 +39088,17 @@
       <c r="AK10" s="1"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1">
-      <c r="A11" s="157"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="244"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="248"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="195"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="192"/>
       <c r="L11" s="57">
         <v>4</v>
       </c>
@@ -39138,17 +39135,17 @@
       <c r="AK11" s="1"/>
     </row>
     <row r="12" spans="1:37" ht="33" customHeight="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="245"/>
+      <c r="A12" s="185"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="249"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="196"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="193"/>
       <c r="L12" s="57">
         <v>5</v>
       </c>
@@ -39185,7 +39182,7 @@
       <c r="AK12" s="1"/>
     </row>
     <row r="13" spans="1:37" ht="33" customHeight="1">
-      <c r="A13" s="157"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="43" t="s">
         <v>15</v>
       </c>
@@ -39250,8 +39247,8 @@
       <c r="AK13" s="1"/>
     </row>
     <row r="14" spans="1:37" ht="33" customHeight="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="201" t="s">
+      <c r="A14" s="185"/>
+      <c r="B14" s="210" t="s">
         <v>181</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -39313,8 +39310,8 @@
       <c r="AK14" s="1"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="202"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="211"/>
       <c r="C15" s="44" t="s">
         <v>85</v>
       </c>
@@ -39368,7 +39365,7 @@
       <c r="AK15" s="1"/>
     </row>
     <row r="16" spans="1:37" ht="33" customHeight="1">
-      <c r="A16" s="157"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="43" t="s">
         <v>35</v>
       </c>
@@ -39427,7 +39424,7 @@
       <c r="AK16" s="1"/>
     </row>
     <row r="17" spans="1:37" ht="33" customHeight="1">
-      <c r="A17" s="157"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
@@ -39486,8 +39483,8 @@
       <c r="AK17" s="1"/>
     </row>
     <row r="18" spans="1:37" ht="33" customHeight="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="236" t="s">
+      <c r="A18" s="185"/>
+      <c r="B18" s="240" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="43" t="s">
@@ -39541,8 +39538,8 @@
       <c r="AK18" s="1"/>
     </row>
     <row r="19" spans="1:37" ht="33" customHeight="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="236"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="240"/>
       <c r="C19" s="43" t="s">
         <v>93</v>
       </c>
@@ -48123,7 +48120,7 @@
   <dimension ref="A1:AJ985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -48186,23 +48183,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="180" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
       <c r="Q2" s="59"/>
       <c r="R2" s="60"/>
       <c r="S2" s="1"/>
@@ -48226,21 +48223,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
       <c r="Q3" s="61"/>
       <c r="R3" s="62"/>
       <c r="S3" s="1"/>
@@ -48396,12 +48393,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
       <c r="J7" s="132" t="s">
         <v>76</v>
       </c>
@@ -48451,31 +48448,31 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="157"/>
-      <c r="B8" s="247" t="s">
+      <c r="A8" s="185"/>
+      <c r="B8" s="251" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="247" t="s">
+      <c r="C8" s="251" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="157" t="s">
+      <c r="D8" s="227"/>
+      <c r="E8" s="185" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="19"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="253" t="s">
+      <c r="J8" s="252" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="250">
+      <c r="K8" s="143">
         <v>1</v>
       </c>
-      <c r="L8" s="251">
+      <c r="L8" s="144">
         <v>1</v>
       </c>
-      <c r="M8" s="252">
+      <c r="M8" s="145">
         <v>1</v>
       </c>
       <c r="N8" s="57">
@@ -48507,23 +48504,23 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="157"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="185"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="19"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="250">
+      <c r="J9" s="253"/>
+      <c r="K9" s="143">
         <v>2</v>
       </c>
-      <c r="L9" s="251">
+      <c r="L9" s="144">
         <v>1</v>
       </c>
-      <c r="M9" s="252">
+      <c r="M9" s="145">
         <v>1</v>
       </c>
       <c r="N9" s="57">
@@ -48555,30 +48552,30 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="157"/>
-      <c r="B10" s="247"/>
-      <c r="C10" s="247" t="s">
+      <c r="A10" s="185"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="230"/>
-      <c r="E10" s="157" t="s">
+      <c r="D10" s="227"/>
+      <c r="E10" s="185" t="s">
         <v>224</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="253" t="s">
+      <c r="J10" s="252" t="s">
         <v>228</v>
       </c>
-      <c r="K10" s="250">
+      <c r="K10" s="143">
         <v>1</v>
       </c>
-      <c r="L10" s="251">
+      <c r="L10" s="144">
         <v>1</v>
       </c>
-      <c r="M10" s="255">
-        <v>1</v>
+      <c r="M10" s="71" t="s">
+        <v>184</v>
       </c>
       <c r="N10" s="57">
         <v>1</v>
@@ -48586,7 +48583,7 @@
       <c r="O10" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="P10" s="249"/>
+      <c r="P10" s="142"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="39"/>
       <c r="S10" s="6"/>
@@ -48609,16 +48606,16 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="157"/>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="157"/>
+      <c r="A11" s="185"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="254"/>
+      <c r="J11" s="253"/>
       <c r="K11" s="57">
         <v>2</v>
       </c>
@@ -48634,7 +48631,7 @@
       <c r="O11" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="P11" s="249"/>
+      <c r="P11" s="142"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="39"/>
       <c r="S11" s="6"/>
@@ -48657,20 +48654,20 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="247"/>
-      <c r="C12" s="247" t="s">
+      <c r="A12" s="185"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="251" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="230"/>
-      <c r="E12" s="157" t="s">
+      <c r="D12" s="227"/>
+      <c r="E12" s="185" t="s">
         <v>191</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="246" t="s">
+      <c r="J12" s="250" t="s">
         <v>229</v>
       </c>
       <c r="K12" s="57">
@@ -48688,7 +48685,7 @@
       <c r="O12" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="P12" s="249"/>
+      <c r="P12" s="142"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="39"/>
       <c r="S12" s="6"/>
@@ -48711,16 +48708,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="157"/>
+      <c r="A13" s="185"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="185"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="248"/>
+      <c r="J13" s="254"/>
       <c r="K13" s="57">
         <v>2</v>
       </c>
@@ -48736,7 +48733,7 @@
       <c r="O13" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="P13" s="249"/>
+      <c r="P13" s="142"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="39"/>
       <c r="S13" s="6"/>
@@ -48759,22 +48756,22 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="247" t="s">
+      <c r="A14" s="185"/>
+      <c r="B14" s="251" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="247" t="s">
+      <c r="C14" s="251" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="230"/>
-      <c r="E14" s="157" t="s">
+      <c r="D14" s="227"/>
+      <c r="E14" s="185" t="s">
         <v>225</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="246" t="s">
+      <c r="J14" s="250" t="s">
         <v>230</v>
       </c>
       <c r="K14" s="57">
@@ -48811,16 +48808,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="247"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="157"/>
+      <c r="A15" s="185"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="185"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="246"/>
+      <c r="J15" s="250"/>
       <c r="K15" s="57">
         <v>2</v>
       </c>
@@ -48855,16 +48852,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="247"/>
-      <c r="C16" s="247"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="157"/>
+      <c r="A16" s="185"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="227"/>
+      <c r="E16" s="185"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="246" t="s">
+      <c r="J16" s="250" t="s">
         <v>231</v>
       </c>
       <c r="K16" s="57">
@@ -48901,16 +48898,16 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="247"/>
-      <c r="C17" s="247"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="157"/>
+      <c r="A17" s="185"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="185"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="246"/>
+      <c r="J17" s="250"/>
       <c r="K17" s="57">
         <v>2</v>
       </c>
@@ -48945,16 +48942,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="247"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="230"/>
-      <c r="E18" s="157"/>
+      <c r="A18" s="185"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="185"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="246" t="s">
+      <c r="J18" s="250" t="s">
         <v>232</v>
       </c>
       <c r="K18" s="57">
@@ -48991,16 +48988,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="247"/>
-      <c r="C19" s="247"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="157"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="185"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="246"/>
+      <c r="J19" s="250"/>
       <c r="K19" s="57">
         <v>2</v>
       </c>
@@ -49035,16 +49032,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="247"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="157"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="185"/>
       <c r="F20" s="109"/>
       <c r="G20" s="109"/>
       <c r="H20" s="109"/>
       <c r="I20" s="109"/>
-      <c r="J20" s="246"/>
+      <c r="J20" s="250"/>
       <c r="K20" s="58">
         <v>3</v>
       </c>
@@ -49079,20 +49076,20 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="157"/>
-      <c r="B21" s="247"/>
-      <c r="C21" s="247" t="s">
+      <c r="A21" s="185"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="157" t="s">
+      <c r="D21" s="227"/>
+      <c r="E21" s="185" t="s">
         <v>226</v>
       </c>
       <c r="F21" s="109"/>
       <c r="G21" s="109"/>
       <c r="H21" s="109"/>
       <c r="I21" s="109"/>
-      <c r="J21" s="246" t="s">
+      <c r="J21" s="250" t="s">
         <v>233</v>
       </c>
       <c r="K21" s="58">
@@ -49129,16 +49126,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="157"/>
-      <c r="B22" s="247"/>
-      <c r="C22" s="247"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="157"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="185"/>
       <c r="F22" s="109"/>
       <c r="G22" s="109"/>
       <c r="H22" s="109"/>
       <c r="I22" s="109"/>
-      <c r="J22" s="246"/>
+      <c r="J22" s="250"/>
       <c r="K22" s="58">
         <v>2</v>
       </c>
@@ -49173,16 +49170,16 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="157"/>
-      <c r="B23" s="247"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="157"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="185"/>
       <c r="F23" s="109"/>
       <c r="G23" s="109"/>
       <c r="H23" s="109"/>
       <c r="I23" s="109"/>
-      <c r="J23" s="246" t="s">
+      <c r="J23" s="250" t="s">
         <v>234</v>
       </c>
       <c r="K23" s="58">
@@ -49219,16 +49216,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="157"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="157"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="251"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="185"/>
       <c r="F24" s="109"/>
       <c r="G24" s="109"/>
       <c r="H24" s="109"/>
       <c r="I24" s="109"/>
-      <c r="J24" s="246"/>
+      <c r="J24" s="250"/>
       <c r="K24" s="58">
         <v>2</v>
       </c>
@@ -49263,16 +49260,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="157"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="157"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="251"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="185"/>
       <c r="F25" s="109"/>
       <c r="G25" s="109"/>
       <c r="H25" s="109"/>
       <c r="I25" s="109"/>
-      <c r="J25" s="246" t="s">
+      <c r="J25" s="250" t="s">
         <v>235</v>
       </c>
       <c r="K25" s="58">
@@ -49309,16 +49306,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="157"/>
-      <c r="B26" s="247"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="157"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="251"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="185"/>
       <c r="F26" s="109"/>
       <c r="G26" s="109"/>
       <c r="H26" s="109"/>
       <c r="I26" s="109"/>
-      <c r="J26" s="246"/>
+      <c r="J26" s="250"/>
       <c r="K26" s="58">
         <v>2</v>
       </c>
@@ -49353,16 +49350,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="157"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="251"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="185"/>
       <c r="F27" s="109"/>
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
       <c r="I27" s="109"/>
-      <c r="J27" s="246"/>
+      <c r="J27" s="250"/>
       <c r="K27" s="58">
         <v>3</v>
       </c>
@@ -49397,13 +49394,13 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="157"/>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247" t="s">
+      <c r="A28" s="185"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="251" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="230"/>
-      <c r="E28" s="157" t="s">
+      <c r="D28" s="227"/>
+      <c r="E28" s="185" t="s">
         <v>226</v>
       </c>
       <c r="F28" s="109"/>
@@ -49447,16 +49444,16 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="157"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="157"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="251"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="185"/>
       <c r="F29" s="109"/>
       <c r="G29" s="109"/>
       <c r="H29" s="109"/>
       <c r="I29" s="109"/>
-      <c r="J29" s="246" t="s">
+      <c r="J29" s="250" t="s">
         <v>237</v>
       </c>
       <c r="K29" s="58">
@@ -49493,16 +49490,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="247"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="157"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="185"/>
       <c r="F30" s="109"/>
       <c r="G30" s="109"/>
       <c r="H30" s="109"/>
       <c r="I30" s="109"/>
-      <c r="J30" s="246"/>
+      <c r="J30" s="250"/>
       <c r="K30" s="58">
         <v>2</v>
       </c>
@@ -57674,30 +57671,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="34">
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A14:A30"/>
-    <mergeCell ref="B14:B30"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J12:J13"/>
     <mergeCell ref="B2:P3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A13"/>
@@ -57708,6 +57681,30 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="B14:B30"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Documents\fun_funding\4. 진행현황\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
   <si>
     <r>
       <rPr>
@@ -682,6 +687,18 @@
   </si>
   <si>
     <t>판매중인 상품 문제 발생 시 수정</t>
+  </si>
+  <si>
+    <t>100% 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>70% 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1541,6 +1558,54 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,45 +1636,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1625,23 +1651,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1649,13 +1678,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1670,17 +1696,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1905,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -1944,15 +1961,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -1960,13 +1977,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2018,15 +2035,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2248,7 +2265,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="79" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2284,7 +2301,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="63"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2318,7 +2335,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="63"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2352,7 +2369,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="63"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2403,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="63"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2420,7 +2437,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="63"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2443,7 +2460,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="63"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2466,7 +2483,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="80" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2491,7 +2508,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="64"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2514,7 +2531,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="64"/>
+      <c r="B25" s="80"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2537,7 +2554,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="64"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2560,7 +2577,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="64"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2584,7 +2601,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -7836,7 +7853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ959"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7900,22 +7917,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -7939,21 +7956,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -8095,16 +8112,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="63" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -8113,13 +8130,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="70" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -8149,16 +8166,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="92" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8167,13 +8184,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="75">
         <v>1</v>
       </c>
-      <c r="K8" s="106">
+      <c r="K8" s="75">
         <v>1</v>
       </c>
-      <c r="L8" s="106"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -8201,25 +8218,25 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="106">
+      <c r="J9" s="75">
         <v>1</v>
       </c>
-      <c r="K9" s="106">
+      <c r="K9" s="75">
         <v>0.3</v>
       </c>
-      <c r="L9" s="106"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -8247,21 +8264,21 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="84" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="106">
+      <c r="J10" s="75">
         <v>1</v>
       </c>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -8289,23 +8306,23 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="106">
+      <c r="J11" s="75">
         <v>1</v>
       </c>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -8333,21 +8350,21 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="85" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="106">
+      <c r="J12" s="75">
         <v>1</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -8375,21 +8392,21 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="84" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="106">
+      <c r="J13" s="75">
         <v>1</v>
       </c>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -8417,23 +8434,23 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="86" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="106">
+      <c r="J14" s="75">
         <v>1</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -8461,21 +8478,21 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="84" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="106">
+      <c r="J15" s="75">
         <v>1</v>
       </c>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -8503,23 +8520,23 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="106">
+      <c r="J16" s="75">
         <v>1</v>
       </c>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -8547,27 +8564,27 @@
     </row>
     <row r="17" spans="1:36" ht="33.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="78" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="106">
+      <c r="J17" s="75">
         <v>1</v>
       </c>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107" t="s">
+      <c r="K17" s="75"/>
+      <c r="L17" s="76" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="1"/>
@@ -16236,12 +16253,12 @@
     <row r="959" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="E8:E16"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C2:K3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -16317,22 +16334,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -16356,21 +16373,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -16512,16 +16529,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="63" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -16530,13 +16547,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="70" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -16566,16 +16583,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="92" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16584,9 +16601,9 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -16614,21 +16631,21 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -16656,21 +16673,21 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="91"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -16698,25 +16715,25 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="92" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="97" t="s">
+      <c r="J11" s="73"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="101" t="s">
         <v>104</v>
       </c>
       <c r="M11" s="1"/>
@@ -16746,21 +16763,21 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -16788,21 +16805,21 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="91"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="96"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="103"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -24469,12 +24486,12 @@
     <row r="955" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="L11:L13"/>
-    <mergeCell ref="C2:K3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -24550,22 +24567,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -24589,21 +24606,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -24745,16 +24762,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="63" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -24763,13 +24780,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="70" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -24799,16 +24816,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="92" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24817,9 +24834,9 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -24847,21 +24864,21 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -24889,21 +24906,21 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -24931,21 +24948,21 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -24973,19 +24990,19 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="84" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -25013,21 +25030,21 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -25055,21 +25072,21 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="91"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -32804,18 +32821,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32838,17 +32855,17 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -32974,16 +32991,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="74" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -32992,13 +33009,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="70" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -33029,16 +33046,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="92" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33047,9 +33064,9 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="3"/>
       <c r="N8" s="13"/>
       <c r="O8" s="4"/>
@@ -33072,19 +33089,19 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="3"/>
       <c r="N9" s="13"/>
       <c r="O9" s="4"/>
@@ -33107,23 +33124,23 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="5">
         <v>2</v>
       </c>
@@ -33152,19 +33169,19 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="84" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
       <c r="O11" s="3"/>
@@ -33187,21 +33204,21 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="86" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
       <c r="O12" s="3"/>
@@ -33224,19 +33241,19 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="85" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
       <c r="O13" s="3"/>
@@ -33259,19 +33276,19 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="84" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="3"/>
@@ -33294,21 +33311,21 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="87"/>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
       <c r="O15" s="3"/>
@@ -33331,19 +33348,19 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="84" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="91"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="O16" s="3"/>
@@ -33366,25 +33383,25 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="E17" s="92" t="s">
         <v>138</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="100" t="s">
+      <c r="J17" s="73"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="104" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33409,21 +33426,21 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="88"/>
-      <c r="C18" s="81" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="102"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33446,23 +33463,23 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="91"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="103"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -40869,6 +40886,10 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="C2:L3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E16"/>
@@ -40876,10 +40897,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="C2:L3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40931,18 +40948,18 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="93"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -40954,17 +40971,17 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="93"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -41046,16 +41063,16 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="2:21" ht="36" customHeight="1">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="63" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -41064,13 +41081,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="70" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="1"/>
@@ -41084,16 +41101,16 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="92" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41102,9 +41119,9 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -41116,21 +41133,21 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="87"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -41142,21 +41159,21 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="87"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -41168,21 +41185,21 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -41194,21 +41211,21 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -41220,21 +41237,21 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="91"/>
+      <c r="E13" s="100"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -46247,8 +46264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -46300,18 +46317,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="93"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -46334,17 +46351,17 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="93"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -46470,16 +46487,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="63" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -46488,13 +46505,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="92" t="s">
+      <c r="J7" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="70" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -46525,16 +46542,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="92" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46543,9 +46560,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>175</v>
+      </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
@@ -46574,21 +46597,23 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="87"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -46611,21 +46636,23 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="87"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -46648,21 +46675,23 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="91"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
+      <c r="J11" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -46685,25 +46714,27 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="92" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="104" t="s">
+      <c r="J12" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="72"/>
+      <c r="L12" s="107" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46728,21 +46759,23 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="105"/>
+      <c r="J13" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="72"/>
+      <c r="L13" s="108"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -46771,21 +46804,23 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="91"/>
+      <c r="E14" s="100"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="101"/>
+      <c r="J14" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="72"/>
+      <c r="L14" s="109"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>
@@ -53928,12 +53963,12 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="6">
+    <mergeCell ref="L12:L14"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="L12:L14"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Documents\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="6"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
     <sheet name="진행 상황 - 현태" sheetId="1" r:id="rId2"/>
-    <sheet name="진행 상황 - 송우" sheetId="8" r:id="rId3"/>
+    <sheet name="진행 상황 - 송우" sheetId="10" r:id="rId3"/>
     <sheet name="진행 상황 - 민기" sheetId="9" r:id="rId4"/>
     <sheet name="진행 상황 - 형준" sheetId="3" r:id="rId5"/>
     <sheet name="진행 상황 - 서희" sheetId="4" r:id="rId6"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
   <si>
     <r>
       <rPr>
@@ -479,10 +479,6 @@
     <t>회원들의 1:1문의와 채팅 문의 답변 작성</t>
   </si>
   <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>진행 상황 - 민기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -700,12 +696,55 @@
     <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>화면구현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면기능</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB(테이블생성, 임시데이터, 실제데이터)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -875,6 +914,13 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="나눔바른고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1372,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1636,21 +1682,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,6 +1699,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1697,6 +1743,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7917,17 +7984,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -7957,15 +8024,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8166,7 +8233,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8175,7 +8242,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8218,14 +8285,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="95" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8264,12 +8331,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8306,14 +8373,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="95" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8350,12 +8417,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8392,12 +8459,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8434,14 +8501,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="95" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="93"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8478,12 +8545,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8520,14 +8587,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="91"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="93"/>
+      <c r="E16" s="99"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16270,8 +16337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16287,9 +16354,7 @@
     <col min="10" max="10" width="21.85546875" customWidth="1"/>
     <col min="11" max="12" width="21.85546875" style="18" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" customWidth="1"/>
-    <col min="16" max="16" width="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14.42578125" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="18" max="19" width="20" hidden="1" customWidth="1"/>
   </cols>
@@ -16334,17 +16399,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16374,15 +16439,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16548,7 +16613,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K7" s="70" t="s">
         <v>86</v>
@@ -16557,9 +16622,15 @@
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="111" t="s">
+        <v>177</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -16583,7 +16654,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16592,7 +16663,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16601,13 +16672,23 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="J8" s="75">
+        <v>0</v>
+      </c>
+      <c r="K8" s="75">
+        <v>0</v>
+      </c>
+      <c r="L8" s="75">
+        <v>0</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="112" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114" t="s">
+        <v>179</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -16631,25 +16712,31 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="90"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="J9" s="75">
+        <v>1</v>
+      </c>
+      <c r="K9" s="75">
+        <v>1</v>
+      </c>
+      <c r="L9" s="75">
+        <v>0</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -16673,7 +16760,7 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="91"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
@@ -16685,13 +16772,19 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="J10" s="75">
+        <v>1</v>
+      </c>
+      <c r="K10" s="75">
+        <v>1</v>
+      </c>
+      <c r="L10" s="75">
+        <v>0</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="1"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -16715,7 +16808,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16724,22 +16817,32 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="98" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="75">
+        <v>1</v>
+      </c>
+      <c r="K11" s="75">
+        <v>0.6</v>
+      </c>
       <c r="L11" s="101" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="112" t="s">
+        <v>179</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -16763,25 +16866,35 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="90"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="72"/>
+      <c r="J12" s="75">
+        <v>1</v>
+      </c>
+      <c r="K12" s="75">
+        <v>0.6</v>
+      </c>
       <c r="L12" s="102"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="112" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="112" t="s">
+        <v>179</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -16805,7 +16918,7 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="91"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
@@ -16817,13 +16930,23 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="75">
+        <v>0</v>
+      </c>
+      <c r="K13" s="75">
+        <v>0</v>
+      </c>
       <c r="L13" s="103"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="112" t="s">
+        <v>179</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -24488,8 +24611,8 @@
   <mergeCells count="6">
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="L11:L13"/>
   </mergeCells>
@@ -24567,17 +24690,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="94" t="s">
-        <v>105</v>
+      <c r="C2" s="89" t="s">
+        <v>104</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24607,15 +24730,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24816,16 +24939,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24864,14 +24987,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="90"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -24906,14 +25029,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="90"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -24948,14 +25071,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -24990,12 +25113,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25030,14 +25153,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="90"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25072,12 +25195,12 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="91"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="2"/>
@@ -32821,18 +32944,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32856,16 +32979,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33046,16 +33169,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="D8" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33089,12 +33212,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33124,16 +33247,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="D10" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33169,12 +33292,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33204,14 +33327,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="90"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33241,12 +33364,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33276,12 +33399,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
-      <c r="E14" s="93"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33311,14 +33434,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33348,10 +33471,10 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="100"/>
       <c r="F16" s="2"/>
@@ -33383,17 +33506,17 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="D17" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="E17" s="98" t="s">
         <v>137</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>138</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -33426,14 +33549,14 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="91"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="93"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -33464,13 +33587,13 @@
     </row>
     <row r="19" spans="2:32" ht="30.75" customHeight="1">
       <c r="B19" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="2"/>
@@ -40948,17 +41071,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="94" t="s">
-        <v>156</v>
+      <c r="C2" s="89" t="s">
+        <v>155</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -40972,15 +41095,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41101,16 +41224,16 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41133,14 +41256,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="90"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41159,14 +41282,14 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="90"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41185,14 +41308,14 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="90"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="93"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41211,14 +41334,14 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="90"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41237,12 +41360,12 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="91"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="2"/>
@@ -46264,7 +46387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -46317,17 +46440,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="91"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46352,15 +46475,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="94"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46542,16 +46665,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46561,13 +46684,13 @@
         <v>18</v>
       </c>
       <c r="J8" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="L8" s="72" t="s">
         <v>174</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>175</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -46597,20 +46720,20 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="90"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="93"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" s="72"/>
       <c r="L9" s="72"/>
@@ -46636,20 +46759,20 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="90"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="93"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
@@ -46675,12 +46798,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="91"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="2"/>
@@ -46688,7 +46811,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
@@ -46714,16 +46837,16 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="D12" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="98" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46731,7 +46854,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="107" t="s">
@@ -46759,20 +46882,20 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="90"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="93"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K13" s="72"/>
       <c r="L13" s="108"/>
@@ -46804,12 +46927,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="91"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="2"/>
@@ -46817,7 +46940,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="72" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K14" s="72"/>
       <c r="L14" s="109"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -1652,6 +1652,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1743,27 +1764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2028,15 +2028,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2044,13 +2044,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2102,15 +2102,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2332,7 +2332,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="86" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2368,7 +2368,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="79"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="79"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="79"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2470,7 +2470,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="79"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="79"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="79"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="87" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2575,7 +2575,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="80"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="80"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="80"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="80"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="81"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -7984,17 +7984,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -8024,15 +8024,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8233,7 +8233,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8242,7 +8242,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8285,14 +8285,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="102" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8331,12 +8331,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8373,14 +8373,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="95" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="102" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8417,12 +8417,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8459,12 +8459,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8501,14 +8501,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="95" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="102" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8545,12 +8545,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="99"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8587,14 +8587,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="97"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="99"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16337,8 +16337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16399,17 +16399,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16439,15 +16439,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16625,10 +16625,10 @@
       <c r="N7" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O7" s="110" t="s">
+      <c r="O7" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="111" t="s">
+      <c r="P7" s="80" t="s">
         <v>177</v>
       </c>
       <c r="Q7" s="1"/>
@@ -16654,7 +16654,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16663,7 +16663,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16682,11 +16682,11 @@
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="112" t="s">
+      <c r="N8" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114" t="s">
+      <c r="O8" s="82"/>
+      <c r="P8" s="83" t="s">
         <v>179</v>
       </c>
       <c r="Q8" s="1"/>
@@ -16712,14 +16712,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16735,7 +16735,7 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="113"/>
+      <c r="O9" s="82"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -16760,14 +16760,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="97"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="100"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="113"/>
+      <c r="O10" s="82"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="102" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16817,7 +16817,7 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="105" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -16830,17 +16830,17 @@
       <c r="K11" s="75">
         <v>0.6</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="108" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="115" t="s">
+      <c r="N11" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O11" s="116" t="s">
+      <c r="O11" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="P11" s="112" t="s">
+      <c r="P11" s="81" t="s">
         <v>179</v>
       </c>
       <c r="Q11" s="1"/>
@@ -16866,14 +16866,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="96"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -16884,15 +16884,15 @@
       <c r="K12" s="75">
         <v>0.6</v>
       </c>
-      <c r="L12" s="102"/>
+      <c r="L12" s="109"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="112" t="s">
+      <c r="N12" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="O12" s="116" t="s">
+      <c r="O12" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="P12" s="112" t="s">
+      <c r="P12" s="81" t="s">
         <v>179</v>
       </c>
       <c r="Q12" s="1"/>
@@ -16918,14 +16918,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="97"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -16936,15 +16936,15 @@
       <c r="K13" s="75">
         <v>0</v>
       </c>
-      <c r="L13" s="103"/>
+      <c r="L13" s="110"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="112" t="s">
+      <c r="N13" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="O13" s="116" t="s">
+      <c r="O13" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="P13" s="112" t="s">
+      <c r="P13" s="81" t="s">
         <v>179</v>
       </c>
       <c r="Q13" s="1"/>
@@ -24609,12 +24609,12 @@
     <row r="955" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L11:L13"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="L11:L13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -24690,17 +24690,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24730,15 +24730,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24939,7 +24939,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -24948,7 +24948,7 @@
       <c r="D8" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24987,14 +24987,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25029,14 +25029,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="96"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25071,14 +25071,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="95" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="102" t="s">
         <v>112</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25113,12 +25113,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25153,14 +25153,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="96"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="65" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -25195,14 +25195,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="97"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="65" t="s">
         <v>117</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -32944,18 +32944,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32979,16 +32979,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33169,16 +33169,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="102" t="s">
         <v>120</v>
       </c>
       <c r="D8" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33212,12 +33212,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33247,16 +33247,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="102" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33292,12 +33292,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33327,14 +33327,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="95" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="102" t="s">
         <v>127</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33364,12 +33364,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33399,12 +33399,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33434,14 +33434,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="96"/>
-      <c r="C15" s="95" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="102" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="99"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33471,12 +33471,12 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -33506,7 +33506,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="102" t="s">
         <v>134</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -33515,7 +33515,7 @@
       <c r="D17" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="105" t="s">
         <v>137</v>
       </c>
       <c r="F17" s="2"/>
@@ -33524,7 +33524,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="73"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="104" t="s">
+      <c r="L17" s="111" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33549,21 +33549,21 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="97"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="65" t="s">
         <v>138</v>
       </c>
       <c r="D18" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="99"/>
+      <c r="E18" s="106"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="73"/>
       <c r="K18" s="72"/>
-      <c r="L18" s="105"/>
+      <c r="L18" s="112"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33595,14 +33595,14 @@
       <c r="D19" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="73"/>
       <c r="K19" s="72"/>
-      <c r="L19" s="106"/>
+      <c r="L19" s="113"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41031,8 +41031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U977"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41071,17 +41071,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41095,15 +41095,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41224,7 +41224,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>142</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -41233,7 +41233,7 @@
       <c r="D8" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41242,7 +41242,9 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="75">
+        <v>1</v>
+      </c>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
       <c r="M8" s="1"/>
@@ -41256,19 +41258,21 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>145</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="73"/>
+      <c r="J9" s="75">
+        <v>1</v>
+      </c>
       <c r="K9" s="72"/>
       <c r="L9" s="72"/>
       <c r="M9" s="1"/>
@@ -41282,19 +41286,21 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="96"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="75">
+        <v>1</v>
+      </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="1"/>
@@ -41308,19 +41314,21 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="96"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="65" t="s">
         <v>149</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="73"/>
+      <c r="J11" s="75">
+        <v>1</v>
+      </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
       <c r="M11" s="1"/>
@@ -41334,19 +41342,21 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="96"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="65" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="73"/>
+      <c r="J12" s="75">
+        <v>1</v>
+      </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="1"/>
@@ -41360,19 +41370,21 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="97"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="65" t="s">
         <v>153</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="100"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="73"/>
+      <c r="J13" s="75">
+        <v>1</v>
+      </c>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="1"/>
@@ -46440,17 +46452,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="91"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46475,15 +46487,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46665,7 +46677,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="102" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -46674,7 +46686,7 @@
       <c r="D8" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46720,14 +46732,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>159</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -46759,14 +46771,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="96"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>161</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -46798,14 +46810,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="97"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="65" t="s">
         <v>163</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -46837,7 +46849,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="102" t="s">
         <v>165</v>
       </c>
       <c r="C12" s="65" t="s">
@@ -46846,7 +46858,7 @@
       <c r="D12" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="105" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46857,7 +46869,7 @@
         <v>172</v>
       </c>
       <c r="K12" s="72"/>
-      <c r="L12" s="107" t="s">
+      <c r="L12" s="114" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46882,14 +46894,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="96"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="65" t="s">
         <v>168</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46898,7 +46910,7 @@
         <v>172</v>
       </c>
       <c r="K13" s="72"/>
-      <c r="L13" s="108"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -46927,14 +46939,14 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="97"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="65" t="s">
         <v>170</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="100"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -46943,7 +46955,7 @@
         <v>172</v>
       </c>
       <c r="K14" s="72"/>
-      <c r="L14" s="109"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="184">
   <si>
     <r>
       <rPr>
@@ -489,9 +489,6 @@
     <t>프로젝트 목록</t>
   </si>
   <si>
-    <t>투자 / 리워드, 카테고리별 프로젝트 목록, 오픈예정 프로젝트, 달성 완료 프로젝트, 달성 실패 프로젝트, 성공 및 달성 가능성 높은 프로젝트 목록</t>
-  </si>
-  <si>
     <t>프로젝트 상세보기</t>
   </si>
   <si>
@@ -505,12 +502,6 @@
   </si>
   <si>
     <t>펀딩하기</t>
-  </si>
-  <si>
-    <t>투자프로젝트인 경우 금액 선택 후 결제</t>
-  </si>
-  <si>
-    <t>리워드프로젝트인 경우 옵션에 따른 상품 및 금액 선택 후 배송정보 입력, 결제 - 등록한 배송지를 기본 배송지로 설정하시겠습니까?</t>
   </si>
   <si>
     <t>프로젝트 신고</t>
@@ -734,6 +725,14 @@
   </si>
   <si>
     <t>0/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 프로젝트 목록, 오픈예정 프로젝트, 진행중 프로젝트, 종료된 프로젝트, 최신순, 인기순, 금액순, 마감임박순 프로젝트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션에 따른 상품 및 금액 선택 후 배송정보 입력, 결제</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1673,6 +1672,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,9 +1738,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,6 +1746,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2028,15 +2030,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2044,13 +2046,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2102,15 +2104,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2332,7 +2334,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="87" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2368,7 +2370,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="86"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2402,7 +2404,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2436,7 +2438,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2470,7 +2472,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="86"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2504,7 +2506,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="86"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2529,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="86"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2550,7 +2552,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="88" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2575,7 +2577,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2598,7 +2600,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="87"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2621,7 +2623,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="87"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2646,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="87"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2668,7 +2670,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -7920,7 +7922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ959"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7984,17 +7986,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -8024,15 +8026,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8233,7 +8235,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8242,7 +8244,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="106" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8285,14 +8287,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="103" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8331,12 +8333,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8373,14 +8375,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="103" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8417,12 +8419,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8459,12 +8461,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8501,14 +8503,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="103" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8545,12 +8547,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8587,14 +8589,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="106"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16399,17 +16401,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16439,15 +16441,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16623,13 +16625,13 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O7" s="79" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P7" s="80" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -16654,7 +16656,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16663,7 +16665,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="106" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16683,11 +16685,11 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="81" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O8" s="82"/>
       <c r="P8" s="83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -16712,14 +16714,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16760,14 +16762,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -16808,7 +16810,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="103" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16817,7 +16819,7 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="106" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -16835,13 +16837,13 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="84" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O11" s="85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P11" s="81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -16866,14 +16868,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -16887,13 +16889,13 @@
       <c r="L12" s="109"/>
       <c r="M12" s="1"/>
       <c r="N12" s="81" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O12" s="85" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P12" s="81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -16918,14 +16920,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -16939,13 +16941,13 @@
       <c r="L13" s="110"/>
       <c r="M13" s="1"/>
       <c r="N13" s="81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O13" s="85" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P13" s="81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -24624,10 +24626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ956"/>
+  <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -24690,17 +24692,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24730,15 +24732,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24939,16 +24941,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="106" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24957,9 +24959,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="J8" s="75">
+        <v>1</v>
+      </c>
+      <c r="K8" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="75">
+        <v>0.1</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -24987,20 +24995,24 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="75">
+        <v>1</v>
+      </c>
+      <c r="K9" s="75">
+        <v>0.1</v>
+      </c>
       <c r="L9" s="72"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -25029,19 +25041,21 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="75">
+        <v>1</v>
+      </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
       <c r="M10" s="1"/>
@@ -25071,19 +25085,21 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="102" t="s">
-        <v>112</v>
+      <c r="B11" s="104"/>
+      <c r="C11" s="86" t="s">
+        <v>111</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>113</v>
+      <c r="D11" s="68" t="s">
+        <v>183</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="73"/>
+      <c r="J11" s="75">
+        <v>1</v>
+      </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
       <c r="M11" s="1"/>
@@ -25113,17 +25129,21 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="68" t="s">
-        <v>114</v>
+      <c r="B12" s="104"/>
+      <c r="C12" s="65" t="s">
+        <v>112</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="D12" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="73"/>
+      <c r="J12" s="75">
+        <v>1</v>
+      </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
       <c r="M12" s="1"/>
@@ -25153,19 +25173,21 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="103"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="73"/>
+      <c r="J13" s="75">
+        <v>1</v>
+      </c>
       <c r="K13" s="72"/>
       <c r="L13" s="72"/>
       <c r="M13" s="1"/>
@@ -25193,23 +25215,19 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="33.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="107"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -32075,44 +32093,7 @@
       <c r="AI194" s="1"/>
       <c r="AJ194" s="1"/>
     </row>
-    <row r="195" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="2"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="2"/>
-      <c r="O195" s="2"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-      <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
-      <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
-      <c r="X195" s="1"/>
-      <c r="Y195" s="1"/>
-      <c r="Z195" s="1"/>
-      <c r="AA195" s="1"/>
-      <c r="AB195" s="1"/>
-      <c r="AC195" s="1"/>
-      <c r="AD195" s="1"/>
-      <c r="AE195" s="1"/>
-      <c r="AF195" s="1"/>
-      <c r="AG195" s="1"/>
-      <c r="AH195" s="1"/>
-      <c r="AI195" s="1"/>
-      <c r="AJ195" s="1"/>
-    </row>
+    <row r="195" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="196" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="197" spans="1:36" ht="15.75" customHeight="1"/>
     <row r="198" spans="1:36" ht="15.75" customHeight="1"/>
@@ -32873,12 +32854,10 @@
     <row r="953" ht="15.75" customHeight="1"/>
     <row r="954" ht="15.75" customHeight="1"/>
     <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="E8:E14"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="3">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="E8:E13"/>
     <mergeCell ref="C2:K3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -32944,18 +32923,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32979,16 +32958,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33169,16 +33148,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="102" t="s">
-        <v>119</v>
+      <c r="B8" s="103" t="s">
+        <v>116</v>
       </c>
-      <c r="C8" s="102" t="s">
-        <v>120</v>
+      <c r="C8" s="103" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="106" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33212,12 +33191,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="68" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33247,16 +33226,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="102" t="s">
-        <v>123</v>
+      <c r="B10" s="103" t="s">
+        <v>120</v>
       </c>
-      <c r="C10" s="102" t="s">
-        <v>124</v>
+      <c r="C10" s="103" t="s">
+        <v>121</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33292,12 +33271,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33327,14 +33306,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="103"/>
-      <c r="C12" s="102" t="s">
-        <v>127</v>
+      <c r="B12" s="104"/>
+      <c r="C12" s="103" t="s">
+        <v>124</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33364,12 +33343,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33399,12 +33378,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33434,14 +33413,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="102" t="s">
-        <v>131</v>
+      <c r="B15" s="104"/>
+      <c r="C15" s="103" t="s">
+        <v>128</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="107"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33471,12 +33450,12 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
-      <c r="E16" s="107"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -33506,17 +33485,17 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="102" t="s">
-        <v>134</v>
+      <c r="B17" s="103" t="s">
+        <v>131</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
-      <c r="E17" s="105" t="s">
-        <v>137</v>
+      <c r="E17" s="106" t="s">
+        <v>134</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -33524,7 +33503,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="73"/>
       <c r="K17" s="72"/>
-      <c r="L17" s="111" t="s">
+      <c r="L17" s="112" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33549,21 +33528,21 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="104"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="107"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="73"/>
       <c r="K18" s="72"/>
-      <c r="L18" s="112"/>
+      <c r="L18" s="113"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33587,22 +33566,22 @@
     </row>
     <row r="19" spans="2:32" ht="30.75" customHeight="1">
       <c r="B19" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
-      <c r="E19" s="107"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="73"/>
       <c r="K19" s="72"/>
-      <c r="L19" s="113"/>
+      <c r="L19" s="114"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41031,7 +41010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -41071,17 +41050,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="96" t="s">
-        <v>155</v>
+      <c r="C2" s="97" t="s">
+        <v>152</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41095,15 +41074,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41224,16 +41203,16 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="102" t="s">
-        <v>142</v>
+      <c r="B8" s="103" t="s">
+        <v>139</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="106" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41258,14 +41237,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="65" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41286,14 +41265,14 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41314,14 +41293,14 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="103"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="65" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41342,14 +41321,14 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="65" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="107"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41370,14 +41349,14 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="104"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46452,17 +46431,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46487,15 +46466,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="102"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46677,16 +46656,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="102" t="s">
-        <v>156</v>
+      <c r="B8" s="103" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="106" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46696,13 +46675,13 @@
         <v>18</v>
       </c>
       <c r="J8" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L8" s="72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -46732,20 +46711,20 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K9" s="72"/>
       <c r="L9" s="72"/>
@@ -46771,20 +46750,20 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K10" s="72"/>
       <c r="L10" s="72"/>
@@ -46810,20 +46789,20 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K11" s="72"/>
       <c r="L11" s="72"/>
@@ -46849,16 +46828,16 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="102" t="s">
-        <v>165</v>
+      <c r="B12" s="103" t="s">
+        <v>162</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="106" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46866,10 +46845,10 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K12" s="72"/>
-      <c r="L12" s="114" t="s">
+      <c r="L12" s="115" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46894,23 +46873,23 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K13" s="72"/>
-      <c r="L13" s="115"/>
+      <c r="L13" s="116"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -46939,23 +46918,23 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="104"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="65" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K14" s="72"/>
-      <c r="L14" s="116"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -1417,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1632,9 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2030,15 +2027,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2046,13 +2043,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2104,15 +2101,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2334,7 +2331,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="86" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2370,7 +2367,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="87"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2404,7 +2401,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="87"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2435,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="87"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2472,7 +2469,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="87"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2506,7 +2503,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="87"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2529,7 +2526,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="87"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2552,7 +2549,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="87" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2577,7 +2574,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="88"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2600,7 +2597,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="88"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2623,7 +2620,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="88"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2646,7 +2643,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="88"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="89"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -7986,17 +7983,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -8026,15 +8023,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8235,7 +8232,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8244,7 +8241,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8253,13 +8250,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <v>1</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>1</v>
       </c>
-      <c r="L8" s="75"/>
+      <c r="L8" s="74"/>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -8287,25 +8284,25 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="102" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="75">
+      <c r="J9" s="74">
         <v>1</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="74">
         <v>0.3</v>
       </c>
-      <c r="L9" s="75"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -8333,21 +8330,21 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>1</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -8375,23 +8372,23 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="103" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="102" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <v>1</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -8419,21 +8416,21 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <v>1</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -8461,21 +8458,21 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="75">
+      <c r="J13" s="74">
         <v>1</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -8503,23 +8500,23 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="103" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="102" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="75">
+      <c r="J14" s="74">
         <v>1</v>
       </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -8547,21 +8544,21 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="107"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="75">
+      <c r="J15" s="74">
         <v>1</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -8589,23 +8586,23 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="105"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="107"/>
+      <c r="E16" s="106"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="75">
+      <c r="J16" s="74">
         <v>1</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -8639,21 +8636,21 @@
       <c r="C17" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="77" t="s">
+      <c r="D17" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="75">
+      <c r="J17" s="74">
         <v>1</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76" t="s">
+      <c r="K17" s="74"/>
+      <c r="L17" s="75" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="1"/>
@@ -16401,17 +16398,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16441,15 +16438,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16627,10 +16624,10 @@
       <c r="N7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="79" t="s">
+      <c r="O7" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="P7" s="80" t="s">
+      <c r="P7" s="79" t="s">
         <v>174</v>
       </c>
       <c r="Q7" s="1"/>
@@ -16656,7 +16653,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16665,7 +16662,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16674,21 +16671,21 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <v>0</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>0</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="74">
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83" t="s">
+      <c r="O8" s="81"/>
+      <c r="P8" s="82" t="s">
         <v>176</v>
       </c>
       <c r="Q8" s="1"/>
@@ -16714,30 +16711,30 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="104"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="75">
+      <c r="J9" s="74">
         <v>1</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="74">
         <v>1</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="74">
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="82"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -16762,30 +16759,30 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="105"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="111"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>1</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="74">
         <v>1</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="74">
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="82"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -16810,7 +16807,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16819,30 +16816,30 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="105" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <v>1</v>
       </c>
-      <c r="K11" s="75">
+      <c r="K11" s="74">
         <v>0.6</v>
       </c>
-      <c r="L11" s="108" t="s">
+      <c r="L11" s="107" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="84" t="s">
+      <c r="N11" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="O11" s="85" t="s">
+      <c r="O11" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="80" t="s">
         <v>176</v>
       </c>
       <c r="Q11" s="1"/>
@@ -16868,33 +16865,33 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <v>1</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="74">
         <v>0.6</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="108"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="81" t="s">
+      <c r="N12" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="P12" s="81" t="s">
+      <c r="P12" s="80" t="s">
         <v>176</v>
       </c>
       <c r="Q12" s="1"/>
@@ -16920,33 +16917,33 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="105"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="75">
+      <c r="J13" s="74">
         <v>0</v>
       </c>
-      <c r="K13" s="75">
+      <c r="K13" s="74">
         <v>0</v>
       </c>
-      <c r="L13" s="110"/>
+      <c r="L13" s="109"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="81" t="s">
+      <c r="N13" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="O13" s="85" t="s">
+      <c r="O13" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="81" t="s">
+      <c r="P13" s="80" t="s">
         <v>176</v>
       </c>
       <c r="Q13" s="1"/>
@@ -24628,7 +24625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -24692,17 +24689,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24732,15 +24729,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24941,7 +24938,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -24950,7 +24947,7 @@
       <c r="D8" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24959,13 +24956,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <v>1</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="74">
         <v>0.5</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="74">
         <v>0.1</v>
       </c>
       <c r="M8" s="2"/>
@@ -24995,22 +24992,22 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="104"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="75">
+      <c r="J9" s="74">
         <v>1</v>
       </c>
-      <c r="K9" s="75">
+      <c r="K9" s="74">
         <v>0.1</v>
       </c>
       <c r="L9" s="72"/>
@@ -25041,19 +25038,19 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>1</v>
       </c>
       <c r="K10" s="72"/>
@@ -25085,19 +25082,19 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="86" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="85" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <v>1</v>
       </c>
       <c r="K11" s="72"/>
@@ -25129,19 +25126,19 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="65" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <v>1</v>
       </c>
       <c r="K12" s="72"/>
@@ -25173,19 +25170,19 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="105"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="75">
+      <c r="J13" s="74">
         <v>1</v>
       </c>
       <c r="K13" s="72"/>
@@ -32870,8 +32867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -32923,18 +32920,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32958,16 +32955,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33093,16 +33090,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="73" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -33148,16 +33145,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="102" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33166,9 +33163,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="J8" s="74">
+        <v>1</v>
+      </c>
+      <c r="K8" s="74">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="74">
+        <v>0.2</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="13"/>
       <c r="O8" s="4"/>
@@ -33190,20 +33193,26 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
+    <row r="9" spans="2:32" ht="63.75" customHeight="1">
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="J9" s="74">
+        <v>1</v>
+      </c>
+      <c r="K9" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="74">
+        <v>0</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="13"/>
       <c r="O9" s="4"/>
@@ -33226,23 +33235,29 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="102" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="J10" s="74">
+        <v>1</v>
+      </c>
+      <c r="K10" s="74">
+        <v>1</v>
+      </c>
+      <c r="L10" s="74">
+        <v>0</v>
+      </c>
       <c r="M10" s="5">
         <v>2</v>
       </c>
@@ -33271,19 +33286,25 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="104"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="J11" s="74">
+        <v>0</v>
+      </c>
+      <c r="K11" s="74">
+        <v>0</v>
+      </c>
+      <c r="L11" s="74">
+        <v>0</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="6"/>
       <c r="O11" s="3"/>
@@ -33306,21 +33327,27 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="104"/>
-      <c r="C12" s="103" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="102" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="J12" s="74">
+        <v>0</v>
+      </c>
+      <c r="K12" s="74">
+        <v>0</v>
+      </c>
+      <c r="L12" s="74">
+        <v>0</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="6"/>
       <c r="O12" s="3"/>
@@ -33343,19 +33370,25 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="J13" s="74">
+        <v>1</v>
+      </c>
+      <c r="K13" s="74">
+        <v>1</v>
+      </c>
+      <c r="L13" s="74">
+        <v>0</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
       <c r="O13" s="3"/>
@@ -33378,17 +33411,17 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="106"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="73"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="72"/>
       <c r="L14" s="72"/>
       <c r="M14" s="5"/>
@@ -33413,21 +33446,27 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="104"/>
-      <c r="C15" s="103" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="102" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="107"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
+      <c r="J15" s="74">
+        <v>1</v>
+      </c>
+      <c r="K15" s="74">
+        <v>1</v>
+      </c>
+      <c r="L15" s="74">
+        <v>0</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
       <c r="O15" s="3"/>
@@ -33450,19 +33489,25 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
+      <c r="J16" s="74">
+        <v>1</v>
+      </c>
+      <c r="K16" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="74">
+        <v>0</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="O16" s="3"/>
@@ -33485,7 +33530,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="102" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -33494,16 +33539,20 @@
       <c r="D17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="105" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="112" t="s">
+      <c r="J17" s="74">
+        <v>1</v>
+      </c>
+      <c r="K17" s="74">
+        <v>0</v>
+      </c>
+      <c r="L17" s="111" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33528,21 +33577,25 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="105"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="65" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="107"/>
+      <c r="E18" s="106"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="113"/>
+      <c r="J18" s="74">
+        <v>1</v>
+      </c>
+      <c r="K18" s="74">
+        <v>0</v>
+      </c>
+      <c r="L18" s="112"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33574,14 +33627,18 @@
       <c r="D19" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="114"/>
+      <c r="J19" s="74">
+        <v>1</v>
+      </c>
+      <c r="K19" s="74">
+        <v>0</v>
+      </c>
+      <c r="L19" s="113"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41050,17 +41107,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41074,15 +41131,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41203,7 +41260,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -41212,7 +41269,7 @@
       <c r="D8" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41221,7 +41278,7 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="74">
         <v>1</v>
       </c>
       <c r="K8" s="72"/>
@@ -41237,19 +41294,19 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="104"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="75">
+      <c r="J9" s="74">
         <v>1</v>
       </c>
       <c r="K9" s="72"/>
@@ -41265,19 +41322,19 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="75">
+      <c r="J10" s="74">
         <v>1</v>
       </c>
       <c r="K10" s="72"/>
@@ -41293,19 +41350,19 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="104"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="65" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="75">
+      <c r="J11" s="74">
         <v>1</v>
       </c>
       <c r="K11" s="72"/>
@@ -41321,19 +41378,19 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="104"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="65" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="107"/>
+      <c r="E12" s="106"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="75">
+      <c r="J12" s="74">
         <v>1</v>
       </c>
       <c r="K12" s="72"/>
@@ -41349,19 +41406,19 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="75">
+      <c r="J13" s="74">
         <v>1</v>
       </c>
       <c r="K13" s="72"/>
@@ -46431,17 +46488,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46466,15 +46523,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46656,7 +46713,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="102" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -46665,7 +46722,7 @@
       <c r="D8" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="105" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46711,14 +46768,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="104"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="65" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -46750,14 +46807,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="104"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="106"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -46789,14 +46846,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="105"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="65" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -46828,7 +46885,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="102" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="65" t="s">
@@ -46837,7 +46894,7 @@
       <c r="D12" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="105" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46848,7 +46905,7 @@
         <v>169</v>
       </c>
       <c r="K12" s="72"/>
-      <c r="L12" s="115" t="s">
+      <c r="L12" s="114" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46873,14 +46930,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="104"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="65" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="106"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46889,7 +46946,7 @@
         <v>169</v>
       </c>
       <c r="K13" s="72"/>
-      <c r="L13" s="116"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -46918,14 +46975,14 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="105"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="65" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="111"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -46934,7 +46991,7 @@
         <v>169</v>
       </c>
       <c r="K14" s="72"/>
-      <c r="L14" s="117"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Documents\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>70% 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -733,6 +729,10 @@
   </si>
   <si>
     <t>옵션에 따른 상품 및 금액 선택 후 배송정보 입력, 결제</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>90% 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -16622,13 +16622,13 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="P7" s="79" t="s">
         <v>173</v>
-      </c>
-      <c r="P7" s="79" t="s">
-        <v>174</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -16682,11 +16682,11 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O8" s="81"/>
       <c r="P8" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -16834,13 +16834,13 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="O11" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="O11" s="84" t="s">
-        <v>178</v>
-      </c>
       <c r="P11" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -16886,13 +16886,13 @@
       <c r="L12" s="108"/>
       <c r="M12" s="1"/>
       <c r="N12" s="80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P12" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -16938,13 +16938,13 @@
       <c r="L13" s="109"/>
       <c r="M13" s="1"/>
       <c r="N13" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="O13" s="84" t="s">
-        <v>181</v>
-      </c>
       <c r="P13" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -24945,7 +24945,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="105" t="s">
         <v>8</v>
@@ -25087,7 +25087,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="106"/>
       <c r="F11" s="2"/>
@@ -32867,7 +32867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17:K19"/>
     </sheetView>
   </sheetViews>
@@ -46435,8 +46435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -46735,10 +46735,10 @@
         <v>169</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="L8" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Documents\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -680,10 +680,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>화면구현</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -733,6 +729,10 @@
   </si>
   <si>
     <t>90% 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60% 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16622,13 +16622,13 @@
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="P7" s="79" t="s">
         <v>172</v>
-      </c>
-      <c r="P7" s="79" t="s">
-        <v>173</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -16682,11 +16682,11 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O8" s="81"/>
       <c r="P8" s="82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -16834,13 +16834,13 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="O11" s="84" t="s">
-        <v>177</v>
-      </c>
       <c r="P11" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -16886,13 +16886,13 @@
       <c r="L12" s="108"/>
       <c r="M12" s="1"/>
       <c r="N12" s="80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P12" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -16938,13 +16938,13 @@
       <c r="L13" s="109"/>
       <c r="M13" s="1"/>
       <c r="N13" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="O13" s="84" t="s">
-        <v>180</v>
-      </c>
       <c r="P13" s="80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -24945,7 +24945,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="105" t="s">
         <v>8</v>
@@ -25087,7 +25087,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="106"/>
       <c r="F11" s="2"/>
@@ -46435,8 +46435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -46735,10 +46735,10 @@
         <v>169</v>
       </c>
       <c r="K8" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="74" t="s">
         <v>183</v>
-      </c>
-      <c r="L8" s="72" t="s">
-        <v>170</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$B$15:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 형준'!$B$7:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
   <si>
     <r>
       <rPr>
@@ -692,23 +692,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>0/1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2/3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3/3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3/6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -735,15 +723,31 @@
     <t>60% 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>웹 전체 진행률</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -922,6 +926,11 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1413,11 +1422,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1654,21 +1666,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1765,8 +1762,21 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
@@ -1988,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2027,15 +2037,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2043,13 +2053,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2101,15 +2111,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2331,7 +2341,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="81" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2367,7 +2377,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="86"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2401,7 +2411,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="86"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +2445,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="86"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2479,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="86"/>
+      <c r="B20" s="81"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2503,7 +2513,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="86"/>
+      <c r="B21" s="81"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2526,7 +2536,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="86"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2537,7 +2547,7 @@
         <v>31</v>
       </c>
       <c r="F22" s="33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G22" s="51">
         <v>0</v>
@@ -2549,7 +2559,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="82" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2574,7 +2584,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="87"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2597,7 +2607,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="87"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2620,7 +2630,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="87"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2643,7 +2653,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="87"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2667,7 +2677,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -7983,17 +7993,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -8023,15 +8033,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8232,7 +8242,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8241,7 +8251,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8284,14 +8294,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="97" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8330,12 +8340,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8372,14 +8382,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="97" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8416,12 +8426,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8458,12 +8468,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8500,14 +8510,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="97" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8544,12 +8554,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8586,14 +8596,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="104"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="106"/>
+      <c r="E16" s="101"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16336,8 +16346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16398,17 +16408,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16438,15 +16448,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16653,7 +16663,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16662,7 +16672,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16681,12 +16691,14 @@
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="80" t="s">
+      <c r="N8" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" s="114">
+        <v>0</v>
+      </c>
+      <c r="P8" s="113" t="s">
         <v>173</v>
-      </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="82" t="s">
-        <v>174</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -16711,14 +16723,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16727,15 +16739,21 @@
         <v>1</v>
       </c>
       <c r="K9" s="74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="L9" s="74">
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="2"/>
+      <c r="N9" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="113" t="s">
+        <v>173</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -16759,14 +16777,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="104"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="110"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -16775,15 +16793,21 @@
         <v>1</v>
       </c>
       <c r="K10" s="74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="L10" s="74">
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="2"/>
+      <c r="N10" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="113" t="s">
+        <v>173</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -16807,7 +16831,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="97" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16816,7 +16840,7 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="100" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -16827,20 +16851,20 @@
         <v>1</v>
       </c>
       <c r="K11" s="74">
-        <v>0.6</v>
+        <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="102" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="83" t="s">
-        <v>175</v>
+      <c r="N11" s="113" t="s">
+        <v>174</v>
       </c>
-      <c r="O11" s="84" t="s">
-        <v>176</v>
+      <c r="O11" s="115" t="s">
+        <v>182</v>
       </c>
-      <c r="P11" s="80" t="s">
-        <v>174</v>
+      <c r="P11" s="113" t="s">
+        <v>173</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -16865,14 +16889,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -16881,18 +16905,18 @@
         <v>1</v>
       </c>
       <c r="K12" s="74">
-        <v>0.6</v>
+        <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="108"/>
+      <c r="L12" s="103"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="80" t="s">
-        <v>175</v>
+      <c r="N12" s="113" t="s">
+        <v>174</v>
       </c>
-      <c r="O12" s="84" t="s">
-        <v>177</v>
+      <c r="O12" s="115" t="s">
+        <v>183</v>
       </c>
-      <c r="P12" s="80" t="s">
-        <v>174</v>
+      <c r="P12" s="113" t="s">
+        <v>173</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -16917,14 +16941,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="104"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -16935,16 +16959,16 @@
       <c r="K13" s="74">
         <v>0</v>
       </c>
-      <c r="L13" s="109"/>
+      <c r="L13" s="104"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="80" t="s">
-        <v>178</v>
+      <c r="N13" s="113" t="s">
+        <v>175</v>
       </c>
-      <c r="O13" s="84" t="s">
-        <v>179</v>
+      <c r="O13" s="115" t="s">
+        <v>176</v>
       </c>
-      <c r="P13" s="80" t="s">
-        <v>174</v>
+      <c r="P13" s="113" t="s">
+        <v>173</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -17016,12 +17040,16 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="112">
+        <f>SUM(K8:K13)/6</f>
+        <v>0.61222222222222233</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -24689,17 +24717,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24729,15 +24757,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24938,16 +24966,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24992,14 +25020,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="65" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25038,14 +25066,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="103"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="65" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25082,14 +25110,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="80" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25126,14 +25154,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="103"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="65" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25170,14 +25198,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="104"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -32920,18 +32948,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32955,16 +32983,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33145,16 +33173,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="97" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33194,12 +33222,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33235,16 +33263,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="97" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33286,12 +33314,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33327,14 +33355,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="103"/>
-      <c r="C12" s="102" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="97" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33370,12 +33398,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33411,12 +33439,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="106"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33446,14 +33474,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="97" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33489,12 +33517,12 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="110"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -33530,7 +33558,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="97" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -33539,7 +33567,7 @@
       <c r="D17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="100" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
@@ -33552,7 +33580,7 @@
       <c r="K17" s="74">
         <v>0</v>
       </c>
-      <c r="L17" s="111" t="s">
+      <c r="L17" s="106" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33577,14 +33605,14 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="104"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="65" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="106"/>
+      <c r="E18" s="101"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -33595,7 +33623,7 @@
       <c r="K18" s="74">
         <v>0</v>
       </c>
-      <c r="L18" s="112"/>
+      <c r="L18" s="107"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33627,7 +33655,7 @@
       <c r="D19" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="110"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -33638,7 +33666,7 @@
       <c r="K19" s="74">
         <v>0</v>
       </c>
-      <c r="L19" s="113"/>
+      <c r="L19" s="108"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41107,17 +41135,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41131,15 +41159,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41260,7 +41288,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -41269,7 +41297,7 @@
       <c r="D8" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41294,14 +41322,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="65" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41322,14 +41350,14 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="103"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="65" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41350,14 +41378,14 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="103"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="65" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="106"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41378,14 +41406,14 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="103"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="65" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="106"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41406,14 +41434,14 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="104"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="110"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46488,17 +46516,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46523,15 +46551,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46713,7 +46741,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="97" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -46722,7 +46750,7 @@
       <c r="D8" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="100" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46735,10 +46763,10 @@
         <v>169</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -46768,14 +46796,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="103"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="65" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="106"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -46807,14 +46835,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="103"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="65" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -46846,14 +46874,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="104"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="65" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -46885,7 +46913,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="97" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="65" t="s">
@@ -46894,7 +46922,7 @@
       <c r="D12" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="100" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46905,7 +46933,7 @@
         <v>169</v>
       </c>
       <c r="K12" s="72"/>
-      <c r="L12" s="114" t="s">
+      <c r="L12" s="109" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46930,14 +46958,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="65" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="106"/>
+      <c r="E13" s="101"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46946,7 +46974,7 @@
         <v>169</v>
       </c>
       <c r="K13" s="72"/>
-      <c r="L13" s="115"/>
+      <c r="L13" s="110"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -46975,14 +47003,14 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="104"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="65" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="110"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -46991,7 +47019,7 @@
         <v>169</v>
       </c>
       <c r="K14" s="72"/>
-      <c r="L14" s="116"/>
+      <c r="L14" s="111"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -26,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$B$15:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 형준'!$B$7:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="187">
   <si>
     <r>
       <rPr>
@@ -739,13 +734,21 @@
     <t>0/1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 예정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1429,7 +1432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1529,12 +1532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1669,6 +1666,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,16 +1771,25 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1998,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2037,15 +2055,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2053,13 +2071,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2111,15 +2129,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2127,32 +2145,32 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="58" t="s">
         <v>35</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -2170,7 +2188,7 @@
       <c r="G9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="36" t="s">
         <v>33</v>
       </c>
       <c r="U9" s="23"/>
@@ -2179,7 +2197,7 @@
       <c r="X9" s="21"/>
     </row>
     <row r="10" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -2197,7 +2215,7 @@
       <c r="G10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="47" t="s">
         <v>64</v>
       </c>
       <c r="U10" s="23"/>
@@ -2206,7 +2224,7 @@
       <c r="X10" s="21"/>
     </row>
     <row r="11" spans="1:24" ht="25.5" customHeight="1">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -2224,7 +2242,7 @@
       <c r="G11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="47" t="s">
         <v>37</v>
       </c>
       <c r="U11" s="23"/>
@@ -2233,25 +2251,25 @@
       <c r="X11" s="21"/>
     </row>
     <row r="12" spans="1:24" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="48" t="s">
         <v>37</v>
       </c>
       <c r="U12" s="23"/>
@@ -2278,15 +2296,15 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2305,22 +2323,22 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="32.25" customHeight="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="60" t="s">
         <v>66</v>
       </c>
       <c r="H15" s="21"/>
@@ -2341,23 +2359,23 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="119" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
-      <c r="G16" s="51">
-        <v>0</v>
+      <c r="G16" s="49">
+        <v>0.2</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -2377,20 +2395,18 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="81"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="120"/>
       <c r="E17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="33">
-        <v>0</v>
+        <v>0.8</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="49">
         <v>0</v>
       </c>
       <c r="H17" s="21"/>
@@ -2411,8 +2427,8 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="45" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="43" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="34" t="s">
@@ -2422,9 +2438,9 @@
         <v>31</v>
       </c>
       <c r="F18" s="33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="49">
         <v>0</v>
       </c>
       <c r="H18" s="21"/>
@@ -2445,8 +2461,8 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="34" t="s">
@@ -2456,10 +2472,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="33">
-        <v>0</v>
+        <v>0.3</v>
       </c>
-      <c r="G19" s="51">
-        <v>0</v>
+      <c r="G19" s="49">
+        <v>0.1</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2479,8 +2495,8 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="45" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="43" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="32" t="s">
@@ -2490,10 +2506,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="33">
-        <v>0</v>
+        <v>0.3</v>
       </c>
-      <c r="G20" s="51">
-        <v>0</v>
+      <c r="G20" s="49">
+        <v>0.3</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -2513,8 +2529,8 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="32" t="s">
@@ -2524,9 +2540,9 @@
         <v>31</v>
       </c>
       <c r="F21" s="33">
-        <v>0</v>
+        <v>0.45</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="49">
         <v>0</v>
       </c>
       <c r="H21" s="21"/>
@@ -2536,8 +2552,8 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="83"/>
+      <c r="C22" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="32" t="s">
@@ -2549,7 +2565,7 @@
       <c r="F22" s="33">
         <v>0.6</v>
       </c>
-      <c r="G22" s="51">
+      <c r="G22" s="49">
         <v>0</v>
       </c>
       <c r="H22" s="21"/>
@@ -2559,10 +2575,10 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="40" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="32" t="s">
@@ -2574,7 +2590,7 @@
       <c r="F23" s="33">
         <v>0</v>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="49">
         <v>0</v>
       </c>
       <c r="H23" s="21"/>
@@ -2584,8 +2600,8 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="82"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -2597,7 +2613,7 @@
       <c r="F24" s="33">
         <v>0</v>
       </c>
-      <c r="G24" s="51">
+      <c r="G24" s="49">
         <v>0</v>
       </c>
       <c r="H24" s="21"/>
@@ -2607,8 +2623,8 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="82"/>
-      <c r="C25" s="42" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="32" t="s">
@@ -2620,7 +2636,7 @@
       <c r="F25" s="33">
         <v>0</v>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="49">
         <v>0</v>
       </c>
       <c r="H25" s="21"/>
@@ -2630,8 +2646,8 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="40" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="34" t="s">
@@ -2643,7 +2659,7 @@
       <c r="F26" s="33">
         <v>0</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="49">
         <v>0</v>
       </c>
       <c r="H26" s="21"/>
@@ -2653,8 +2669,8 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="82"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="40" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="32" t="s">
@@ -2664,9 +2680,9 @@
         <v>31</v>
       </c>
       <c r="F27" s="33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="49">
         <v>0</v>
       </c>
       <c r="H27" s="21"/>
@@ -2677,20 +2693,20 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="85"/>
+      <c r="C28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="50">
         <v>0</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="51">
         <v>0</v>
       </c>
       <c r="H28" s="21"/>
@@ -7913,11 +7929,12 @@
     <row r="960" ht="15.75" customHeight="1"/>
     <row r="961" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B2:H3"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7929,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ959"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -7993,22 +8010,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -8032,21 +8049,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -8188,16 +8205,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="61" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -8206,13 +8223,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -8242,16 +8259,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8260,13 +8277,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="72">
         <v>1</v>
       </c>
-      <c r="L8" s="74"/>
+      <c r="L8" s="116" t="s">
+        <v>185</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -8294,25 +8313,25 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
-        <v>0.3</v>
+      <c r="K9" s="114">
+        <v>0.7</v>
       </c>
-      <c r="L9" s="74"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -8340,21 +8359,21 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="68" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -8382,23 +8401,25 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <v>1</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="K11" s="72">
+        <v>0.9</v>
+      </c>
+      <c r="L11" s="72"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -8426,21 +8447,25 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="69" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="72">
         <v>1</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="116" t="s">
+        <v>185</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -8468,21 +8493,23 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="117"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -8510,23 +8537,25 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="74">
+      <c r="J14" s="72">
         <v>1</v>
       </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="K14" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="117"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -8554,21 +8583,23 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="68" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="74">
+      <c r="J15" s="72">
         <v>1</v>
       </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
+      <c r="K15" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="117"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -8596,23 +8627,25 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="74">
+      <c r="J16" s="72">
         <v>1</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="K16" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" s="118"/>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -8640,27 +8673,29 @@
     </row>
     <row r="17" spans="1:36" ht="33.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="74">
+      <c r="J17" s="72">
         <v>1</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75" t="s">
+      <c r="K17" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" s="73" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="1"/>
@@ -16328,7 +16363,10 @@
     <row r="958" ht="15.75" customHeight="1"/>
     <row r="959" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="E8:E16"/>
@@ -16346,7 +16384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -16408,22 +16446,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -16447,21 +16485,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -16603,16 +16641,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="61" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -16621,23 +16659,23 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="P7" s="79" t="s">
+      <c r="P7" s="77" t="s">
         <v>172</v>
       </c>
       <c r="Q7" s="1"/>
@@ -16663,16 +16701,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16681,23 +16719,23 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <v>0</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="72">
         <v>0</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="72">
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="113" t="s">
+      <c r="N8" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="114">
+      <c r="O8" s="81">
         <v>0</v>
       </c>
-      <c r="P8" s="113" t="s">
+      <c r="P8" s="80" t="s">
         <v>173</v>
       </c>
       <c r="Q8" s="1"/>
@@ -16723,35 +16761,35 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="72">
         <v>0.92</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="72">
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="113" t="s">
+      <c r="N9" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="O9" s="115" t="s">
+      <c r="O9" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="113" t="s">
+      <c r="P9" s="80" t="s">
         <v>173</v>
       </c>
       <c r="Q9" s="1"/>
@@ -16777,35 +16815,35 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="72">
         <v>0.92</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="72">
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="113" t="s">
+      <c r="N10" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="P10" s="113" t="s">
+      <c r="P10" s="80" t="s">
         <v>173</v>
       </c>
       <c r="Q10" s="1"/>
@@ -16831,39 +16869,39 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="102" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <v>1</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="72">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="104" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="113" t="s">
+      <c r="N11" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="O11" s="115" t="s">
+      <c r="O11" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="113" t="s">
+      <c r="P11" s="80" t="s">
         <v>173</v>
       </c>
       <c r="Q11" s="1"/>
@@ -16889,33 +16927,33 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="72">
         <v>1</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="72">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="113" t="s">
+      <c r="N12" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="O12" s="115" t="s">
+      <c r="O12" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="P12" s="113" t="s">
+      <c r="P12" s="80" t="s">
         <v>173</v>
       </c>
       <c r="Q12" s="1"/>
@@ -16941,33 +16979,33 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="72">
         <v>0</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="72">
         <v>0</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="O13" s="115" t="s">
+      <c r="O13" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="P13" s="113" t="s">
+      <c r="P13" s="80" t="s">
         <v>173</v>
       </c>
       <c r="Q13" s="1"/>
@@ -17046,7 +17084,7 @@
       <c r="O15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P15" s="112">
+      <c r="P15" s="79">
         <f>SUM(K8:K13)/6</f>
         <v>0.61222222222222233</v>
       </c>
@@ -24717,22 +24755,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -24756,21 +24794,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -24912,16 +24950,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="61" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -24930,13 +24968,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -24966,16 +25004,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24984,13 +25022,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="72">
         <v>0.5</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="72">
         <v>0.1</v>
       </c>
       <c r="M8" s="2"/>
@@ -25020,25 +25058,25 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="72">
         <v>0.1</v>
       </c>
-      <c r="L9" s="72"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -25066,23 +25104,23 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -25110,23 +25148,23 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <v>1</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -25154,23 +25192,23 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="72">
         <v>1</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -25198,23 +25236,23 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -32896,7 +32934,7 @@
   <dimension ref="B1:AF990"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K19"/>
+      <selection activeCell="B10" sqref="B10:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -32948,18 +32986,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32982,17 +33020,17 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33118,16 +33156,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="71" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -33136,13 +33174,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -33173,16 +33211,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33191,13 +33229,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="72">
         <v>0.7</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="72">
         <v>0.2</v>
       </c>
       <c r="M8" s="3"/>
@@ -33222,23 +33260,23 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="68" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="72">
         <v>0.2</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="72">
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
@@ -33263,27 +33301,27 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="72">
         <v>1</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="72">
         <v>0</v>
       </c>
       <c r="M10" s="5">
@@ -33314,23 +33352,23 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="68" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <v>0</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="72">
         <v>0</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="72">
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
@@ -33355,25 +33393,25 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="72">
         <v>0</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="72">
         <v>0</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="72">
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
@@ -33398,23 +33436,23 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="69" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="72">
         <v>1</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="72">
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
@@ -33439,19 +33477,19 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="68" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="3"/>
@@ -33474,25 +33512,25 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="98"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="74">
+      <c r="J15" s="72">
         <v>1</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="72">
         <v>1</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="72">
         <v>0</v>
       </c>
       <c r="M15" s="5"/>
@@ -33517,23 +33555,23 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="74">
+      <c r="J16" s="72">
         <v>1</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K16" s="72">
         <v>0.5</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="72">
         <v>0</v>
       </c>
       <c r="M16" s="5"/>
@@ -33558,29 +33596,29 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="102" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="74">
+      <c r="J17" s="72">
         <v>1</v>
       </c>
-      <c r="K17" s="74">
+      <c r="K17" s="72">
         <v>0</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="108" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33605,25 +33643,25 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="99"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="101"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="74">
+      <c r="J18" s="72">
         <v>1</v>
       </c>
-      <c r="K18" s="74">
+      <c r="K18" s="72">
         <v>0</v>
       </c>
-      <c r="L18" s="107"/>
+      <c r="L18" s="109"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33646,27 +33684,27 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="74">
+      <c r="J19" s="72">
         <v>1</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="72">
         <v>0</v>
       </c>
-      <c r="L19" s="108"/>
+      <c r="L19" s="110"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41096,7 +41134,7 @@
   <dimension ref="B1:U977"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41135,18 +41173,18 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -41158,17 +41196,17 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -41250,16 +41288,16 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="2:21" ht="36" customHeight="1">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="61" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -41268,13 +41306,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="1"/>
@@ -41288,16 +41326,16 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41306,10 +41344,12 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="72">
         <v>1</v>
       </c>
-      <c r="K8" s="72"/>
+      <c r="K8" s="72">
+        <v>0</v>
+      </c>
       <c r="L8" s="72"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -41322,22 +41362,24 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="98"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="72">
         <v>1</v>
       </c>
-      <c r="K9" s="72"/>
+      <c r="K9" s="72">
+        <v>0</v>
+      </c>
       <c r="L9" s="72"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -41350,22 +41392,24 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="72">
         <v>1</v>
       </c>
-      <c r="K10" s="72"/>
+      <c r="K10" s="72">
+        <v>0</v>
+      </c>
       <c r="L10" s="72"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -41378,22 +41422,24 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="98"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="72">
         <v>1</v>
       </c>
-      <c r="K11" s="72"/>
+      <c r="K11" s="72">
+        <v>0.9</v>
+      </c>
       <c r="L11" s="72"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -41406,22 +41452,24 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="72">
         <v>1</v>
       </c>
-      <c r="K12" s="72"/>
+      <c r="K12" s="72">
+        <v>0.9</v>
+      </c>
       <c r="L12" s="72"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -41434,22 +41482,24 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="72">
         <v>1</v>
       </c>
-      <c r="K13" s="72"/>
+      <c r="K13" s="72">
+        <v>0.9</v>
+      </c>
       <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -46516,18 +46566,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -46550,17 +46600,17 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -46686,16 +46736,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="61" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -46704,13 +46754,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -46741,16 +46791,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46759,13 +46809,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="72" t="s">
         <v>180</v>
       </c>
       <c r="M8" s="3">
@@ -46796,23 +46846,23 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="98"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -46835,23 +46885,23 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -46874,23 +46924,23 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -46913,27 +46963,27 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="102" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="109" t="s">
+      <c r="K12" s="70"/>
+      <c r="L12" s="111" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46958,23 +47008,23 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="110"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="112"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -47003,23 +47053,23 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="99"/>
-      <c r="C14" s="65" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="111"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -745,7 +745,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -931,6 +931,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1669,6 +1670,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1760,18 +1773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1999,7 +2000,7 @@
   <dimension ref="A1:X961"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2037,15 +2038,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2053,13 +2054,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2111,15 +2112,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2341,7 +2342,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2377,7 +2378,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="81"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2411,7 +2412,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="81"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2445,7 +2446,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="81"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2456,10 +2457,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G19" s="51">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2479,7 +2480,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="81"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2513,7 +2514,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="81"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2536,7 +2537,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="81"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2559,7 +2560,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="86" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2584,7 +2585,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="82"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2607,7 +2608,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="82"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="82"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2653,7 +2654,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="82"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2677,7 +2678,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="83"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -7993,17 +7994,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -8033,15 +8034,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8242,7 +8243,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8251,7 +8252,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8294,14 +8295,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="97" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="101" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8340,12 +8341,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8382,14 +8383,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="97" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="101" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8426,12 +8427,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8468,12 +8469,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8510,14 +8511,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="101" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8554,12 +8555,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8596,14 +8597,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="99"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="101"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16346,7 +16347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -16408,17 +16409,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16448,15 +16449,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16663,7 +16664,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16672,7 +16673,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16691,13 +16692,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="113" t="s">
+      <c r="N8" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="O8" s="114">
+      <c r="O8" s="83">
         <v>0</v>
       </c>
-      <c r="P8" s="113" t="s">
+      <c r="P8" s="82" t="s">
         <v>173</v>
       </c>
       <c r="Q8" s="1"/>
@@ -16723,14 +16724,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16745,13 +16746,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="113" t="s">
+      <c r="N9" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O9" s="115" t="s">
+      <c r="O9" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="113" t="s">
+      <c r="P9" s="82" t="s">
         <v>173</v>
       </c>
       <c r="Q9" s="1"/>
@@ -16777,14 +16778,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="99"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -16799,13 +16800,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="113" t="s">
+      <c r="N10" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="P10" s="113" t="s">
+      <c r="P10" s="82" t="s">
         <v>173</v>
       </c>
       <c r="Q10" s="1"/>
@@ -16831,7 +16832,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="101" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16840,7 +16841,7 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="104" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -16853,17 +16854,17 @@
       <c r="K11" s="74">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="106" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="113" t="s">
+      <c r="N11" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O11" s="115" t="s">
+      <c r="O11" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="P11" s="113" t="s">
+      <c r="P11" s="82" t="s">
         <v>173</v>
       </c>
       <c r="Q11" s="1"/>
@@ -16889,14 +16890,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="98"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -16907,15 +16908,15 @@
       <c r="K12" s="74">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="107"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="113" t="s">
+      <c r="N12" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O12" s="115" t="s">
+      <c r="O12" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="P12" s="113" t="s">
+      <c r="P12" s="82" t="s">
         <v>173</v>
       </c>
       <c r="Q12" s="1"/>
@@ -16941,14 +16942,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="99"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -16959,15 +16960,15 @@
       <c r="K13" s="74">
         <v>0</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="108"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="O13" s="115" t="s">
+      <c r="O13" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="P13" s="113" t="s">
+      <c r="P13" s="82" t="s">
         <v>173</v>
       </c>
       <c r="Q13" s="1"/>
@@ -17046,7 +17047,7 @@
       <c r="O15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P15" s="112">
+      <c r="P15" s="81">
         <f>SUM(K8:K13)/6</f>
         <v>0.61222222222222233</v>
       </c>
@@ -24654,7 +24655,7 @@
   <dimension ref="A1:AJ955"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -24717,17 +24718,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24757,15 +24758,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24966,7 +24967,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -24975,7 +24976,7 @@
       <c r="D8" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -24988,10 +24989,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="74">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="74">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
@@ -25020,14 +25021,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="65" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25066,14 +25067,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="98"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="65" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25110,14 +25111,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="98"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="80" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25154,14 +25155,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="98"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="65" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25198,14 +25199,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="99"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -32895,7 +32896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17:K19"/>
     </sheetView>
   </sheetViews>
@@ -32948,18 +32949,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -32983,16 +32984,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33173,16 +33174,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="101" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33222,12 +33223,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33263,16 +33264,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="101" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33314,12 +33315,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33355,14 +33356,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="98"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="101" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33398,12 +33399,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33439,12 +33440,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="101"/>
+      <c r="E14" s="105"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33474,14 +33475,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="98"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="102"/>
+      <c r="C15" s="101" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33517,12 +33518,12 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -33558,7 +33559,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="101" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -33567,7 +33568,7 @@
       <c r="D17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="104" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
@@ -33580,7 +33581,7 @@
       <c r="K17" s="74">
         <v>0</v>
       </c>
-      <c r="L17" s="106" t="s">
+      <c r="L17" s="110" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33605,14 +33606,14 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="99"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="65" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="101"/>
+      <c r="E18" s="105"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -33623,7 +33624,7 @@
       <c r="K18" s="74">
         <v>0</v>
       </c>
-      <c r="L18" s="107"/>
+      <c r="L18" s="111"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33655,7 +33656,7 @@
       <c r="D19" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="105"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -33666,7 +33667,7 @@
       <c r="K19" s="74">
         <v>0</v>
       </c>
-      <c r="L19" s="108"/>
+      <c r="L19" s="112"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41135,17 +41136,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41159,15 +41160,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41288,7 +41289,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -41297,7 +41298,7 @@
       <c r="D8" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41322,14 +41323,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="98"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="65" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41350,14 +41351,14 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="98"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="65" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41378,14 +41379,14 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="98"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="65" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="101"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41406,14 +41407,14 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="98"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="65" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="101"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41434,14 +41435,14 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="99"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46516,17 +46517,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="97"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46551,15 +46552,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="100"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46741,7 +46742,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -46750,7 +46751,7 @@
       <c r="D8" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="104" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46796,14 +46797,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="98"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="65" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="101"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -46835,14 +46836,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="98"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="65" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="101"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -46874,14 +46875,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="99"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="65" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -46913,7 +46914,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="101" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="65" t="s">
@@ -46922,7 +46923,7 @@
       <c r="D12" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="104" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46933,7 +46934,7 @@
         <v>169</v>
       </c>
       <c r="K12" s="72"/>
-      <c r="L12" s="109" t="s">
+      <c r="L12" s="113" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46958,14 +46959,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="98"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="65" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46974,7 +46975,7 @@
         <v>169</v>
       </c>
       <c r="K13" s="72"/>
-      <c r="L13" s="110"/>
+      <c r="L13" s="114"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -47003,14 +47004,14 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="99"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="65" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -47019,7 +47020,7 @@
         <v>169</v>
       </c>
       <c r="K14" s="72"/>
-      <c r="L14" s="111"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -24654,8 +24654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -24989,10 +24989,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="74">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="L8" s="74">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
@@ -25037,9 +25037,11 @@
         <v>1</v>
       </c>
       <c r="K9" s="74">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
-      <c r="L9" s="72"/>
+      <c r="L9" s="74">
+        <v>0.2</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -25082,7 +25084,9 @@
       <c r="J10" s="74">
         <v>1</v>
       </c>
-      <c r="K10" s="72"/>
+      <c r="K10" s="74">
+        <v>1</v>
+      </c>
       <c r="L10" s="72"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
@@ -25126,7 +25130,9 @@
       <c r="J11" s="74">
         <v>1</v>
       </c>
-      <c r="K11" s="72"/>
+      <c r="K11" s="74">
+        <v>0.2</v>
+      </c>
       <c r="L11" s="72"/>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
@@ -25170,7 +25176,9 @@
       <c r="J12" s="74">
         <v>1</v>
       </c>
-      <c r="K12" s="72"/>
+      <c r="K12" s="74">
+        <v>0.5</v>
+      </c>
       <c r="L12" s="72"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
@@ -25214,7 +25222,9 @@
       <c r="J13" s="74">
         <v>1</v>
       </c>
-      <c r="K13" s="72"/>
+      <c r="K13" s="74">
+        <v>0.1</v>
+      </c>
       <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
@@ -32896,7 +32906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J17" sqref="J17:K19"/>
     </sheetView>
   </sheetViews>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -716,10 +716,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>90% 완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>60% 완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -737,6 +733,34 @@
   </si>
   <si>
     <t>0/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>90%완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>70%완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1999,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2491,10 +2515,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G20" s="51">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -16693,7 +16717,7 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O8" s="83">
         <v>0</v>
@@ -16750,7 +16774,7 @@
         <v>174</v>
       </c>
       <c r="O9" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P9" s="82" t="s">
         <v>173</v>
@@ -16804,7 +16828,7 @@
         <v>174</v>
       </c>
       <c r="O10" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P10" s="82" t="s">
         <v>173</v>
@@ -16862,7 +16886,7 @@
         <v>174</v>
       </c>
       <c r="O11" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P11" s="82" t="s">
         <v>173</v>
@@ -16914,7 +16938,7 @@
         <v>174</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P12" s="82" t="s">
         <v>173</v>
@@ -17045,7 +17069,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P15" s="81">
         <f>SUM(K8:K13)/6</f>
@@ -24654,7 +24678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -46475,7 +46499,7 @@
   <dimension ref="B1:AF973"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L12" sqref="L12:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -46774,10 +46798,10 @@
         <v>169</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -46822,8 +46846,12 @@
       <c r="J9" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="K9" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="72" t="s">
+        <v>188</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -46861,8 +46889,12 @@
       <c r="J10" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>190</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -46900,8 +46932,12 @@
       <c r="J11" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" s="72" t="s">
+        <v>189</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -2023,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41130,8 +41130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U977"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41344,8 +41344,12 @@
       <c r="J8" s="74">
         <v>1</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="K8" s="74">
+        <v>0</v>
+      </c>
+      <c r="L8" s="74">
+        <v>0</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -41372,8 +41376,12 @@
       <c r="J9" s="74">
         <v>1</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="K9" s="74">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74">
+        <v>0</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -41400,8 +41408,12 @@
       <c r="J10" s="74">
         <v>1</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="74">
+        <v>0</v>
+      </c>
+      <c r="L10" s="74">
+        <v>0</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -41428,8 +41440,12 @@
       <c r="J11" s="74">
         <v>1</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="74">
+        <v>0.1</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -41456,8 +41472,12 @@
       <c r="J12" s="74">
         <v>1</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="K12" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="74">
+        <v>0.3</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -41484,8 +41504,12 @@
       <c r="J13" s="74">
         <v>1</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="K13" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="74">
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="3"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -24654,7 +24654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -32906,8 +32906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33206,10 +33206,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="74">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L8" s="74">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="13"/>
@@ -33247,7 +33247,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="74">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L9" s="74">
         <v>0</v>
@@ -33295,7 +33295,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5">
         <v>2</v>
@@ -33426,7 +33426,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
@@ -33504,7 +33504,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
@@ -33542,10 +33542,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L16" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="5"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -32930,8 +32930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33230,10 +33230,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="74">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L8" s="74">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="13"/>
@@ -33271,7 +33271,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="74">
         <v>0</v>
@@ -33319,7 +33319,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5">
         <v>2</v>
@@ -33450,7 +33450,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
@@ -33528,7 +33528,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
@@ -33569,7 +33569,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
@@ -41130,7 +41130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:X961"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2481,10 +2481,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="33">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="G19" s="51">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -24679,7 +24679,7 @@
   <dimension ref="A1:AJ955"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -25064,7 +25064,7 @@
         <v>0.7</v>
       </c>
       <c r="L9" s="74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -25111,7 +25111,9 @@
       <c r="K10" s="74">
         <v>1</v>
       </c>
-      <c r="L10" s="72"/>
+      <c r="L10" s="74">
+        <v>0.5</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -25157,7 +25159,9 @@
       <c r="K11" s="74">
         <v>0.2</v>
       </c>
-      <c r="L11" s="72"/>
+      <c r="L11" s="74">
+        <v>0.25</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -2023,7 +2023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -32934,8 +32934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33234,10 +33234,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="74">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="74">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="13"/>
@@ -33275,7 +33275,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="74">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="74">
         <v>0</v>
@@ -33323,7 +33323,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5">
         <v>2</v>
@@ -33454,7 +33454,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
@@ -33532,7 +33532,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
@@ -33573,7 +33573,7 @@
         <v>0.5</v>
       </c>
       <c r="L16" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezen-033\Desktop\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
   <si>
     <r>
       <rPr>
@@ -700,14 +700,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>0/2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리별 프로젝트 목록, 오픈예정 프로젝트, 진행중 프로젝트, 종료된 프로젝트, 최신순, 인기순, 금액순, 마감임박순 프로젝트</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -729,10 +721,6 @@
   </si>
   <si>
     <t>6/6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -761,6 +749,46 @@
   </si>
   <si>
     <t>진행중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 전체 진행률</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1454,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1698,9 +1726,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2024,7 +2049,7 @@
   <dimension ref="A1:X961"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2062,15 +2087,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2078,13 +2103,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2136,15 +2161,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2366,7 +2391,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2402,7 +2427,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="85"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2436,7 +2461,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="85"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2495,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="85"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2504,7 +2529,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="85"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2538,7 +2563,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2586,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="85"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2572,10 +2597,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="33">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="G22" s="51">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H22" s="21"/>
       <c r="T22" s="21"/>
@@ -2584,7 +2609,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="85" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2609,7 +2634,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="86"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2632,7 +2657,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="86"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2655,7 +2680,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="86"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2678,7 +2703,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="86"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2689,10 +2714,10 @@
         <v>31</v>
       </c>
       <c r="F27" s="33">
-        <v>0</v>
+        <v>0.66</v>
       </c>
-      <c r="G27" s="51">
-        <v>0</v>
+      <c r="G27" s="51" t="s">
+        <v>197</v>
       </c>
       <c r="H27" s="21"/>
       <c r="T27" s="21"/>
@@ -2702,7 +2727,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -8018,17 +8043,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -8058,15 +8083,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -8267,7 +8292,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -8276,7 +8301,7 @@
       <c r="D8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8319,14 +8344,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="101" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="100" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8365,12 +8390,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8407,14 +8432,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="101" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="100" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8451,12 +8476,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8493,12 +8518,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8535,14 +8560,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="101" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="100" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8579,12 +8604,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8621,14 +8646,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="103"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="65" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="104"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -16371,8 +16396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16433,17 +16458,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -16473,15 +16498,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -16603,13 +16628,17 @@
       <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -16668,9 +16697,15 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="T7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U7" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="V7" s="79" t="s">
+        <v>172</v>
+      </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -16688,7 +16723,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -16697,7 +16732,7 @@
       <c r="D8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16707,20 +16742,20 @@
         <v>18</v>
       </c>
       <c r="J8" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L8" s="74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="82" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
-      <c r="O8" s="83">
-        <v>0</v>
+      <c r="O8" s="82" t="s">
+        <v>192</v>
       </c>
       <c r="P8" s="82" t="s">
         <v>173</v>
@@ -16728,9 +16763,15 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="T8" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="U8" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="V8" s="82" t="s">
+        <v>173</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -16748,14 +16789,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="65" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16767,14 +16808,14 @@
         <v>0.92</v>
       </c>
       <c r="L9" s="74">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O9" s="84" t="s">
-        <v>181</v>
+      <c r="O9" s="83" t="s">
+        <v>179</v>
       </c>
       <c r="P9" s="82" t="s">
         <v>173</v>
@@ -16782,9 +16823,15 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="T9" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="U9" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="82" t="s">
+        <v>173</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -16802,14 +16849,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="103"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="109"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -16821,14 +16868,14 @@
         <v>0.92</v>
       </c>
       <c r="L10" s="74">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="84" t="s">
-        <v>181</v>
+      <c r="O10" s="83" t="s">
+        <v>179</v>
       </c>
       <c r="P10" s="82" t="s">
         <v>173</v>
@@ -16836,9 +16883,15 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="T10" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="U10" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="82" t="s">
+        <v>173</v>
+      </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -16856,7 +16909,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="100" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="65" t="s">
@@ -16865,7 +16918,7 @@
       <c r="D11" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="103" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -16878,15 +16931,15 @@
       <c r="K11" s="74">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="106" t="s">
+      <c r="L11" s="105" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O11" s="84" t="s">
-        <v>181</v>
+      <c r="O11" s="83" t="s">
+        <v>179</v>
       </c>
       <c r="P11" s="82" t="s">
         <v>173</v>
@@ -16894,9 +16947,9 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -16914,14 +16967,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="102"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="65" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -16932,13 +16985,13 @@
       <c r="K12" s="74">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="107"/>
+      <c r="L12" s="106"/>
       <c r="M12" s="1"/>
       <c r="N12" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="O12" s="84" t="s">
-        <v>182</v>
+      <c r="O12" s="83" t="s">
+        <v>180</v>
       </c>
       <c r="P12" s="82" t="s">
         <v>173</v>
@@ -16946,9 +16999,9 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="82"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -16966,31 +17019,31 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="103"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="74">
         <v>0</v>
       </c>
-      <c r="L13" s="108"/>
+      <c r="L13" s="107"/>
       <c r="M13" s="1"/>
       <c r="N13" s="82" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
-      <c r="O13" s="84" t="s">
-        <v>176</v>
+      <c r="O13" s="83" t="s">
+        <v>194</v>
       </c>
       <c r="P13" s="82" t="s">
         <v>173</v>
@@ -16998,9 +17051,9 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="82"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -17069,11 +17122,11 @@
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P15" s="81">
         <f>SUM(K8:K13)/6</f>
-        <v>0.61222222222222233</v>
+        <v>0.66222222222222227</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -17111,8 +17164,13 @@
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="1"/>
+      <c r="O16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="81">
+        <f>SUM(L8:L10)/3</f>
+        <v>0.71333333333333337</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -24742,17 +24800,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="71"/>
       <c r="M2" s="71"/>
       <c r="N2" s="71"/>
@@ -24782,15 +24840,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
@@ -24991,16 +25049,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="65" t="s">
         <v>106</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -25045,14 +25103,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="102"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="65" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25093,14 +25151,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="102"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="65" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25141,14 +25199,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="102"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="80" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25189,14 +25247,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="102"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="65" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25235,14 +25293,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="103"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="65" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -32934,7 +32992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -32987,18 +33045,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -33022,16 +33080,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33212,16 +33270,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="100" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33261,12 +33319,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33302,16 +33360,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="100" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33353,12 +33411,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33394,14 +33452,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="102"/>
-      <c r="C12" s="101" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="100" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33437,12 +33495,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33478,12 +33536,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33513,14 +33571,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="102"/>
-      <c r="C15" s="101" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="100" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="105"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33556,12 +33614,12 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="109"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -33597,7 +33655,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="100" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="65" t="s">
@@ -33606,7 +33664,7 @@
       <c r="D17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="103" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
@@ -33619,7 +33677,7 @@
       <c r="K17" s="74">
         <v>0</v>
       </c>
-      <c r="L17" s="110" t="s">
+      <c r="L17" s="109" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33644,14 +33702,14 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="103"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="65" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="105"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -33662,7 +33720,7 @@
       <c r="K18" s="74">
         <v>0</v>
       </c>
-      <c r="L18" s="111"/>
+      <c r="L18" s="110"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33694,7 +33752,7 @@
       <c r="D19" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -33705,7 +33763,7 @@
       <c r="K19" s="74">
         <v>0</v>
       </c>
-      <c r="L19" s="112"/>
+      <c r="L19" s="111"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41174,17 +41232,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41198,15 +41256,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="71"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41327,7 +41385,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -41336,7 +41394,7 @@
       <c r="D8" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41361,14 +41419,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="102"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="65" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41389,14 +41447,14 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="65" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41417,14 +41475,14 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="102"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="65" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41445,14 +41503,14 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="102"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="65" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41473,14 +41531,14 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="103"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="65" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46555,17 +46613,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="97"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="71"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46590,15 +46648,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="71"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="71"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46780,7 +46838,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="65" t="s">
@@ -46789,7 +46847,7 @@
       <c r="D8" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="103" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46802,10 +46860,10 @@
         <v>169</v>
       </c>
       <c r="K8" s="72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
@@ -46835,14 +46893,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="102"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="65" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -46851,10 +46909,10 @@
         <v>169</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L9" s="72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
@@ -46878,14 +46936,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="65" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -46894,10 +46952,10 @@
         <v>169</v>
       </c>
       <c r="K10" s="72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L10" s="72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
@@ -46921,14 +46979,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="103"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="65" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -46937,10 +46995,10 @@
         <v>169</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
@@ -46964,7 +47022,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="100" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="65" t="s">
@@ -46973,7 +47031,7 @@
       <c r="D12" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="103" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46984,7 +47042,7 @@
         <v>169</v>
       </c>
       <c r="K12" s="72"/>
-      <c r="L12" s="113" t="s">
+      <c r="L12" s="112" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -47009,14 +47067,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="102"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="65" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="105"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -47025,7 +47083,7 @@
         <v>169</v>
       </c>
       <c r="K13" s="72"/>
-      <c r="L13" s="114"/>
+      <c r="L13" s="113"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -47054,14 +47112,14 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="103"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="65" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="109"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -47070,7 +47128,7 @@
         <v>169</v>
       </c>
       <c r="K14" s="72"/>
-      <c r="L14" s="115"/>
+      <c r="L14" s="114"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\fun_funding\4. 진행현황\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -26,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$B$15:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 형준'!$B$7:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -788,7 +783,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1030,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1474,6 +1477,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1482,7 +1522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1636,9 +1676,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,6 +1859,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2048,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2087,15 +2139,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2103,13 +2155,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="93"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2161,15 +2213,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2177,25 +2229,25 @@
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24" ht="31.5" customHeight="1">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="59" t="s">
         <v>35</v>
       </c>
       <c r="U8" s="21"/>
@@ -2355,22 +2407,22 @@
       <c r="X14" s="21"/>
     </row>
     <row r="15" spans="1:24" ht="32.25" customHeight="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="61" t="s">
         <v>66</v>
       </c>
       <c r="H15" s="21"/>
@@ -2391,7 +2443,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2404,10 +2456,10 @@
         <v>31</v>
       </c>
       <c r="F16" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -2427,7 +2479,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="84"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2438,10 +2490,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G17" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -2461,7 +2513,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="84"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2472,10 +2524,10 @@
         <v>31</v>
       </c>
       <c r="F18" s="33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G18" s="51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -2495,7 +2547,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="84"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2529,7 +2581,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="84"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2563,7 +2615,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="84"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2574,10 +2626,10 @@
         <v>31</v>
       </c>
       <c r="F21" s="33">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="51">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H21" s="21"/>
       <c r="T21" s="21"/>
@@ -2586,7 +2638,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="84"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2597,10 +2649,10 @@
         <v>31</v>
       </c>
       <c r="F22" s="33">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="51">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H22" s="21"/>
       <c r="T22" s="21"/>
@@ -2609,7 +2661,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="84" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2624,8 +2676,8 @@
       <c r="F23" s="33">
         <v>0</v>
       </c>
-      <c r="G23" s="51">
-        <v>0</v>
+      <c r="G23" s="116" t="s">
+        <v>199</v>
       </c>
       <c r="H23" s="21"/>
       <c r="T23" s="21"/>
@@ -2634,7 +2686,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="85"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2647,9 +2699,7 @@
       <c r="F24" s="33">
         <v>0</v>
       </c>
-      <c r="G24" s="51">
-        <v>0</v>
-      </c>
+      <c r="G24" s="117"/>
       <c r="H24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -2657,7 +2707,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="85"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2670,9 +2720,7 @@
       <c r="F25" s="33">
         <v>0</v>
       </c>
-      <c r="G25" s="51">
-        <v>0</v>
-      </c>
+      <c r="G25" s="117"/>
       <c r="H25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -2680,7 +2728,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="85"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2693,9 +2741,7 @@
       <c r="F26" s="33">
         <v>0</v>
       </c>
-      <c r="G26" s="51">
-        <v>0</v>
-      </c>
+      <c r="G26" s="117"/>
       <c r="H26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -2703,7 +2749,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="85"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2716,9 +2762,7 @@
       <c r="F27" s="33">
         <v>0.66</v>
       </c>
-      <c r="G27" s="51" t="s">
-        <v>197</v>
-      </c>
+      <c r="G27" s="117"/>
       <c r="H27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
@@ -2727,7 +2771,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -2740,9 +2784,7 @@
       <c r="F28" s="52">
         <v>0</v>
       </c>
-      <c r="G28" s="53">
-        <v>0</v>
-      </c>
+      <c r="G28" s="118"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -7963,11 +8005,12 @@
     <row r="960" ht="15.75" customHeight="1"/>
     <row r="961" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B2:H3"/>
+    <mergeCell ref="G23:G28"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -7979,8 +8022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ959"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -8043,22 +8086,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -8082,21 +8125,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -8238,16 +8281,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -8256,13 +8299,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -8292,16 +8335,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8310,13 +8353,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="73">
         <v>1</v>
       </c>
-      <c r="L8" s="74"/>
+      <c r="L8" s="73" t="s">
+        <v>197</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -8344,25 +8389,27 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="100" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="73">
         <v>0.3</v>
       </c>
-      <c r="L9" s="74"/>
+      <c r="L9" s="114" t="s">
+        <v>197</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -8390,21 +8437,23 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="68" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <v>1</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
+      <c r="K10" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="115"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -8432,23 +8481,27 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="100" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>1</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
+      <c r="K11" s="73">
+        <v>1</v>
+      </c>
+      <c r="L11" s="73">
+        <v>0.8</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -8476,21 +8529,25 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="69" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>197</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -8518,21 +8575,25 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="L13" s="73">
+        <v>0.5</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -8560,23 +8621,27 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="100" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="74">
+      <c r="J14" s="73">
         <v>1</v>
       </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
+      <c r="K14" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="114" t="s">
+        <v>197</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -8604,21 +8669,23 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="68" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="104"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="74">
+      <c r="J15" s="73">
         <v>1</v>
       </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
+      <c r="K15" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="115"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -8646,23 +8713,27 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="74">
+      <c r="J16" s="73">
         <v>1</v>
       </c>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
+      <c r="K16" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="73">
+        <v>0.6</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -8690,27 +8761,29 @@
     </row>
     <row r="17" spans="1:36" ht="33.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="76" t="s">
         <v>84</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="74">
+      <c r="J17" s="73">
         <v>1</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75" t="s">
+      <c r="K17" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="74" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="1"/>
@@ -16378,7 +16451,9 @@
     <row r="958" ht="15.75" customHeight="1"/>
     <row r="959" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="E8:E16"/>
@@ -16396,7 +16471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -16458,22 +16533,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -16497,21 +16572,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -16657,16 +16732,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -16675,23 +16750,23 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="P7" s="79" t="s">
+      <c r="P7" s="78" t="s">
         <v>172</v>
       </c>
       <c r="Q7" s="1"/>
@@ -16700,10 +16775,10 @@
       <c r="T7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="78" t="s">
+      <c r="U7" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="V7" s="79" t="s">
+      <c r="V7" s="78" t="s">
         <v>172</v>
       </c>
       <c r="W7" s="1"/>
@@ -16723,16 +16798,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16741,35 +16816,35 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="73">
         <v>0.3</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="73">
         <v>0.3</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="O8" s="82" t="s">
+      <c r="O8" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="81" t="s">
         <v>173</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="82" t="s">
+      <c r="U8" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="V8" s="82" t="s">
+      <c r="V8" s="81" t="s">
         <v>173</v>
       </c>
       <c r="W8" s="1"/>
@@ -16789,47 +16864,47 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="73">
         <v>0.92</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="73">
         <v>0.92</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="82" t="s">
+      <c r="P9" s="81" t="s">
         <v>173</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="82" t="s">
+      <c r="T9" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="U9" s="83" t="s">
+      <c r="U9" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="V9" s="82" t="s">
+      <c r="V9" s="81" t="s">
         <v>173</v>
       </c>
       <c r="W9" s="1"/>
@@ -16849,47 +16924,47 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="107"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <v>1</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="73">
         <v>0.92</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="73">
         <v>0.92</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="82" t="s">
+      <c r="P10" s="81" t="s">
         <v>173</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="82" t="s">
+      <c r="T10" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="U10" s="83" t="s">
+      <c r="U10" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="V10" s="82" t="s">
+      <c r="V10" s="81" t="s">
         <v>173</v>
       </c>
       <c r="W10" s="1"/>
@@ -16909,47 +16984,47 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="102" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>1</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="73">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="105" t="s">
+      <c r="L11" s="104" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="P11" s="82" t="s">
+      <c r="P11" s="81" t="s">
         <v>173</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="82"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="81"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -16967,41 +17042,41 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="73">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="106"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="82" t="s">
+      <c r="P12" s="81" t="s">
         <v>173</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="82"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="81"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -17019,41 +17094,41 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="73">
         <v>0</v>
       </c>
-      <c r="L13" s="107"/>
+      <c r="L13" s="106"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="O13" s="83" t="s">
+      <c r="O13" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="P13" s="82" t="s">
+      <c r="P13" s="81" t="s">
         <v>173</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="82"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="81"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -17124,7 +17199,7 @@
       <c r="O15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="P15" s="81">
+      <c r="P15" s="80">
         <f>SUM(K8:K13)/6</f>
         <v>0.66222222222222227</v>
       </c>
@@ -17167,7 +17242,7 @@
       <c r="O16" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P16" s="81">
+      <c r="P16" s="80">
         <f>SUM(L8:L10)/3</f>
         <v>0.71333333333333337</v>
       </c>
@@ -24800,22 +24875,22 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="1"/>
@@ -24839,21 +24914,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
       <c r="S3" s="1"/>
@@ -24995,16 +25070,16 @@
     </row>
     <row r="7" spans="1:36" ht="27" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -25013,13 +25088,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="2"/>
@@ -25049,16 +25124,16 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -25067,13 +25142,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="73">
         <v>0.9</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="73">
         <v>0.6</v>
       </c>
       <c r="M8" s="2"/>
@@ -25103,25 +25178,25 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="73">
         <v>0.7</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="73">
         <v>0.25</v>
       </c>
       <c r="M9" s="1"/>
@@ -25151,25 +25226,25 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <v>1</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="73">
         <v>1</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="73">
         <v>0.5</v>
       </c>
       <c r="M10" s="1"/>
@@ -25199,25 +25274,25 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>1</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="73">
         <v>0.2</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="73">
         <v>0.25</v>
       </c>
       <c r="M11" s="1"/>
@@ -25247,25 +25322,25 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="73">
         <v>0.5</v>
       </c>
-      <c r="L12" s="72"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -25293,25 +25368,25 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="73">
         <v>0.1</v>
       </c>
-      <c r="L13" s="72"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -32993,7 +33068,7 @@
   <dimension ref="B1:AF990"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J12" activeCellId="1" sqref="D12 J12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33045,18 +33120,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -33079,17 +33154,17 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33215,16 +33290,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="72" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -33233,13 +33308,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -33270,16 +33345,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33288,13 +33363,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>1</v>
       </c>
-      <c r="K8" s="74">
+      <c r="K8" s="73">
         <v>0.8</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="73">
         <v>1</v>
       </c>
       <c r="M8" s="3"/>
@@ -33319,23 +33394,23 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="68" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>1</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="73">
         <v>0.4</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="73">
         <v>0</v>
       </c>
       <c r="M9" s="3"/>
@@ -33360,27 +33435,27 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <v>1</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="73">
         <v>1</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="73">
         <v>1</v>
       </c>
       <c r="M10" s="5">
@@ -33411,23 +33486,23 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="68" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>0</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="73">
         <v>0</v>
       </c>
-      <c r="L11" s="74">
+      <c r="L11" s="73">
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
@@ -33452,25 +33527,25 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="101"/>
-      <c r="C12" s="100" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="73">
         <v>0</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="73">
         <v>0</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="73">
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
@@ -33495,23 +33570,23 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="69" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="73">
         <v>1</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="73">
         <v>1</v>
       </c>
       <c r="M13" s="5"/>
@@ -33536,19 +33611,19 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="68" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
       <c r="O14" s="3"/>
@@ -33571,25 +33646,25 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="101"/>
-      <c r="C15" s="100" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="104"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="74">
+      <c r="J15" s="73">
         <v>1</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="73">
         <v>1</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="73">
         <v>1</v>
       </c>
       <c r="M15" s="5"/>
@@ -33614,23 +33689,23 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="68" t="s">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="107"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="74">
+      <c r="J16" s="73">
         <v>1</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K16" s="73">
         <v>0.5</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="73">
         <v>1</v>
       </c>
       <c r="M16" s="5"/>
@@ -33655,29 +33730,29 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="102" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="74">
+      <c r="J17" s="73">
         <v>1</v>
       </c>
-      <c r="K17" s="74">
+      <c r="K17" s="73">
         <v>0</v>
       </c>
-      <c r="L17" s="109" t="s">
+      <c r="L17" s="108" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33702,25 +33777,25 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="102"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="103"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="74">
+      <c r="J18" s="73">
         <v>1</v>
       </c>
-      <c r="K18" s="74">
+      <c r="K18" s="73">
         <v>0</v>
       </c>
-      <c r="L18" s="110"/>
+      <c r="L18" s="109"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33743,27 +33818,27 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="108"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="74">
+      <c r="J19" s="73">
         <v>1</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="73">
         <v>0</v>
       </c>
-      <c r="L19" s="111"/>
+      <c r="L19" s="110"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41192,8 +41267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U977"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41232,18 +41307,18 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -41255,17 +41330,17 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -41347,16 +41422,16 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="2:21" ht="36" customHeight="1">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -41365,13 +41440,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="1"/>
@@ -41385,16 +41460,16 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41403,11 +41478,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="73">
         <v>1</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
+      <c r="K8" s="73">
+        <v>0</v>
+      </c>
+      <c r="L8" s="73">
+        <v>0</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -41419,23 +41498,27 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="101"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="74">
+      <c r="J9" s="73">
         <v>1</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
+      <c r="K9" s="73">
+        <v>0</v>
+      </c>
+      <c r="L9" s="73">
+        <v>0</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -41447,23 +41530,27 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="101"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="74">
+      <c r="J10" s="73">
         <v>1</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
+      <c r="K10" s="73">
+        <v>0</v>
+      </c>
+      <c r="L10" s="73">
+        <v>0</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -41475,23 +41562,27 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="101"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="103"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="74">
+      <c r="J11" s="73">
         <v>1</v>
       </c>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
+      <c r="K11" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="73">
+        <v>0.1</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -41503,23 +41594,27 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="101"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="74">
+      <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="K12" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="73">
+        <v>0.3</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -41531,23 +41626,27 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="74">
+      <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="K13" s="73">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="73">
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -46613,18 +46712,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -46647,17 +46746,17 @@
       <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B3" s="71"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -46783,16 +46882,16 @@
       <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="2:32" ht="27.75" customHeight="1">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -46801,13 +46900,13 @@
       <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="69" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="12" t="s">
@@ -46838,16 +46937,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="102" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46856,13 +46955,13 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="73" t="s">
         <v>177</v>
       </c>
       <c r="M8" s="3">
@@ -46893,25 +46992,25 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="101"/>
-      <c r="C9" s="65" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="103"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="71" t="s">
         <v>185</v>
       </c>
       <c r="M9" s="3"/>
@@ -46936,25 +47035,25 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="101"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="103"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="71" t="s">
         <v>187</v>
       </c>
       <c r="M10" s="3"/>
@@ -46979,25 +47078,25 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="102"/>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="71" t="s">
         <v>186</v>
       </c>
       <c r="M11" s="3"/>
@@ -47022,27 +47121,27 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="102" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="112" t="s">
+      <c r="K12" s="71"/>
+      <c r="L12" s="111" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -47067,23 +47166,23 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="101"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="104"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="72"/>
-      <c r="L13" s="113"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="112"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -47112,23 +47211,23 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="102"/>
-      <c r="C14" s="65" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="107"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="114"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="5"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$B$15:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 형준'!$B$7:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -727,10 +732,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>90%완료</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -792,6 +793,10 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1798,6 +1803,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,21 +1879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2676,8 +2681,8 @@
       <c r="F23" s="33">
         <v>0</v>
       </c>
-      <c r="G23" s="116" t="s">
-        <v>199</v>
+      <c r="G23" s="93" t="s">
+        <v>198</v>
       </c>
       <c r="H23" s="21"/>
       <c r="T23" s="21"/>
@@ -2699,7 +2704,7 @@
       <c r="F24" s="33">
         <v>0</v>
       </c>
-      <c r="G24" s="117"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -2720,7 +2725,7 @@
       <c r="F25" s="33">
         <v>0</v>
       </c>
-      <c r="G25" s="117"/>
+      <c r="G25" s="94"/>
       <c r="H25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -2741,7 +2746,7 @@
       <c r="F26" s="33">
         <v>0</v>
       </c>
-      <c r="G26" s="117"/>
+      <c r="G26" s="94"/>
       <c r="H26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -2762,7 +2767,7 @@
       <c r="F27" s="33">
         <v>0.66</v>
       </c>
-      <c r="G27" s="117"/>
+      <c r="G27" s="94"/>
       <c r="H27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
@@ -2784,7 +2789,7 @@
       <c r="F28" s="52">
         <v>0</v>
       </c>
-      <c r="G28" s="118"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8086,17 +8091,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -8126,15 +8131,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -8335,7 +8340,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="104" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -8344,7 +8349,7 @@
       <c r="D8" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8360,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
@@ -8389,14 +8394,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="104" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -8407,8 +8412,8 @@
       <c r="K9" s="73">
         <v>0.3</v>
       </c>
-      <c r="L9" s="114" t="s">
-        <v>197</v>
+      <c r="L9" s="96" t="s">
+        <v>196</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -8437,12 +8442,12 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8451,9 +8456,9 @@
         <v>1</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
-      <c r="L10" s="115"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -8481,14 +8486,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="104" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -8529,12 +8534,12 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -8543,10 +8548,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
@@ -8575,12 +8580,12 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -8621,14 +8626,14 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="99" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="104" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="103"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8637,10 +8642,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
-      <c r="L14" s="114" t="s">
-        <v>197</v>
+      <c r="L14" s="96" t="s">
+        <v>196</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
@@ -8669,12 +8674,12 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -8685,7 +8690,7 @@
       <c r="K15" s="73">
         <v>0.3</v>
       </c>
-      <c r="L15" s="115"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -8713,14 +8718,14 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="101"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="64" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="103"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -8781,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L17" s="74" t="s">
         <v>88</v>
@@ -16533,17 +16538,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -16573,15 +16578,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -16704,7 +16709,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -16712,7 +16717,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -16798,7 +16803,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="104" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -16807,7 +16812,7 @@
       <c r="D8" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16827,10 +16832,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O8" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P8" s="81" t="s">
         <v>173</v>
@@ -16839,10 +16844,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U8" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V8" s="81" t="s">
         <v>173</v>
@@ -16864,14 +16869,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="100"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16924,14 +16929,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="101"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="64" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="107"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -16984,7 +16989,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="104" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -16993,7 +16998,7 @@
       <c r="D11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="107" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -17006,7 +17011,7 @@
       <c r="K11" s="73">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="109" t="s">
         <v>88</v>
       </c>
       <c r="M11" s="1"/>
@@ -17042,14 +17047,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="100"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="64" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -17060,7 +17065,7 @@
       <c r="K12" s="73">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="105"/>
+      <c r="L12" s="110"/>
       <c r="M12" s="1"/>
       <c r="N12" s="81" t="s">
         <v>174</v>
@@ -17094,14 +17099,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="101"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="64" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -17112,13 +17117,13 @@
       <c r="K13" s="73">
         <v>0</v>
       </c>
-      <c r="L13" s="106"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="1"/>
       <c r="N13" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O13" s="82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P13" s="81" t="s">
         <v>173</v>
@@ -17240,7 +17245,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P16" s="80">
         <f>SUM(L8:L10)/3</f>
@@ -24875,17 +24880,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -24915,15 +24920,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -25124,7 +25129,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="104" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -25133,7 +25138,7 @@
       <c r="D8" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -25178,14 +25183,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="100"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="64" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25226,14 +25231,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="100"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="64" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25274,14 +25279,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="100"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="79" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25322,14 +25327,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="100"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="64" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25368,14 +25373,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="101"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="64" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33120,18 +33125,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -33155,16 +33160,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33345,16 +33350,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="104" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33394,12 +33399,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33435,16 +33440,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="104" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33486,12 +33491,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33527,14 +33532,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="100"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="105"/>
+      <c r="C12" s="104" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33570,12 +33575,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33611,12 +33616,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="103"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33646,14 +33651,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="100"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="105"/>
+      <c r="C15" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33689,12 +33694,12 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="107"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -33730,7 +33735,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="104" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="64" t="s">
@@ -33739,7 +33744,7 @@
       <c r="D17" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="107" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
@@ -33752,7 +33757,7 @@
       <c r="K17" s="73">
         <v>0</v>
       </c>
-      <c r="L17" s="108" t="s">
+      <c r="L17" s="113" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33777,14 +33782,14 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="101"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="64" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="103"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -33795,7 +33800,7 @@
       <c r="K18" s="73">
         <v>0</v>
       </c>
-      <c r="L18" s="109"/>
+      <c r="L18" s="114"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33827,7 +33832,7 @@
       <c r="D19" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="107"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -33838,7 +33843,7 @@
       <c r="K19" s="73">
         <v>0</v>
       </c>
-      <c r="L19" s="110"/>
+      <c r="L19" s="115"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -41267,7 +41272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -41307,17 +41312,17 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="19.5" customHeight="1">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="70"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -41331,15 +41336,15 @@
     </row>
     <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="70"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -41460,7 +41465,7 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="104" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -41469,7 +41474,7 @@
       <c r="D8" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41498,14 +41503,14 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B9" s="100"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="64" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41530,14 +41535,14 @@
       <c r="U9" s="1"/>
     </row>
     <row r="10" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B10" s="100"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="64" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41562,14 +41567,14 @@
       <c r="U10" s="1"/>
     </row>
     <row r="11" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B11" s="100"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="64" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="103"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41594,14 +41599,14 @@
       <c r="U11" s="1"/>
     </row>
     <row r="12" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B12" s="100"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="64" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="103"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41626,14 +41631,14 @@
       <c r="U12" s="1"/>
     </row>
     <row r="13" spans="2:21" ht="36" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="64" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="107"/>
+      <c r="E13" s="112"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46659,8 +46664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:L14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -46712,17 +46717,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="70"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46747,15 +46752,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="70"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46937,7 +46942,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="104" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -46946,7 +46951,7 @@
       <c r="D8" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="107" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46992,14 +46997,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="100"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="64" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="103"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -47011,7 +47016,7 @@
         <v>182</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
@@ -47035,14 +47040,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="100"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="64" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="103"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -47051,10 +47056,10 @@
         <v>169</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
@@ -47078,14 +47083,14 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="101"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="64" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="107"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -47094,10 +47099,10 @@
         <v>169</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L11" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
@@ -47121,7 +47126,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="104" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -47130,7 +47135,7 @@
       <c r="D12" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="102" t="s">
+      <c r="E12" s="107" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -47141,7 +47146,7 @@
         <v>169</v>
       </c>
       <c r="K12" s="71"/>
-      <c r="L12" s="111" t="s">
+      <c r="L12" s="116" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -47166,14 +47171,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="100"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="64" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="103"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -47182,7 +47187,7 @@
         <v>169</v>
       </c>
       <c r="K13" s="71"/>
-      <c r="L13" s="112"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -47211,14 +47216,14 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="64" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="107"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -47227,7 +47232,7 @@
         <v>169</v>
       </c>
       <c r="K14" s="71"/>
-      <c r="L14" s="113"/>
+      <c r="L14" s="118"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="6"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -732,10 +732,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>70%완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -793,6 +789,14 @@
   </si>
   <si>
     <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100%완료</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2105,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2597,7 +2601,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="33">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G20" s="51">
         <v>0.6</v>
@@ -2682,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="21"/>
       <c r="T23" s="21"/>
@@ -2744,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="F26" s="33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="94"/>
       <c r="H26" s="21"/>
@@ -8365,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
@@ -8413,7 +8417,7 @@
         <v>0.3</v>
       </c>
       <c r="L9" s="96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -8456,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L10" s="97"/>
       <c r="M10" s="1"/>
@@ -8548,10 +8552,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
@@ -8642,10 +8646,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L14" s="96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
@@ -8786,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L17" s="74" t="s">
         <v>88</v>
@@ -16709,7 +16713,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -16717,7 +16721,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -16832,10 +16836,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O8" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P8" s="81" t="s">
         <v>173</v>
@@ -16844,10 +16848,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U8" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V8" s="81" t="s">
         <v>173</v>
@@ -17120,10 +17124,10 @@
       <c r="L13" s="111"/>
       <c r="M13" s="1"/>
       <c r="N13" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O13" s="82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P13" s="81" t="s">
         <v>173</v>
@@ -17245,7 +17249,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P16" s="80">
         <f>SUM(L8:L10)/3</f>
@@ -46664,8 +46668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -47016,7 +47020,7 @@
         <v>182</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
@@ -47056,10 +47060,10 @@
         <v>169</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
@@ -47099,10 +47103,10 @@
         <v>169</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L11" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
@@ -47145,7 +47149,9 @@
       <c r="J12" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="71"/>
+      <c r="K12" s="71" t="s">
+        <v>200</v>
+      </c>
       <c r="L12" s="116" t="s">
         <v>88</v>
       </c>
@@ -47186,7 +47192,9 @@
       <c r="J13" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="71"/>
+      <c r="K13" s="71" t="s">
+        <v>200</v>
+      </c>
       <c r="L13" s="117"/>
       <c r="M13" s="3">
         <v>1</v>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\508-10\Pictures\fun_funding\4. 진행현황\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\funfun\fun_funding\4. 진행현황\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2567,10 +2567,10 @@
         <v>31</v>
       </c>
       <c r="F19" s="33">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G19" s="51">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -24820,8 +24820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ955"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -25155,10 +25155,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L8" s="73">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
@@ -25203,10 +25203,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="73">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L9" s="73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -25299,7 +25299,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="73">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="L11" s="73">
         <v>0.25</v>
@@ -25347,9 +25347,11 @@
         <v>1</v>
       </c>
       <c r="K12" s="73">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="73">
         <v>0.5</v>
       </c>
-      <c r="L12" s="71"/>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -25393,7 +25395,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="73">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L13" s="71"/>
       <c r="M13" s="1"/>

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\funfun\fun_funding\4. 진행현황\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -26,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$B$15:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 형준'!$B$7:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -712,10 +707,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>웹 전체 진행률</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>6/6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -801,6 +792,14 @@
   </si>
   <si>
     <t>100%완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1523,6 +1522,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1531,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1885,6 +1908,24 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -2109,7 +2150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -2686,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="21"/>
       <c r="T23" s="21"/>
@@ -8369,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="1"/>
@@ -8417,7 +8458,7 @@
         <v>0.3</v>
       </c>
       <c r="L9" s="96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
@@ -8460,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L10" s="97"/>
       <c r="M10" s="1"/>
@@ -8552,10 +8593,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="2"/>
@@ -8646,10 +8687,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L14" s="96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
@@ -8790,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L17" s="74" t="s">
         <v>88</v>
@@ -16478,10 +16519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ955"/>
+  <dimension ref="A1:AJ953"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16713,7 +16754,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -16721,7 +16762,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -16836,10 +16877,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O8" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P8" s="81" t="s">
         <v>173</v>
@@ -16848,10 +16889,10 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U8" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V8" s="81" t="s">
         <v>173</v>
@@ -16899,7 +16940,7 @@
         <v>174</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P9" s="81" t="s">
         <v>173</v>
@@ -16911,7 +16952,7 @@
         <v>174</v>
       </c>
       <c r="U9" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V9" s="81" t="s">
         <v>173</v>
@@ -16959,7 +17000,7 @@
         <v>174</v>
       </c>
       <c r="O10" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P10" s="81" t="s">
         <v>173</v>
@@ -16971,7 +17012,7 @@
         <v>174</v>
       </c>
       <c r="U10" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V10" s="81" t="s">
         <v>173</v>
@@ -17012,18 +17053,18 @@
       <c r="J11" s="73">
         <v>1</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="120">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="109" t="s">
-        <v>88</v>
+      <c r="L11" s="122" t="s">
+        <v>201</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="81" t="s">
         <v>174</v>
       </c>
       <c r="O11" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P11" s="81" t="s">
         <v>173</v>
@@ -17066,16 +17107,16 @@
       <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="120">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="110"/>
+      <c r="L12" s="122"/>
       <c r="M12" s="1"/>
       <c r="N12" s="81" t="s">
         <v>174</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P12" s="81" t="s">
         <v>173</v>
@@ -17110,7 +17151,7 @@
       <c r="D13" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -17118,16 +17159,16 @@
       <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="73">
+      <c r="K13" s="120">
         <v>0</v>
       </c>
-      <c r="L13" s="111"/>
+      <c r="L13" s="122"/>
       <c r="M13" s="1"/>
       <c r="N13" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O13" s="82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P13" s="81" t="s">
         <v>173</v>
@@ -17153,23 +17194,36 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="24.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="112"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P14" s="80">
+        <f>SUM(L8:L10)/3</f>
+        <v>0.71333333333333337</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -17202,16 +17256,12 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="P15" s="80">
-        <f>SUM(K8:K13)/6</f>
-        <v>0.66222222222222227</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -17248,13 +17298,8 @@
       <c r="L16" s="2"/>
       <c r="M16" s="1"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P16" s="80">
-        <f>SUM(L8:L10)/3</f>
-        <v>0.71333333333333337</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -23964,96 +24009,22 @@
       <c r="AI192" s="1"/>
       <c r="AJ192" s="1"/>
     </row>
-    <row r="193" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A193" s="1"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
-      <c r="S193" s="1"/>
-      <c r="T193" s="1"/>
-      <c r="U193" s="1"/>
-      <c r="V193" s="1"/>
-      <c r="W193" s="1"/>
-      <c r="X193" s="1"/>
-      <c r="Y193" s="1"/>
-      <c r="Z193" s="1"/>
-      <c r="AA193" s="1"/>
-      <c r="AB193" s="1"/>
-      <c r="AC193" s="1"/>
-      <c r="AD193" s="1"/>
-      <c r="AE193" s="1"/>
-      <c r="AF193" s="1"/>
-      <c r="AG193" s="1"/>
-      <c r="AH193" s="1"/>
-      <c r="AI193" s="1"/>
-      <c r="AJ193" s="1"/>
-    </row>
-    <row r="194" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-      <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
-      <c r="X194" s="1"/>
-      <c r="Y194" s="1"/>
-      <c r="Z194" s="1"/>
-      <c r="AA194" s="1"/>
-      <c r="AB194" s="1"/>
-      <c r="AC194" s="1"/>
-      <c r="AD194" s="1"/>
-      <c r="AE194" s="1"/>
-      <c r="AF194" s="1"/>
-      <c r="AG194" s="1"/>
-      <c r="AH194" s="1"/>
-      <c r="AI194" s="1"/>
-      <c r="AJ194" s="1"/>
-    </row>
-    <row r="195" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="196" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="197" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="198" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="199" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="200" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="201" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="202" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="203" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="204" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="205" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="206" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="207" spans="1:36" ht="15.75" customHeight="1"/>
-    <row r="208" spans="1:36" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
     <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
@@ -24799,16 +24770,14 @@
     <row r="951" ht="15.75" customHeight="1"/>
     <row r="952" ht="15.75" customHeight="1"/>
     <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="C2:K3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -24821,7 +24790,7 @@
   <dimension ref="A1:AJ955"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33078,8 +33047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" activeCellId="1" sqref="D12 J12:L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33760,8 +33729,8 @@
       <c r="J17" s="73">
         <v>1</v>
       </c>
-      <c r="K17" s="73">
-        <v>0</v>
+      <c r="K17" s="113" t="s">
+        <v>201</v>
       </c>
       <c r="L17" s="113" t="s">
         <v>88</v>
@@ -33803,9 +33772,7 @@
       <c r="J18" s="73">
         <v>1</v>
       </c>
-      <c r="K18" s="73">
-        <v>0</v>
-      </c>
+      <c r="K18" s="114"/>
       <c r="L18" s="114"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
@@ -33838,7 +33805,7 @@
       <c r="D19" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="112"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -33846,9 +33813,7 @@
       <c r="J19" s="73">
         <v>1</v>
       </c>
-      <c r="K19" s="73">
-        <v>0</v>
-      </c>
+      <c r="K19" s="115"/>
       <c r="L19" s="115"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
@@ -33871,19 +33836,31 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
     </row>
-    <row r="20" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+    <row r="20" spans="2:32" ht="28.5" customHeight="1">
+      <c r="B20" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="119" t="s">
+        <v>8</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="5">
+      <c r="J20" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="123" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" s="124"/>
+      <c r="M20" s="10">
         <v>1</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -33911,18 +33888,22 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="2:32" ht="32.25" customHeight="1">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="119"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="5"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="1"/>
@@ -33943,19 +33924,23 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+    <row r="22" spans="2:32" ht="24" customHeight="1">
+      <c r="B22" s="105"/>
+      <c r="C22" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="119"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="5"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="1"/>
@@ -33976,19 +33961,23 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+    <row r="23" spans="2:32" ht="24" customHeight="1">
+      <c r="B23" s="105"/>
+      <c r="C23" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="119"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="5"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="1"/>
@@ -34009,19 +33998,23 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
     </row>
-    <row r="24" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+    <row r="24" spans="2:32" ht="24" customHeight="1">
+      <c r="B24" s="105"/>
+      <c r="C24" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="119"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="5"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="1"/>
@@ -34042,19 +34035,23 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
     </row>
-    <row r="25" spans="2:32" ht="19.5" customHeight="1">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+    <row r="25" spans="2:32" ht="27" customHeight="1">
+      <c r="B25" s="106"/>
+      <c r="C25" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="119"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="5"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="1"/>
@@ -41255,7 +41252,11 @@
     <filterColumn colId="7" hiddenButton="1" showButton="0"/>
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="11">
+  <mergeCells count="16">
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="K20:K25"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="L17:L19"/>
@@ -41267,6 +41268,7 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="K17:K19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -41276,10 +41278,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U977"/>
+  <dimension ref="B1:T976"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41292,10 +41294,11 @@
     <col min="7" max="8" width="24.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="12" width="21.85546875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -41306,7 +41309,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -41315,9 +41318,8 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="2:21" ht="19.5" customHeight="1">
+    </row>
+    <row r="2" spans="2:20" ht="19.5" customHeight="1">
       <c r="C2" s="98" t="s">
         <v>152</v>
       </c>
@@ -41327,9 +41329,9 @@
       <c r="G2" s="99"/>
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="70"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -41338,9 +41340,8 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="2:21" ht="19.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="2:20" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
       <c r="C3" s="101"/>
       <c r="D3" s="102"/>
@@ -41349,9 +41350,9 @@
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
       <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="70"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -41360,9 +41361,8 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="2:21" ht="19.5" hidden="1" customHeight="1">
+    </row>
+    <row r="4" spans="2:20" ht="19.5" hidden="1" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -41373,7 +41373,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -41382,9 +41382,8 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="2:21" ht="50.25" hidden="1" customHeight="1">
+    </row>
+    <row r="5" spans="2:20" ht="50.25" hidden="1" customHeight="1">
       <c r="B5" s="8">
         <v>43860</v>
       </c>
@@ -41399,7 +41398,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -41408,9 +41407,8 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="2:21" ht="19.5" customHeight="1">
+    </row>
+    <row r="6" spans="2:20" ht="19.5" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -41421,7 +41419,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -41430,9 +41428,8 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="2:21" ht="36" customHeight="1">
+    </row>
+    <row r="7" spans="2:20" ht="36" customHeight="1">
       <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
@@ -41468,9 +41465,8 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="2:21" ht="33.75" customHeight="1">
+    </row>
+    <row r="8" spans="2:20" ht="33.75" customHeight="1">
       <c r="B8" s="104" t="s">
         <v>139</v>
       </c>
@@ -41493,10 +41489,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="73">
-        <v>0</v>
+        <v>0.9</v>
       </c>
-      <c r="L8" s="73">
-        <v>0</v>
+      <c r="L8" s="109" t="s">
+        <v>201</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -41506,9 +41502,8 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="2:21" ht="33.75" customHeight="1">
+    </row>
+    <row r="9" spans="2:20" ht="33.75" customHeight="1">
       <c r="B9" s="105"/>
       <c r="C9" s="64" t="s">
         <v>142</v>
@@ -41525,11 +41520,9 @@
         <v>1</v>
       </c>
       <c r="K9" s="73">
-        <v>0</v>
+        <v>0.9</v>
       </c>
-      <c r="L9" s="73">
-        <v>0</v>
-      </c>
+      <c r="L9" s="110"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -41538,9 +41531,8 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="2:21" ht="33.75" customHeight="1">
+    </row>
+    <row r="10" spans="2:20" ht="33.75" customHeight="1">
       <c r="B10" s="105"/>
       <c r="C10" s="64" t="s">
         <v>144</v>
@@ -41557,11 +41549,9 @@
         <v>1</v>
       </c>
       <c r="K10" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="L10" s="73">
-        <v>0</v>
-      </c>
+      <c r="L10" s="110"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -41570,9 +41560,8 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="2:21" ht="33.75" customHeight="1">
+    </row>
+    <row r="11" spans="2:20" ht="33.75" customHeight="1">
       <c r="B11" s="105"/>
       <c r="C11" s="64" t="s">
         <v>146</v>
@@ -41589,11 +41578,9 @@
         <v>1</v>
       </c>
       <c r="K11" s="73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
-      <c r="L11" s="73">
-        <v>0.1</v>
-      </c>
+      <c r="L11" s="110"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -41602,9 +41589,8 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="2:21" ht="33.75" customHeight="1">
+    </row>
+    <row r="12" spans="2:20" ht="33.75" customHeight="1">
       <c r="B12" s="105"/>
       <c r="C12" s="64" t="s">
         <v>148</v>
@@ -41621,11 +41607,9 @@
         <v>1</v>
       </c>
       <c r="K12" s="73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
-      <c r="L12" s="73">
-        <v>0.3</v>
-      </c>
+      <c r="L12" s="110"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -41634,9 +41618,8 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="2:21" ht="36" customHeight="1">
+    </row>
+    <row r="13" spans="2:20" ht="36" customHeight="1">
       <c r="B13" s="106"/>
       <c r="C13" s="64" t="s">
         <v>150</v>
@@ -41644,7 +41627,7 @@
       <c r="D13" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -41653,11 +41636,9 @@
         <v>1</v>
       </c>
       <c r="K13" s="73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
-      <c r="L13" s="73">
-        <v>0</v>
-      </c>
+      <c r="L13" s="110"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -41666,20 +41647,31 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" ht="29.25" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    </row>
+    <row r="14" spans="2:20" ht="29.25" customHeight="1">
+      <c r="B14" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>134</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="73">
+        <v>0</v>
+      </c>
+      <c r="L14" s="110"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -41688,20 +41680,27 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" ht="29.25" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    </row>
+    <row r="15" spans="2:20" ht="29.25" customHeight="1">
+      <c r="B15" s="106"/>
+      <c r="C15" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="119"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="J15" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="K15" s="73">
+        <v>0</v>
+      </c>
+      <c r="L15" s="111"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -41710,9 +41709,8 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" ht="29.25" customHeight="1">
+    </row>
+    <row r="16" spans="2:20" ht="29.25" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -41723,7 +41721,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -41732,9 +41730,8 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="2:21" ht="29.25" customHeight="1">
+    </row>
+    <row r="17" spans="2:20" ht="45.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -41745,7 +41742,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -41754,9 +41751,8 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" ht="45.75" customHeight="1">
+    </row>
+    <row r="18" spans="2:20" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -41767,7 +41763,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -41776,9 +41772,8 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="19" spans="2:20" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -41789,7 +41784,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -41798,9 +41793,8 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="20" spans="2:20" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -41811,7 +41805,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -41820,9 +41814,8 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="21" spans="2:20" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -41833,7 +41826,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -41842,9 +41835,8 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="22" spans="2:20" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -41855,7 +41847,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -41864,9 +41856,8 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="23" spans="2:20" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -41877,7 +41868,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -41886,9 +41877,8 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="24" spans="2:20" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -41899,7 +41889,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -41908,9 +41898,8 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="25" spans="2:20" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -41921,7 +41910,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -41930,9 +41919,8 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="26" spans="2:20" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -41943,7 +41931,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -41952,9 +41940,8 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="2:20" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -41965,7 +41952,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -41974,9 +41961,8 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="28" spans="2:20" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -41987,7 +41973,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -41996,9 +41982,8 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="29" spans="2:20" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -42009,7 +41994,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -42018,9 +42003,8 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="30" spans="2:20" ht="15.75" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -42031,7 +42015,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -42040,9 +42024,8 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="31" spans="2:20" ht="15.75" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -42053,7 +42036,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -42062,9 +42045,8 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="32" spans="2:20" ht="15.75" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -42075,7 +42057,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -42084,9 +42066,8 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="33" spans="2:20" ht="15.75" customHeight="1">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -42097,7 +42078,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -42106,9 +42087,8 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="34" spans="2:20" ht="15.75" customHeight="1">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -42119,7 +42099,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -42128,9 +42108,8 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="35" spans="2:20" ht="15.75" customHeight="1">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -42141,7 +42120,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -42150,9 +42129,8 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="36" spans="2:20" ht="15.75" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -42163,7 +42141,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -42172,9 +42150,8 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="37" spans="2:20" ht="15.75" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -42185,7 +42162,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -42194,9 +42171,8 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="38" spans="2:20" ht="15.75" customHeight="1">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -42207,7 +42183,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -42216,9 +42192,8 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="39" spans="2:20" ht="15.75" customHeight="1">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -42229,7 +42204,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -42238,9 +42213,8 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="40" spans="2:20" ht="15.75" customHeight="1">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -42251,7 +42225,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -42260,9 +42234,8 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="41" spans="2:20" ht="15.75" customHeight="1">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -42273,7 +42246,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -42282,9 +42255,8 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="42" spans="2:20" ht="15.75" customHeight="1">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -42295,7 +42267,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -42304,9 +42276,8 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="43" spans="2:20" ht="15.75" customHeight="1">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -42317,7 +42288,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -42326,9 +42297,8 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="44" spans="2:20" ht="15.75" customHeight="1">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -42339,7 +42309,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -42348,9 +42318,8 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="45" spans="2:20" ht="15.75" customHeight="1">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -42361,7 +42330,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -42370,9 +42339,8 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="46" spans="2:20" ht="15.75" customHeight="1">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -42383,7 +42351,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -42392,9 +42360,8 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="47" spans="2:20" ht="15.75" customHeight="1">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -42405,7 +42372,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -42414,9 +42381,8 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="48" spans="2:20" ht="15.75" customHeight="1">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -42427,7 +42393,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -42436,9 +42402,8 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="49" spans="2:20" ht="15.75" customHeight="1">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -42449,7 +42414,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -42458,9 +42423,8 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="50" spans="2:20" ht="15.75" customHeight="1">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -42471,7 +42435,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -42480,9 +42444,8 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="51" spans="2:20" ht="15.75" customHeight="1">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -42493,7 +42456,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -42502,9 +42465,8 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="52" spans="2:20" ht="15.75" customHeight="1">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -42515,7 +42477,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -42524,9 +42486,8 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="53" spans="2:20" ht="15.75" customHeight="1">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -42537,7 +42498,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -42546,9 +42507,8 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="54" spans="2:20" ht="15.75" customHeight="1">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -42559,7 +42519,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="1"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -42568,9 +42528,8 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="55" spans="2:20" ht="15.75" customHeight="1">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -42581,7 +42540,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="1"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -42590,9 +42549,8 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="56" spans="2:20" ht="15.75" customHeight="1">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -42603,7 +42561,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="1"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -42612,9 +42570,8 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="57" spans="2:20" ht="15.75" customHeight="1">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -42625,7 +42582,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="1"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -42634,9 +42591,8 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="58" spans="2:20" ht="15.75" customHeight="1">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -42647,7 +42603,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="1"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -42656,9 +42612,8 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="59" spans="2:20" ht="15.75" customHeight="1">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -42669,7 +42624,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="1"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -42678,9 +42633,8 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="60" spans="2:20" ht="15.75" customHeight="1">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -42691,7 +42645,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="1"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -42700,9 +42654,8 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="61" spans="2:20" ht="15.75" customHeight="1">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -42713,7 +42666,7 @@
       <c r="I61" s="2"/>
       <c r="J61" s="1"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -42722,9 +42675,8 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="62" spans="2:20" ht="15.75" customHeight="1">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -42735,7 +42687,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="1"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -42744,9 +42696,8 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="63" spans="2:20" ht="15.75" customHeight="1">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -42757,7 +42708,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="1"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -42766,9 +42717,8 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="64" spans="2:20" ht="15.75" customHeight="1">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -42779,7 +42729,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="1"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -42788,9 +42738,8 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="65" spans="2:20" ht="15.75" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -42801,7 +42750,7 @@
       <c r="I65" s="2"/>
       <c r="J65" s="1"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -42810,9 +42759,8 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="66" spans="2:20" ht="15.75" customHeight="1">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -42823,7 +42771,7 @@
       <c r="I66" s="2"/>
       <c r="J66" s="1"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -42832,9 +42780,8 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="67" spans="2:20" ht="15.75" customHeight="1">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -42845,7 +42792,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="1"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -42854,9 +42801,8 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="68" spans="2:20" ht="15.75" customHeight="1">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -42867,7 +42813,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="1"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -42876,9 +42822,8 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="69" spans="2:20" ht="15.75" customHeight="1">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -42889,7 +42834,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="1"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -42898,9 +42843,8 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="70" spans="2:20" ht="15.75" customHeight="1">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -42911,7 +42855,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="1"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -42920,9 +42864,8 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="71" spans="2:20" ht="15.75" customHeight="1">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -42933,7 +42876,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="1"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
+      <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -42942,9 +42885,8 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="72" spans="2:20" ht="15.75" customHeight="1">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -42955,7 +42897,7 @@
       <c r="I72" s="2"/>
       <c r="J72" s="1"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
+      <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -42964,9 +42906,8 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="73" spans="2:20" ht="15.75" customHeight="1">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -42977,7 +42918,7 @@
       <c r="I73" s="2"/>
       <c r="J73" s="1"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
+      <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -42986,9 +42927,8 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="2:20" ht="15.75" customHeight="1">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -42999,7 +42939,7 @@
       <c r="I74" s="2"/>
       <c r="J74" s="1"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
@@ -43008,9 +42948,8 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="75" spans="2:20" ht="15.75" customHeight="1">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -43021,7 +42960,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="1"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
+      <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -43030,9 +42969,8 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="76" spans="2:20" ht="15.75" customHeight="1">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -43043,7 +42981,7 @@
       <c r="I76" s="2"/>
       <c r="J76" s="1"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
+      <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -43052,9 +42990,8 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="77" spans="2:20" ht="15.75" customHeight="1">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -43065,7 +43002,7 @@
       <c r="I77" s="2"/>
       <c r="J77" s="1"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -43074,9 +43011,8 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="78" spans="2:20" ht="15.75" customHeight="1">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -43087,7 +43023,7 @@
       <c r="I78" s="2"/>
       <c r="J78" s="1"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
+      <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -43096,9 +43032,8 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="79" spans="2:20" ht="15.75" customHeight="1">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -43109,7 +43044,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="1"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -43118,9 +43053,8 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="80" spans="2:20" ht="15.75" customHeight="1">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -43131,7 +43065,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="1"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
+      <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -43140,9 +43074,8 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="81" spans="2:20" ht="15.75" customHeight="1">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -43153,7 +43086,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="1"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -43162,9 +43095,8 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="82" spans="2:20" ht="15.75" customHeight="1">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -43175,7 +43107,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="1"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
+      <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -43184,9 +43116,8 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="2:20" ht="15.75" customHeight="1">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -43197,7 +43128,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="1"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
+      <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -43206,9 +43137,8 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-    </row>
-    <row r="84" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="84" spans="2:20" ht="15.75" customHeight="1">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -43219,7 +43149,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="1"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
+      <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -43228,9 +43158,8 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="85" spans="2:20" ht="15.75" customHeight="1">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -43241,7 +43170,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="1"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
+      <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -43250,9 +43179,8 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-    </row>
-    <row r="86" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="86" spans="2:20" ht="15.75" customHeight="1">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
@@ -43263,7 +43191,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="1"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
+      <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -43272,9 +43200,8 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="87" spans="2:20" ht="15.75" customHeight="1">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -43285,7 +43212,7 @@
       <c r="I87" s="2"/>
       <c r="J87" s="1"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
+      <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -43294,9 +43221,8 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-    </row>
-    <row r="88" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="88" spans="2:20" ht="15.75" customHeight="1">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
@@ -43307,7 +43233,7 @@
       <c r="I88" s="2"/>
       <c r="J88" s="1"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
+      <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -43316,9 +43242,8 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-    </row>
-    <row r="89" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="2:20" ht="15.75" customHeight="1">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="2"/>
@@ -43329,7 +43254,7 @@
       <c r="I89" s="2"/>
       <c r="J89" s="1"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -43338,9 +43263,8 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-    </row>
-    <row r="90" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="2:20" ht="15.75" customHeight="1">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
@@ -43351,7 +43275,7 @@
       <c r="I90" s="2"/>
       <c r="J90" s="1"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+      <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -43360,9 +43284,8 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-    </row>
-    <row r="91" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="91" spans="2:20" ht="15.75" customHeight="1">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -43373,7 +43296,7 @@
       <c r="I91" s="2"/>
       <c r="J91" s="1"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+      <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -43382,9 +43305,8 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-    </row>
-    <row r="92" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="92" spans="2:20" ht="15.75" customHeight="1">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -43395,7 +43317,7 @@
       <c r="I92" s="2"/>
       <c r="J92" s="1"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+      <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -43404,9 +43326,8 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-    </row>
-    <row r="93" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="93" spans="2:20" ht="15.75" customHeight="1">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -43417,7 +43338,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="1"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -43426,9 +43347,8 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-    </row>
-    <row r="94" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="94" spans="2:20" ht="15.75" customHeight="1">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
@@ -43439,7 +43359,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="1"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+      <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -43448,9 +43368,8 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-    </row>
-    <row r="95" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="95" spans="2:20" ht="15.75" customHeight="1">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -43461,7 +43380,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="1"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+      <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -43470,9 +43389,8 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-    </row>
-    <row r="96" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="96" spans="2:20" ht="15.75" customHeight="1">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -43483,7 +43401,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="1"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+      <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -43492,9 +43410,8 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-    </row>
-    <row r="97" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="97" spans="2:20" ht="15.75" customHeight="1">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
@@ -43505,7 +43422,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="1"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -43514,9 +43431,8 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-    </row>
-    <row r="98" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="98" spans="2:20" ht="15.75" customHeight="1">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
@@ -43527,7 +43443,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="1"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -43536,9 +43452,8 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-    </row>
-    <row r="99" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="99" spans="2:20" ht="15.75" customHeight="1">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
@@ -43549,7 +43464,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="1"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -43558,9 +43473,8 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-    </row>
-    <row r="100" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="100" spans="2:20" ht="15.75" customHeight="1">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2"/>
@@ -43571,7 +43485,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="1"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -43580,9 +43494,8 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-    </row>
-    <row r="101" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="101" spans="2:20" ht="15.75" customHeight="1">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -43593,7 +43506,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="1"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
@@ -43602,9 +43515,8 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-    </row>
-    <row r="102" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="102" spans="2:20" ht="15.75" customHeight="1">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2"/>
@@ -43615,7 +43527,7 @@
       <c r="I102" s="2"/>
       <c r="J102" s="1"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -43624,9 +43536,8 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-    </row>
-    <row r="103" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="103" spans="2:20" ht="15.75" customHeight="1">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2"/>
@@ -43637,7 +43548,7 @@
       <c r="I103" s="2"/>
       <c r="J103" s="1"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
@@ -43646,9 +43557,8 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-    </row>
-    <row r="104" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="104" spans="2:20" ht="15.75" customHeight="1">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2"/>
@@ -43659,7 +43569,7 @@
       <c r="I104" s="2"/>
       <c r="J104" s="1"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -43668,9 +43578,8 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-    </row>
-    <row r="105" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="105" spans="2:20" ht="15.75" customHeight="1">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2"/>
@@ -43681,7 +43590,7 @@
       <c r="I105" s="2"/>
       <c r="J105" s="1"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -43690,9 +43599,8 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-    </row>
-    <row r="106" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="106" spans="2:20" ht="15.75" customHeight="1">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="2"/>
@@ -43703,7 +43611,7 @@
       <c r="I106" s="2"/>
       <c r="J106" s="1"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -43712,9 +43620,8 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-    </row>
-    <row r="107" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="107" spans="2:20" ht="15.75" customHeight="1">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2"/>
@@ -43725,7 +43632,7 @@
       <c r="I107" s="2"/>
       <c r="J107" s="1"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
+      <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -43734,9 +43641,8 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-    </row>
-    <row r="108" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="108" spans="2:20" ht="15.75" customHeight="1">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="2"/>
@@ -43747,7 +43653,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="1"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
+      <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -43756,9 +43662,8 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-    </row>
-    <row r="109" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="109" spans="2:20" ht="15.75" customHeight="1">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="2"/>
@@ -43769,7 +43674,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="1"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
+      <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -43778,9 +43683,8 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-    </row>
-    <row r="110" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="110" spans="2:20" ht="15.75" customHeight="1">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="2"/>
@@ -43791,7 +43695,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="1"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
+      <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -43800,9 +43704,8 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-    </row>
-    <row r="111" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="111" spans="2:20" ht="15.75" customHeight="1">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2"/>
@@ -43813,7 +43716,7 @@
       <c r="I111" s="2"/>
       <c r="J111" s="1"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
@@ -43822,9 +43725,8 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-    </row>
-    <row r="112" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="112" spans="2:20" ht="15.75" customHeight="1">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2"/>
@@ -43835,7 +43737,7 @@
       <c r="I112" s="2"/>
       <c r="J112" s="1"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
+      <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
@@ -43844,9 +43746,8 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-    </row>
-    <row r="113" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="113" spans="2:20" ht="15.75" customHeight="1">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2"/>
@@ -43857,7 +43758,7 @@
       <c r="I113" s="2"/>
       <c r="J113" s="1"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
+      <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
@@ -43866,9 +43767,8 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-    </row>
-    <row r="114" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="114" spans="2:20" ht="15.75" customHeight="1">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="2"/>
@@ -43879,7 +43779,7 @@
       <c r="I114" s="2"/>
       <c r="J114" s="1"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
+      <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
@@ -43888,9 +43788,8 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-    </row>
-    <row r="115" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="115" spans="2:20" ht="15.75" customHeight="1">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2"/>
@@ -43901,7 +43800,7 @@
       <c r="I115" s="2"/>
       <c r="J115" s="1"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
+      <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
@@ -43910,9 +43809,8 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-    </row>
-    <row r="116" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="116" spans="2:20" ht="15.75" customHeight="1">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2"/>
@@ -43923,7 +43821,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="1"/>
       <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
+      <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
@@ -43932,9 +43830,8 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-    </row>
-    <row r="117" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="117" spans="2:20" ht="15.75" customHeight="1">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2"/>
@@ -43945,7 +43842,7 @@
       <c r="I117" s="2"/>
       <c r="J117" s="1"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
+      <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -43954,9 +43851,8 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-    </row>
-    <row r="118" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="118" spans="2:20" ht="15.75" customHeight="1">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="2"/>
@@ -43967,7 +43863,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="1"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
+      <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
@@ -43976,9 +43872,8 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-    </row>
-    <row r="119" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="119" spans="2:20" ht="15.75" customHeight="1">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2"/>
@@ -43989,7 +43884,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="1"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
+      <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
@@ -43998,9 +43893,8 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-    </row>
-    <row r="120" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="120" spans="2:20" ht="15.75" customHeight="1">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2"/>
@@ -44011,7 +43905,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="1"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
+      <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -44020,9 +43914,8 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-    </row>
-    <row r="121" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="121" spans="2:20" ht="15.75" customHeight="1">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="2"/>
@@ -44033,7 +43926,7 @@
       <c r="I121" s="2"/>
       <c r="J121" s="1"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
+      <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -44042,9 +43935,8 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-    </row>
-    <row r="122" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="122" spans="2:20" ht="15.75" customHeight="1">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2"/>
@@ -44055,7 +43947,7 @@
       <c r="I122" s="2"/>
       <c r="J122" s="1"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
@@ -44064,9 +43956,8 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-    </row>
-    <row r="123" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="123" spans="2:20" ht="15.75" customHeight="1">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2"/>
@@ -44077,7 +43968,7 @@
       <c r="I123" s="2"/>
       <c r="J123" s="1"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
+      <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
@@ -44086,9 +43977,8 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-    </row>
-    <row r="124" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="124" spans="2:20" ht="15.75" customHeight="1">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2"/>
@@ -44099,7 +43989,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="1"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
@@ -44108,9 +43998,8 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-    </row>
-    <row r="125" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="125" spans="2:20" ht="15.75" customHeight="1">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2"/>
@@ -44121,7 +44010,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="1"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
+      <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -44130,9 +44019,8 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-    </row>
-    <row r="126" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="126" spans="2:20" ht="15.75" customHeight="1">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2"/>
@@ -44143,7 +44031,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="1"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
+      <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
@@ -44152,9 +44040,8 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-    </row>
-    <row r="127" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="127" spans="2:20" ht="15.75" customHeight="1">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2"/>
@@ -44165,7 +44052,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="1"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
+      <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
@@ -44174,9 +44061,8 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-    </row>
-    <row r="128" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="128" spans="2:20" ht="15.75" customHeight="1">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2"/>
@@ -44187,7 +44073,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="1"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
+      <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -44196,9 +44082,8 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-    </row>
-    <row r="129" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="129" spans="2:20" ht="15.75" customHeight="1">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2"/>
@@ -44209,7 +44094,7 @@
       <c r="I129" s="2"/>
       <c r="J129" s="1"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
+      <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
@@ -44218,9 +44103,8 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-    </row>
-    <row r="130" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="130" spans="2:20" ht="15.75" customHeight="1">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2"/>
@@ -44231,7 +44115,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="1"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
+      <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
@@ -44240,9 +44124,8 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-    </row>
-    <row r="131" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="131" spans="2:20" ht="15.75" customHeight="1">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2"/>
@@ -44253,7 +44136,7 @@
       <c r="I131" s="2"/>
       <c r="J131" s="1"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
+      <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
@@ -44262,9 +44145,8 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-    </row>
-    <row r="132" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="132" spans="2:20" ht="15.75" customHeight="1">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="2"/>
@@ -44275,7 +44157,7 @@
       <c r="I132" s="2"/>
       <c r="J132" s="1"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
+      <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -44284,9 +44166,8 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-    </row>
-    <row r="133" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="133" spans="2:20" ht="15.75" customHeight="1">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2"/>
@@ -44297,7 +44178,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="1"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
+      <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
@@ -44306,9 +44187,8 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="134" spans="2:20" ht="15.75" customHeight="1">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="2"/>
@@ -44319,7 +44199,7 @@
       <c r="I134" s="2"/>
       <c r="J134" s="1"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
+      <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
@@ -44328,9 +44208,8 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-    </row>
-    <row r="135" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="135" spans="2:20" ht="15.75" customHeight="1">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="2"/>
@@ -44341,7 +44220,7 @@
       <c r="I135" s="2"/>
       <c r="J135" s="1"/>
       <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
+      <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
@@ -44350,9 +44229,8 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-    </row>
-    <row r="136" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="136" spans="2:20" ht="15.75" customHeight="1">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2"/>
@@ -44363,7 +44241,7 @@
       <c r="I136" s="2"/>
       <c r="J136" s="1"/>
       <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
+      <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
@@ -44372,9 +44250,8 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-    </row>
-    <row r="137" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="137" spans="2:20" ht="15.75" customHeight="1">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2"/>
@@ -44385,7 +44262,7 @@
       <c r="I137" s="2"/>
       <c r="J137" s="1"/>
       <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
+      <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
@@ -44394,9 +44271,8 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-    </row>
-    <row r="138" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="138" spans="2:20" ht="15.75" customHeight="1">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2"/>
@@ -44407,7 +44283,7 @@
       <c r="I138" s="2"/>
       <c r="J138" s="1"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
+      <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
@@ -44416,9 +44292,8 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-    </row>
-    <row r="139" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="139" spans="2:20" ht="15.75" customHeight="1">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="2"/>
@@ -44429,7 +44304,7 @@
       <c r="I139" s="2"/>
       <c r="J139" s="1"/>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -44438,9 +44313,8 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
-      <c r="U139" s="1"/>
-    </row>
-    <row r="140" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="140" spans="2:20" ht="15.75" customHeight="1">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="2"/>
@@ -44451,7 +44325,7 @@
       <c r="I140" s="2"/>
       <c r="J140" s="1"/>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
@@ -44460,9 +44334,8 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-    </row>
-    <row r="141" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="141" spans="2:20" ht="15.75" customHeight="1">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2"/>
@@ -44473,7 +44346,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="1"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
@@ -44482,9 +44355,8 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
-    </row>
-    <row r="142" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="142" spans="2:20" ht="15.75" customHeight="1">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="2"/>
@@ -44495,7 +44367,7 @@
       <c r="I142" s="2"/>
       <c r="J142" s="1"/>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
@@ -44504,9 +44376,8 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-    </row>
-    <row r="143" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="143" spans="2:20" ht="15.75" customHeight="1">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2"/>
@@ -44517,7 +44388,7 @@
       <c r="I143" s="2"/>
       <c r="J143" s="1"/>
       <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
+      <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
@@ -44526,9 +44397,8 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-    </row>
-    <row r="144" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="144" spans="2:20" ht="15.75" customHeight="1">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="2"/>
@@ -44539,7 +44409,7 @@
       <c r="I144" s="2"/>
       <c r="J144" s="1"/>
       <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
+      <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
@@ -44548,9 +44418,8 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-    </row>
-    <row r="145" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="145" spans="2:20" ht="15.75" customHeight="1">
       <c r="B145" s="2"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2"/>
@@ -44561,7 +44430,7 @@
       <c r="I145" s="2"/>
       <c r="J145" s="1"/>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
+      <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -44570,9 +44439,8 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-    </row>
-    <row r="146" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="146" spans="2:20" ht="15.75" customHeight="1">
       <c r="B146" s="2"/>
       <c r="C146" s="1"/>
       <c r="D146" s="2"/>
@@ -44583,7 +44451,7 @@
       <c r="I146" s="2"/>
       <c r="J146" s="1"/>
       <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
+      <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -44592,9 +44460,8 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-    </row>
-    <row r="147" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="147" spans="2:20" ht="15.75" customHeight="1">
       <c r="B147" s="2"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2"/>
@@ -44605,7 +44472,7 @@
       <c r="I147" s="2"/>
       <c r="J147" s="1"/>
       <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
+      <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -44614,9 +44481,8 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-    </row>
-    <row r="148" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="148" spans="2:20" ht="15.75" customHeight="1">
       <c r="B148" s="2"/>
       <c r="C148" s="1"/>
       <c r="D148" s="2"/>
@@ -44627,7 +44493,7 @@
       <c r="I148" s="2"/>
       <c r="J148" s="1"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
+      <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -44636,9 +44502,8 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-    </row>
-    <row r="149" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="149" spans="2:20" ht="15.75" customHeight="1">
       <c r="B149" s="2"/>
       <c r="C149" s="1"/>
       <c r="D149" s="2"/>
@@ -44649,7 +44514,7 @@
       <c r="I149" s="2"/>
       <c r="J149" s="1"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
+      <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
@@ -44658,9 +44523,8 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-    </row>
-    <row r="150" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="150" spans="2:20" ht="15.75" customHeight="1">
       <c r="B150" s="2"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2"/>
@@ -44671,7 +44535,7 @@
       <c r="I150" s="2"/>
       <c r="J150" s="1"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
+      <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
@@ -44680,9 +44544,8 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-    </row>
-    <row r="151" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="151" spans="2:20" ht="15.75" customHeight="1">
       <c r="B151" s="2"/>
       <c r="C151" s="1"/>
       <c r="D151" s="2"/>
@@ -44693,7 +44556,7 @@
       <c r="I151" s="2"/>
       <c r="J151" s="1"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
+      <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
@@ -44702,9 +44565,8 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-    </row>
-    <row r="152" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="152" spans="2:20" ht="15.75" customHeight="1">
       <c r="B152" s="2"/>
       <c r="C152" s="1"/>
       <c r="D152" s="2"/>
@@ -44715,7 +44577,7 @@
       <c r="I152" s="2"/>
       <c r="J152" s="1"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+      <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
@@ -44724,9 +44586,8 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-    </row>
-    <row r="153" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="153" spans="2:20" ht="15.75" customHeight="1">
       <c r="B153" s="2"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2"/>
@@ -44737,7 +44598,7 @@
       <c r="I153" s="2"/>
       <c r="J153" s="1"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
+      <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
@@ -44746,9 +44607,8 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-    </row>
-    <row r="154" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="154" spans="2:20" ht="15.75" customHeight="1">
       <c r="B154" s="2"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2"/>
@@ -44759,7 +44619,7 @@
       <c r="I154" s="2"/>
       <c r="J154" s="1"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
+      <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
@@ -44768,9 +44628,8 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-    </row>
-    <row r="155" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="155" spans="2:20" ht="15.75" customHeight="1">
       <c r="B155" s="2"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2"/>
@@ -44781,7 +44640,7 @@
       <c r="I155" s="2"/>
       <c r="J155" s="1"/>
       <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
+      <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
@@ -44790,9 +44649,8 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-    </row>
-    <row r="156" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="156" spans="2:20" ht="15.75" customHeight="1">
       <c r="B156" s="2"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2"/>
@@ -44803,7 +44661,7 @@
       <c r="I156" s="2"/>
       <c r="J156" s="1"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -44812,9 +44670,8 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-    </row>
-    <row r="157" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="157" spans="2:20" ht="15.75" customHeight="1">
       <c r="B157" s="2"/>
       <c r="C157" s="1"/>
       <c r="D157" s="2"/>
@@ -44825,7 +44682,7 @@
       <c r="I157" s="2"/>
       <c r="J157" s="1"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
+      <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
@@ -44834,9 +44691,8 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-    </row>
-    <row r="158" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="158" spans="2:20" ht="15.75" customHeight="1">
       <c r="B158" s="2"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2"/>
@@ -44847,7 +44703,7 @@
       <c r="I158" s="2"/>
       <c r="J158" s="1"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
+      <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
@@ -44856,9 +44712,8 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-    </row>
-    <row r="159" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="159" spans="2:20" ht="15.75" customHeight="1">
       <c r="B159" s="2"/>
       <c r="C159" s="1"/>
       <c r="D159" s="2"/>
@@ -44869,7 +44724,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="1"/>
       <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+      <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
@@ -44878,9 +44733,8 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-    </row>
-    <row r="160" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="160" spans="2:20" ht="15.75" customHeight="1">
       <c r="B160" s="2"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2"/>
@@ -44891,7 +44745,7 @@
       <c r="I160" s="2"/>
       <c r="J160" s="1"/>
       <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
+      <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
@@ -44900,9 +44754,8 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-    </row>
-    <row r="161" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="161" spans="2:20" ht="15.75" customHeight="1">
       <c r="B161" s="2"/>
       <c r="C161" s="1"/>
       <c r="D161" s="2"/>
@@ -44913,7 +44766,7 @@
       <c r="I161" s="2"/>
       <c r="J161" s="1"/>
       <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
+      <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
@@ -44922,9 +44775,8 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-    </row>
-    <row r="162" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="162" spans="2:20" ht="15.75" customHeight="1">
       <c r="B162" s="2"/>
       <c r="C162" s="1"/>
       <c r="D162" s="2"/>
@@ -44935,7 +44787,7 @@
       <c r="I162" s="2"/>
       <c r="J162" s="1"/>
       <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
+      <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
@@ -44944,9 +44796,8 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-    </row>
-    <row r="163" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="163" spans="2:20" ht="15.75" customHeight="1">
       <c r="B163" s="2"/>
       <c r="C163" s="1"/>
       <c r="D163" s="2"/>
@@ -44957,7 +44808,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="1"/>
       <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
+      <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
@@ -44966,9 +44817,8 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-    </row>
-    <row r="164" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="164" spans="2:20" ht="15.75" customHeight="1">
       <c r="B164" s="2"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2"/>
@@ -44979,7 +44829,7 @@
       <c r="I164" s="2"/>
       <c r="J164" s="1"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
+      <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
@@ -44988,9 +44838,8 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-    </row>
-    <row r="165" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="165" spans="2:20" ht="15.75" customHeight="1">
       <c r="B165" s="2"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2"/>
@@ -45001,7 +44850,7 @@
       <c r="I165" s="2"/>
       <c r="J165" s="1"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
+      <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
@@ -45010,9 +44859,8 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-    </row>
-    <row r="166" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="166" spans="2:20" ht="15.75" customHeight="1">
       <c r="B166" s="2"/>
       <c r="C166" s="1"/>
       <c r="D166" s="2"/>
@@ -45023,7 +44871,7 @@
       <c r="I166" s="2"/>
       <c r="J166" s="1"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
+      <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
@@ -45032,9 +44880,8 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-    </row>
-    <row r="167" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="167" spans="2:20" ht="15.75" customHeight="1">
       <c r="B167" s="2"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2"/>
@@ -45045,7 +44892,7 @@
       <c r="I167" s="2"/>
       <c r="J167" s="1"/>
       <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
+      <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
@@ -45054,9 +44901,8 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-    </row>
-    <row r="168" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="168" spans="2:20" ht="15.75" customHeight="1">
       <c r="B168" s="2"/>
       <c r="C168" s="1"/>
       <c r="D168" s="2"/>
@@ -45067,7 +44913,7 @@
       <c r="I168" s="2"/>
       <c r="J168" s="1"/>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
+      <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
@@ -45076,9 +44922,8 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-    </row>
-    <row r="169" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="169" spans="2:20" ht="15.75" customHeight="1">
       <c r="B169" s="2"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2"/>
@@ -45089,7 +44934,7 @@
       <c r="I169" s="2"/>
       <c r="J169" s="1"/>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
+      <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
@@ -45098,9 +44943,8 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-    </row>
-    <row r="170" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="170" spans="2:20" ht="15.75" customHeight="1">
       <c r="B170" s="2"/>
       <c r="C170" s="1"/>
       <c r="D170" s="2"/>
@@ -45111,7 +44955,7 @@
       <c r="I170" s="2"/>
       <c r="J170" s="1"/>
       <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
+      <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
@@ -45120,9 +44964,8 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-    </row>
-    <row r="171" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="171" spans="2:20" ht="15.75" customHeight="1">
       <c r="B171" s="2"/>
       <c r="C171" s="1"/>
       <c r="D171" s="2"/>
@@ -45133,7 +44976,7 @@
       <c r="I171" s="2"/>
       <c r="J171" s="1"/>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
+      <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
@@ -45142,9 +44985,8 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-    </row>
-    <row r="172" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="172" spans="2:20" ht="15.75" customHeight="1">
       <c r="B172" s="2"/>
       <c r="C172" s="1"/>
       <c r="D172" s="2"/>
@@ -45155,7 +44997,7 @@
       <c r="I172" s="2"/>
       <c r="J172" s="1"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
+      <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
@@ -45164,9 +45006,8 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-    </row>
-    <row r="173" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="173" spans="2:20" ht="15.75" customHeight="1">
       <c r="B173" s="2"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2"/>
@@ -45177,7 +45018,7 @@
       <c r="I173" s="2"/>
       <c r="J173" s="1"/>
       <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
+      <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
@@ -45186,9 +45027,8 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-    </row>
-    <row r="174" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="174" spans="2:20" ht="15.75" customHeight="1">
       <c r="B174" s="2"/>
       <c r="C174" s="1"/>
       <c r="D174" s="2"/>
@@ -45199,7 +45039,7 @@
       <c r="I174" s="2"/>
       <c r="J174" s="1"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
+      <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
@@ -45208,9 +45048,8 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-    </row>
-    <row r="175" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="175" spans="2:20" ht="15.75" customHeight="1">
       <c r="B175" s="2"/>
       <c r="C175" s="1"/>
       <c r="D175" s="2"/>
@@ -45221,7 +45060,7 @@
       <c r="I175" s="2"/>
       <c r="J175" s="1"/>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
+      <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
@@ -45230,9 +45069,8 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-    </row>
-    <row r="176" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="176" spans="2:20" ht="15.75" customHeight="1">
       <c r="B176" s="2"/>
       <c r="C176" s="1"/>
       <c r="D176" s="2"/>
@@ -45243,7 +45081,7 @@
       <c r="I176" s="2"/>
       <c r="J176" s="1"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
+      <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
@@ -45252,9 +45090,8 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-    </row>
-    <row r="177" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="177" spans="2:20" ht="15.75" customHeight="1">
       <c r="B177" s="2"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2"/>
@@ -45265,7 +45102,7 @@
       <c r="I177" s="2"/>
       <c r="J177" s="1"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
+      <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
@@ -45274,9 +45111,8 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-    </row>
-    <row r="178" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="178" spans="2:20" ht="15.75" customHeight="1">
       <c r="B178" s="2"/>
       <c r="C178" s="1"/>
       <c r="D178" s="2"/>
@@ -45287,7 +45123,7 @@
       <c r="I178" s="2"/>
       <c r="J178" s="1"/>
       <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
+      <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
@@ -45296,9 +45132,8 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-    </row>
-    <row r="179" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="179" spans="2:20" ht="15.75" customHeight="1">
       <c r="B179" s="2"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2"/>
@@ -45309,7 +45144,7 @@
       <c r="I179" s="2"/>
       <c r="J179" s="1"/>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
+      <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
@@ -45318,9 +45153,8 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-    </row>
-    <row r="180" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="180" spans="2:20" ht="15.75" customHeight="1">
       <c r="B180" s="2"/>
       <c r="C180" s="1"/>
       <c r="D180" s="2"/>
@@ -45331,7 +45165,7 @@
       <c r="I180" s="2"/>
       <c r="J180" s="1"/>
       <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
+      <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
@@ -45340,9 +45174,8 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-    </row>
-    <row r="181" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="181" spans="2:20" ht="15.75" customHeight="1">
       <c r="B181" s="2"/>
       <c r="C181" s="1"/>
       <c r="D181" s="2"/>
@@ -45353,7 +45186,7 @@
       <c r="I181" s="2"/>
       <c r="J181" s="1"/>
       <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
+      <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
@@ -45362,9 +45195,8 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-    </row>
-    <row r="182" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="182" spans="2:20" ht="15.75" customHeight="1">
       <c r="B182" s="2"/>
       <c r="C182" s="1"/>
       <c r="D182" s="2"/>
@@ -45375,7 +45207,7 @@
       <c r="I182" s="2"/>
       <c r="J182" s="1"/>
       <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
@@ -45384,9 +45216,8 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-    </row>
-    <row r="183" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="183" spans="2:20" ht="15.75" customHeight="1">
       <c r="B183" s="2"/>
       <c r="C183" s="1"/>
       <c r="D183" s="2"/>
@@ -45397,7 +45228,7 @@
       <c r="I183" s="2"/>
       <c r="J183" s="1"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
+      <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
@@ -45406,9 +45237,8 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-    </row>
-    <row r="184" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="184" spans="2:20" ht="15.75" customHeight="1">
       <c r="B184" s="2"/>
       <c r="C184" s="1"/>
       <c r="D184" s="2"/>
@@ -45419,7 +45249,7 @@
       <c r="I184" s="2"/>
       <c r="J184" s="1"/>
       <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
+      <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
@@ -45428,9 +45258,8 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-    </row>
-    <row r="185" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="185" spans="2:20" ht="15.75" customHeight="1">
       <c r="B185" s="2"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2"/>
@@ -45441,7 +45270,7 @@
       <c r="I185" s="2"/>
       <c r="J185" s="1"/>
       <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
+      <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
@@ -45450,9 +45279,8 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-    </row>
-    <row r="186" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="186" spans="2:20" ht="15.75" customHeight="1">
       <c r="B186" s="2"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2"/>
@@ -45463,7 +45291,7 @@
       <c r="I186" s="2"/>
       <c r="J186" s="1"/>
       <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
+      <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
@@ -45472,9 +45300,8 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-    </row>
-    <row r="187" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="187" spans="2:20" ht="15.75" customHeight="1">
       <c r="B187" s="2"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2"/>
@@ -45485,7 +45312,7 @@
       <c r="I187" s="2"/>
       <c r="J187" s="1"/>
       <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
@@ -45494,9 +45321,8 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
-    </row>
-    <row r="188" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="188" spans="2:20" ht="15.75" customHeight="1">
       <c r="B188" s="2"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2"/>
@@ -45507,7 +45333,7 @@
       <c r="I188" s="2"/>
       <c r="J188" s="1"/>
       <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
+      <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
@@ -45516,9 +45342,8 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
-    </row>
-    <row r="189" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="189" spans="2:20" ht="15.75" customHeight="1">
       <c r="B189" s="2"/>
       <c r="C189" s="1"/>
       <c r="D189" s="2"/>
@@ -45529,7 +45354,7 @@
       <c r="I189" s="2"/>
       <c r="J189" s="1"/>
       <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
+      <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
@@ -45538,9 +45363,8 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-    </row>
-    <row r="190" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="190" spans="2:20" ht="15.75" customHeight="1">
       <c r="B190" s="2"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2"/>
@@ -45551,7 +45375,7 @@
       <c r="I190" s="2"/>
       <c r="J190" s="1"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
+      <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
@@ -45560,9 +45384,8 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
-    </row>
-    <row r="191" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="191" spans="2:20" ht="15.75" customHeight="1">
       <c r="B191" s="2"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2"/>
@@ -45573,7 +45396,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="1"/>
       <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
+      <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
@@ -45582,9 +45405,8 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
-      <c r="U191" s="1"/>
-    </row>
-    <row r="192" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="192" spans="2:20" ht="15.75" customHeight="1">
       <c r="B192" s="2"/>
       <c r="C192" s="1"/>
       <c r="D192" s="2"/>
@@ -45595,7 +45417,7 @@
       <c r="I192" s="2"/>
       <c r="J192" s="1"/>
       <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
+      <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
@@ -45604,9 +45426,8 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
-      <c r="U192" s="1"/>
-    </row>
-    <row r="193" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="193" spans="2:20" ht="15.75" customHeight="1">
       <c r="B193" s="2"/>
       <c r="C193" s="1"/>
       <c r="D193" s="2"/>
@@ -45617,7 +45438,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="1"/>
       <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
+      <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
@@ -45626,20 +45447,9 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
-      <c r="U193" s="1"/>
-    </row>
-    <row r="194" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B194" s="2"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="2"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
+    </row>
+    <row r="194" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
@@ -45648,9 +45458,9 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-    </row>
-    <row r="195" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="195" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
@@ -45659,9 +45469,9 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
-    </row>
-    <row r="196" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="196" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
@@ -45670,9 +45480,9 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
-      <c r="U196" s="1"/>
-    </row>
-    <row r="197" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="197" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
@@ -45681,9 +45491,9 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
-    </row>
-    <row r="198" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="198" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
@@ -45692,9 +45502,9 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
-    </row>
-    <row r="199" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="199" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
@@ -45703,9 +45513,9 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-    </row>
-    <row r="200" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="200" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
@@ -45714,9 +45524,9 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-    </row>
-    <row r="201" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="201" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
@@ -45725,9 +45535,9 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-    </row>
-    <row r="202" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="202" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
@@ -45736,9 +45546,9 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
-      <c r="U202" s="1"/>
-    </row>
-    <row r="203" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="203" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
@@ -45747,9 +45557,9 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-    </row>
-    <row r="204" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="204" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
@@ -45758,9 +45568,9 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
-      <c r="U204" s="1"/>
-    </row>
-    <row r="205" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="205" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
@@ -45769,9 +45579,9 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
-      <c r="U205" s="1"/>
-    </row>
-    <row r="206" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="206" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
@@ -45780,9 +45590,9 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
-      <c r="U206" s="1"/>
-    </row>
-    <row r="207" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="207" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
@@ -45791,9 +45601,9 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
-      <c r="U207" s="1"/>
-    </row>
-    <row r="208" spans="2:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="208" spans="2:20" ht="15.75" customHeight="1">
+      <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
@@ -45802,9 +45612,9 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
-      <c r="U208" s="1"/>
-    </row>
-    <row r="209" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="209" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
@@ -45813,9 +45623,9 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
-      <c r="U209" s="1"/>
-    </row>
-    <row r="210" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="210" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
@@ -45824,9 +45634,9 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
-      <c r="U210" s="1"/>
-    </row>
-    <row r="211" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="211" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -45835,9 +45645,9 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
-    </row>
-    <row r="212" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="212" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
@@ -45846,9 +45656,9 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
-      <c r="U212" s="1"/>
-    </row>
-    <row r="213" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="213" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
@@ -45857,9 +45667,9 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
-    </row>
-    <row r="214" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="214" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
@@ -45868,9 +45678,9 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
-      <c r="U214" s="1"/>
-    </row>
-    <row r="215" spans="13:21" ht="15.75" customHeight="1">
+    </row>
+    <row r="215" spans="12:20" ht="15.75" customHeight="1">
+      <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
@@ -45879,27 +45689,16 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-    </row>
-    <row r="216" spans="13:21" ht="15.75" customHeight="1">
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-    </row>
-    <row r="217" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="218" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="219" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="220" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="221" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="222" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="223" spans="13:21" ht="15.75" customHeight="1"/>
-    <row r="224" spans="13:21" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="216" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="217" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="218" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="219" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="220" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="221" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="222" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="223" spans="12:20" ht="15.75" customHeight="1"/>
+    <row r="224" spans="12:20" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -46652,13 +46451,15 @@
     <row r="974" ht="15.75" customHeight="1"/>
     <row r="975" ht="15.75" customHeight="1"/>
     <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="B7:D14"/>
-  <mergeCells count="3">
-    <mergeCell ref="C2:K3"/>
+  <mergeCells count="6">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="L8:L15"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="E8:E13"/>
+    <mergeCell ref="C2:J3"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -46970,7 +46771,7 @@
         <v>169</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L8" s="73" t="s">
         <v>177</v>
@@ -47019,10 +46820,10 @@
         <v>169</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L9" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="4"/>
@@ -47062,10 +46863,10 @@
         <v>169</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4"/>
@@ -47105,10 +46906,10 @@
         <v>169</v>
       </c>
       <c r="K11" s="71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L11" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="4"/>
@@ -47152,7 +46953,7 @@
         <v>169</v>
       </c>
       <c r="K12" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L12" s="116" t="s">
         <v>88</v>
@@ -47195,7 +46996,7 @@
         <v>169</v>
       </c>
       <c r="K13" s="71" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L13" s="117"/>
       <c r="M13" s="3">

--- a/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
+++ b/4. 진행현황/project06 - 프로젝트 진행 현황.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="4"/>
+    <workbookView xWindow="-90" yWindow="-30" windowWidth="14340" windowHeight="13770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="진행 상황 - 통합" sheetId="7" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'진행 상황 - 통합'!$B$15:$G$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'진행 상황 - 형준'!$B$7:$O$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="203">
   <si>
     <r>
       <rPr>
@@ -792,6 +792,10 @@
   </si>
   <si>
     <t>100%완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1800,6 +1804,15 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,17 +1891,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1899,6 +1912,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1906,24 +1928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2151,7 +2155,7 @@
   <dimension ref="A1:X961"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -2189,15 +2193,15 @@
       <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="21"/>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -2205,13 +2209,13 @@
       <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:24" ht="36" customHeight="1" thickBot="1">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="21"/>
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
@@ -2263,15 +2267,15 @@
       <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:24" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="21"/>
       <c r="U7" s="23"/>
       <c r="V7" s="21"/>
@@ -2493,7 +2497,7 @@
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="86" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -2529,7 +2533,7 @@
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B17" s="83"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="44" t="s">
         <v>40</v>
       </c>
@@ -2563,7 +2567,7 @@
       <c r="W17" s="21"/>
     </row>
     <row r="18" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B18" s="83"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="33">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="G18" s="51">
         <v>0.5</v>
@@ -2597,7 +2601,7 @@
       <c r="W18" s="21"/>
     </row>
     <row r="19" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B19" s="83"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="45" t="s">
         <v>42</v>
       </c>
@@ -2631,7 +2635,7 @@
       <c r="W19" s="21"/>
     </row>
     <row r="20" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B20" s="83"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="45" t="s">
         <v>43</v>
       </c>
@@ -2665,7 +2669,7 @@
       <c r="W20" s="21"/>
     </row>
     <row r="21" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B21" s="83"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +2692,7 @@
       <c r="W21" s="21"/>
     </row>
     <row r="22" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B22" s="83"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="44" t="s">
         <v>45</v>
       </c>
@@ -2711,7 +2715,7 @@
       <c r="W22" s="21"/>
     </row>
     <row r="23" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="87" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2726,7 +2730,7 @@
       <c r="F23" s="33">
         <v>0</v>
       </c>
-      <c r="G23" s="93" t="s">
+      <c r="G23" s="96" t="s">
         <v>196</v>
       </c>
       <c r="H23" s="21"/>
@@ -2736,7 +2740,7 @@
       <c r="W23" s="21"/>
     </row>
     <row r="24" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B24" s="84"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="42" t="s">
         <v>48</v>
       </c>
@@ -2749,7 +2753,7 @@
       <c r="F24" s="33">
         <v>0</v>
       </c>
-      <c r="G24" s="94"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -2757,7 +2761,7 @@
       <c r="W24" s="21"/>
     </row>
     <row r="25" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B25" s="84"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="42" t="s">
         <v>49</v>
       </c>
@@ -2770,7 +2774,7 @@
       <c r="F25" s="33">
         <v>0</v>
       </c>
-      <c r="G25" s="94"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -2778,7 +2782,7 @@
       <c r="W25" s="21"/>
     </row>
     <row r="26" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B26" s="84"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
@@ -2791,7 +2795,7 @@
       <c r="F26" s="33">
         <v>0.9</v>
       </c>
-      <c r="G26" s="94"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -2799,7 +2803,7 @@
       <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="21.95" customHeight="1">
-      <c r="B27" s="84"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="42" t="s">
         <v>51</v>
       </c>
@@ -2812,7 +2816,7 @@
       <c r="F27" s="33">
         <v>0.66</v>
       </c>
-      <c r="G27" s="94"/>
+      <c r="G27" s="97"/>
       <c r="H27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
@@ -2821,7 +2825,7 @@
     </row>
     <row r="28" spans="1:24" ht="21.95" customHeight="1" thickBot="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="46" t="s">
         <v>52</v>
       </c>
@@ -2834,7 +2838,7 @@
       <c r="F28" s="52">
         <v>0</v>
       </c>
-      <c r="G28" s="95"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -8073,7 +8077,7 @@
   <dimension ref="A1:AJ959"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -8136,17 +8140,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -8176,15 +8180,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -8385,7 +8389,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -8394,7 +8398,7 @@
       <c r="D8" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -8404,7 +8408,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K8" s="73">
         <v>1</v>
@@ -8439,25 +8443,25 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="104" t="s">
+      <c r="B9" s="108"/>
+      <c r="C9" s="107" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K9" s="73">
         <v>0.3</v>
       </c>
-      <c r="L9" s="96" t="s">
+      <c r="L9" s="99" t="s">
         <v>194</v>
       </c>
       <c r="M9" s="1"/>
@@ -8487,23 +8491,23 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="73">
-        <v>1</v>
+      <c r="J10" s="73" t="s">
+        <v>202</v>
       </c>
       <c r="K10" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="L10" s="97"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="1"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -8531,20 +8535,20 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="107" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K11" s="73">
         <v>1</v>
@@ -8579,18 +8583,18 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K12" s="73" t="s">
         <v>194</v>
@@ -8625,18 +8629,18 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K13" s="73">
         <v>0.6</v>
@@ -8671,25 +8675,25 @@
     </row>
     <row r="14" spans="1:36" ht="33.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="107" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K14" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="96" t="s">
+      <c r="L14" s="99" t="s">
         <v>194</v>
       </c>
       <c r="M14" s="1"/>
@@ -8719,23 +8723,23 @@
     </row>
     <row r="15" spans="1:36" ht="33.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K15" s="73">
         <v>0.3</v>
       </c>
-      <c r="L15" s="97"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -8763,20 +8767,20 @@
     </row>
     <row r="16" spans="1:36" ht="33.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="106"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="64" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K16" s="73">
         <v>0.3</v>
@@ -16522,7 +16526,7 @@
   <dimension ref="A1:AJ953"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -16583,17 +16587,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -16623,15 +16627,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -16848,7 +16852,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -16857,7 +16861,7 @@
       <c r="D8" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -16914,14 +16918,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -16974,7 +16978,7 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="106"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="64" t="s">
         <v>96</v>
       </c>
@@ -17034,7 +17038,7 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="107" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -17043,7 +17047,7 @@
       <c r="D11" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="110" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2"/>
@@ -17053,10 +17057,10 @@
       <c r="J11" s="73">
         <v>1</v>
       </c>
-      <c r="K11" s="120">
+      <c r="K11" s="83">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L11" s="122" t="s">
+      <c r="L11" s="113" t="s">
         <v>201</v>
       </c>
       <c r="M11" s="1"/>
@@ -17092,14 +17096,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="64" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -17107,10 +17111,10 @@
       <c r="J12" s="73">
         <v>1</v>
       </c>
-      <c r="K12" s="120">
+      <c r="K12" s="83">
         <v>0.91666666666666674</v>
       </c>
-      <c r="L12" s="122"/>
+      <c r="L12" s="113"/>
       <c r="M12" s="1"/>
       <c r="N12" s="81" t="s">
         <v>174</v>
@@ -17144,14 +17148,14 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="64" t="s">
         <v>102</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -17159,10 +17163,10 @@
       <c r="J13" s="73">
         <v>1</v>
       </c>
-      <c r="K13" s="120">
+      <c r="K13" s="83">
         <v>0</v>
       </c>
-      <c r="L13" s="122"/>
+      <c r="L13" s="113"/>
       <c r="M13" s="1"/>
       <c r="N13" s="81" t="s">
         <v>190</v>
@@ -17213,8 +17217,8 @@
       <c r="J14" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="113"/>
       <c r="M14" s="1"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2" t="s">
@@ -24790,7 +24794,7 @@
   <dimension ref="A1:AJ955"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K8" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -24853,17 +24857,17 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -24893,15 +24897,15 @@
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="70"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
       <c r="L3" s="70"/>
       <c r="M3" s="70"/>
       <c r="N3" s="70"/>
@@ -25102,7 +25106,7 @@
     </row>
     <row r="8" spans="1:36" ht="33.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -25111,7 +25115,7 @@
       <c r="D8" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -25156,14 +25160,14 @@
     </row>
     <row r="9" spans="1:36" ht="33.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="105"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="64" t="s">
         <v>107</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -25204,14 +25208,14 @@
     </row>
     <row r="10" spans="1:36" ht="33.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="105"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="64" t="s">
         <v>109</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -25252,14 +25256,14 @@
     </row>
     <row r="11" spans="1:36" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="105"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="79" t="s">
         <v>111</v>
       </c>
       <c r="D11" s="67" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -25300,14 +25304,14 @@
     </row>
     <row r="12" spans="1:36" ht="33.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="64" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -25348,7 +25352,7 @@
     </row>
     <row r="13" spans="1:36" ht="33.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="64" t="s">
         <v>114</v>
       </c>
@@ -33047,8 +33051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -33100,18 +33104,18 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="1"/>
@@ -33135,16 +33139,16 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="1"/>
@@ -33325,16 +33329,16 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -33374,12 +33378,12 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="63.75" customHeight="1">
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -33415,16 +33419,16 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="107" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -33466,12 +33470,12 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -33507,14 +33511,14 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B12" s="105"/>
-      <c r="C12" s="104" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D12" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -33550,12 +33554,12 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -33591,12 +33595,12 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="108"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -33626,14 +33630,14 @@
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B15" s="105"/>
-      <c r="C15" s="104" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="107" t="s">
         <v>128</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -33669,8 +33673,8 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="67" t="s">
         <v>130</v>
       </c>
@@ -33710,7 +33714,7 @@
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="107" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="64" t="s">
@@ -33719,7 +33723,7 @@
       <c r="D17" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="110" t="s">
         <v>134</v>
       </c>
       <c r="F17" s="2"/>
@@ -33729,10 +33733,10 @@
       <c r="J17" s="73">
         <v>1</v>
       </c>
-      <c r="K17" s="113" t="s">
+      <c r="K17" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="L17" s="113" t="s">
+      <c r="L17" s="116" t="s">
         <v>88</v>
       </c>
       <c r="M17" s="5"/>
@@ -33757,14 +33761,14 @@
       <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="2:32" ht="30.75" customHeight="1">
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="64" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -33772,8 +33776,8 @@
       <c r="J18" s="73">
         <v>1</v>
       </c>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
@@ -33805,7 +33809,7 @@
       <c r="D19" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="108"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -33813,8 +33817,8 @@
       <c r="J19" s="73">
         <v>1</v>
       </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
@@ -33837,7 +33841,7 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="2:32" ht="28.5" customHeight="1">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="107" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="64" t="s">
@@ -33846,20 +33850,20 @@
       <c r="D20" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="114" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="123" t="s">
+      <c r="J20" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="K20" s="123" t="s">
+      <c r="K20" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="L20" s="124"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="10">
         <v>1</v>
       </c>
@@ -33888,21 +33892,21 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="2:32" ht="32.25" customHeight="1">
-      <c r="B21" s="105"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="64" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="10"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -33925,21 +33929,21 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="2:32" ht="24" customHeight="1">
-      <c r="B22" s="105"/>
+      <c r="B22" s="108"/>
       <c r="C22" s="64" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="10"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -33962,21 +33966,21 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="2:32" ht="24" customHeight="1">
-      <c r="B23" s="105"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="64" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="10"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -33999,21 +34003,21 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="2:32" ht="24" customHeight="1">
-      <c r="B24" s="105"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="64" t="s">
         <v>148</v>
       </c>
       <c r="D24" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="124"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="10"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -34036,21 +34040,21 @@
       <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="2:32" ht="27" customHeight="1">
-      <c r="B25" s="106"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="64" t="s">
         <v>150</v>
       </c>
       <c r="D25" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="119"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="124"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="10"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -41253,12 +41257,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="16">
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="K20:K25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E19"/>
     <mergeCell ref="L17:L19"/>
     <mergeCell ref="C2:L3"/>
     <mergeCell ref="B8:B9"/>
@@ -41269,6 +41267,12 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="K17:K19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -41281,7 +41285,7 @@
   <dimension ref="B1:T976"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K14" sqref="K14:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -41320,16 +41324,16 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="2:20" ht="19.5" customHeight="1">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -41343,14 +41347,14 @@
     </row>
     <row r="3" spans="2:20" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -41467,7 +41471,7 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -41476,7 +41480,7 @@
       <c r="D8" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -41491,7 +41495,7 @@
       <c r="K8" s="73">
         <v>0.9</v>
       </c>
-      <c r="L8" s="109" t="s">
+      <c r="L8" s="119" t="s">
         <v>201</v>
       </c>
       <c r="M8" s="1"/>
@@ -41504,14 +41508,14 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="64" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -41522,7 +41526,7 @@
       <c r="K9" s="73">
         <v>0.9</v>
       </c>
-      <c r="L9" s="110"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -41533,14 +41537,14 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B10" s="105"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="64" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -41551,7 +41555,7 @@
       <c r="K10" s="73">
         <v>1</v>
       </c>
-      <c r="L10" s="110"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -41562,14 +41566,14 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B11" s="105"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="64" t="s">
         <v>146</v>
       </c>
       <c r="D11" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -41580,7 +41584,7 @@
       <c r="K11" s="73">
         <v>1</v>
       </c>
-      <c r="L11" s="110"/>
+      <c r="L11" s="120"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -41591,14 +41595,14 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B12" s="105"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="64" t="s">
         <v>148</v>
       </c>
       <c r="D12" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -41609,7 +41613,7 @@
       <c r="K12" s="73">
         <v>1</v>
       </c>
-      <c r="L12" s="110"/>
+      <c r="L12" s="120"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -41620,14 +41624,14 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" ht="36" customHeight="1">
-      <c r="B13" s="106"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="64" t="s">
         <v>150</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -41638,7 +41642,7 @@
       <c r="K13" s="73">
         <v>1</v>
       </c>
-      <c r="L13" s="110"/>
+      <c r="L13" s="120"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -41649,7 +41653,7 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" ht="29.25" customHeight="1">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="107" t="s">
         <v>131</v>
       </c>
       <c r="C14" s="64" t="s">
@@ -41658,7 +41662,7 @@
       <c r="D14" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="114" t="s">
         <v>134</v>
       </c>
       <c r="F14" s="2"/>
@@ -41671,7 +41675,7 @@
       <c r="K14" s="73">
         <v>0</v>
       </c>
-      <c r="L14" s="110"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -41682,14 +41686,14 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" ht="29.25" customHeight="1">
-      <c r="B15" s="106"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="64" t="s">
         <v>135</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="119"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -41700,7 +41704,7 @@
       <c r="K15" s="73">
         <v>0</v>
       </c>
-      <c r="L15" s="111"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -46471,8 +46475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF973"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.2" customHeight="1"/>
@@ -46524,17 +46528,17 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="2:32" ht="19.5" customHeight="1">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="70"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
@@ -46559,15 +46563,15 @@
     </row>
     <row r="3" spans="2:32" ht="19.5" customHeight="1" thickBot="1">
       <c r="B3" s="70"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
       <c r="L3" s="70"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
@@ -46749,7 +46753,7 @@
       <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="2:32" ht="33" customHeight="1">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>153</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -46758,7 +46762,7 @@
       <c r="D8" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2"/>
@@ -46804,14 +46808,14 @@
       <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="2:32" ht="33" customHeight="1">
-      <c r="B9" s="105"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="64" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="108"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -46847,14 +46851,14 @@
       <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="2:32" ht="33" customHeight="1">
-      <c r="B10" s="105"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="64" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="108"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -46890,7 +46894,7 @@
       <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="2:32" ht="33" customHeight="1">
-      <c r="B11" s="106"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="64" t="s">
         <v>160</v>
       </c>
@@ -46933,7 +46937,7 @@
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="2:32" ht="33" customHeight="1">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="107" t="s">
         <v>162</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -46942,7 +46946,7 @@
       <c r="D12" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="110" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="2"/>
@@ -46955,7 +46959,7 @@
       <c r="K12" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="L12" s="116" t="s">
+      <c r="L12" s="122" t="s">
         <v>88</v>
       </c>
       <c r="M12" s="3"/>
@@ -46980,14 +46984,14 @@
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="2:32" ht="33" customHeight="1">
-      <c r="B13" s="105"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="64" t="s">
         <v>165</v>
       </c>
       <c r="D13" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="108"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -46998,7 +47002,7 @@
       <c r="K13" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="117"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -47027,7 +47031,7 @@
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="2:32" ht="33" customHeight="1">
-      <c r="B14" s="106"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="64" t="s">
         <v>167</v>
       </c>
@@ -47043,7 +47047,7 @@
         <v>169</v>
       </c>
       <c r="K14" s="71"/>
-      <c r="L14" s="118"/>
+      <c r="L14" s="124"/>
       <c r="M14" s="5">
         <v>2</v>
       </c>
